--- a/graph_data/relation.xlsx
+++ b/graph_data/relation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17985" windowHeight="11640"/>
+    <workbookView windowWidth="13065" windowHeight="11010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25104" uniqueCount="2898">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25104" uniqueCount="2895">
   <si>
     <t>head</t>
   </si>
@@ -713,7 +713,7 @@
     <t>Coastal grass community</t>
   </si>
   <si>
-    <t>Overlappes</t>
+    <t>Overlap</t>
   </si>
   <si>
     <t>Lagoon</t>
@@ -947,7 +947,7 @@
     <t>Goldfish Algae</t>
   </si>
   <si>
-    <t>Override</t>
+    <t>Cover</t>
   </si>
   <si>
     <t>Agave</t>
@@ -7895,9 +7895,6 @@
     <t>Bogs</t>
   </si>
   <si>
-    <t>Overlap</t>
-  </si>
-  <si>
     <t>Bays</t>
   </si>
   <si>
@@ -7919,9 +7916,6 @@
     <t>Saw Palmetto</t>
   </si>
   <si>
-    <t>Cover</t>
-  </si>
-  <si>
     <t>Puffer</t>
   </si>
   <si>
@@ -7974,9 +7968,6 @@
   </si>
   <si>
     <t>Sea fescue community</t>
-  </si>
-  <si>
-    <t>Including</t>
   </si>
   <si>
     <t>Seashore quinoa</t>
@@ -9685,8 +9676,8 @@
   <sheetPr/>
   <dimension ref="A1:C8368"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7164" workbookViewId="0">
-      <selection activeCell="A7164" sqref="A$1:C$1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -88907,10 +88898,10 @@
         <v>2619</v>
       </c>
       <c r="B7202" t="s">
+        <v>228</v>
+      </c>
+      <c r="C7202" t="s">
         <v>2622</v>
-      </c>
-      <c r="C7202" t="s">
-        <v>2623</v>
       </c>
     </row>
     <row r="7203" spans="1:3">
@@ -88918,7 +88909,7 @@
         <v>2619</v>
       </c>
       <c r="B7203" t="s">
-        <v>2622</v>
+        <v>228</v>
       </c>
       <c r="C7203" t="s">
         <v>229</v>
@@ -88937,7 +88928,7 @@
     </row>
     <row r="7205" spans="1:3">
       <c r="A7205" t="s">
-        <v>2624</v>
+        <v>2623</v>
       </c>
       <c r="B7205" t="s">
         <v>118</v>
@@ -88976,7 +88967,7 @@
         <v>5</v>
       </c>
       <c r="C7208" t="s">
-        <v>2625</v>
+        <v>2624</v>
       </c>
     </row>
     <row r="7209" spans="1:3">
@@ -88992,18 +88983,18 @@
     </row>
     <row r="7210" spans="1:3">
       <c r="A7210" t="s">
-        <v>2626</v>
+        <v>2625</v>
       </c>
       <c r="B7210" t="s">
         <v>118</v>
       </c>
       <c r="C7210" t="s">
-        <v>2627</v>
+        <v>2626</v>
       </c>
     </row>
     <row r="7211" spans="1:3">
       <c r="A7211" t="s">
-        <v>2626</v>
+        <v>2625</v>
       </c>
       <c r="B7211" t="s">
         <v>118</v>
@@ -89020,7 +89011,7 @@
         <v>118</v>
       </c>
       <c r="C7212" t="s">
-        <v>2628</v>
+        <v>2627</v>
       </c>
     </row>
     <row r="7213" spans="1:3">
@@ -89042,7 +89033,7 @@
         <v>302</v>
       </c>
       <c r="C7214" t="s">
-        <v>2629</v>
+        <v>2628</v>
       </c>
     </row>
     <row r="7215" spans="1:3">
@@ -89050,10 +89041,10 @@
         <v>248</v>
       </c>
       <c r="B7215" t="s">
-        <v>2630</v>
+        <v>306</v>
       </c>
       <c r="C7215" t="s">
-        <v>2631</v>
+        <v>2629</v>
       </c>
     </row>
     <row r="7216" spans="1:3">
@@ -89061,7 +89052,7 @@
         <v>248</v>
       </c>
       <c r="B7216" t="s">
-        <v>2630</v>
+        <v>306</v>
       </c>
       <c r="C7216" t="s">
         <v>303</v>
@@ -89072,7 +89063,7 @@
         <v>248</v>
       </c>
       <c r="B7217" t="s">
-        <v>2630</v>
+        <v>306</v>
       </c>
       <c r="C7217" t="s">
         <v>320</v>
@@ -89083,7 +89074,7 @@
         <v>248</v>
       </c>
       <c r="B7218" t="s">
-        <v>2630</v>
+        <v>306</v>
       </c>
       <c r="C7218" t="s">
         <v>317</v>
@@ -89094,7 +89085,7 @@
         <v>248</v>
       </c>
       <c r="B7219" t="s">
-        <v>2630</v>
+        <v>306</v>
       </c>
       <c r="C7219" t="s">
         <v>389</v>
@@ -89119,7 +89110,7 @@
         <v>300</v>
       </c>
       <c r="C7221" t="s">
-        <v>2632</v>
+        <v>2630</v>
       </c>
     </row>
     <row r="7222" spans="1:3">
@@ -89163,12 +89154,12 @@
         <v>16</v>
       </c>
       <c r="C7225" t="s">
-        <v>2633</v>
+        <v>2631</v>
       </c>
     </row>
     <row r="7226" spans="1:3">
       <c r="A7226" t="s">
-        <v>2627</v>
+        <v>2626</v>
       </c>
       <c r="B7226" t="s">
         <v>33</v>
@@ -89179,7 +89170,7 @@
     </row>
     <row r="7227" spans="1:3">
       <c r="A7227" t="s">
-        <v>2627</v>
+        <v>2626</v>
       </c>
       <c r="B7227" t="s">
         <v>33</v>
@@ -89190,7 +89181,7 @@
     </row>
     <row r="7228" spans="1:3">
       <c r="A7228" t="s">
-        <v>2627</v>
+        <v>2626</v>
       </c>
       <c r="B7228" t="s">
         <v>33</v>
@@ -89201,7 +89192,7 @@
     </row>
     <row r="7229" spans="1:3">
       <c r="A7229" t="s">
-        <v>2627</v>
+        <v>2626</v>
       </c>
       <c r="B7229" t="s">
         <v>33</v>
@@ -89212,7 +89203,7 @@
     </row>
     <row r="7230" spans="1:3">
       <c r="A7230" t="s">
-        <v>2627</v>
+        <v>2626</v>
       </c>
       <c r="B7230" t="s">
         <v>33</v>
@@ -89223,7 +89214,7 @@
     </row>
     <row r="7231" spans="1:3">
       <c r="A7231" t="s">
-        <v>2627</v>
+        <v>2626</v>
       </c>
       <c r="B7231" t="s">
         <v>33</v>
@@ -89234,7 +89225,7 @@
     </row>
     <row r="7232" spans="1:3">
       <c r="A7232" t="s">
-        <v>2627</v>
+        <v>2626</v>
       </c>
       <c r="B7232" t="s">
         <v>33</v>
@@ -89245,7 +89236,7 @@
     </row>
     <row r="7233" spans="1:3">
       <c r="A7233" t="s">
-        <v>2627</v>
+        <v>2626</v>
       </c>
       <c r="B7233" t="s">
         <v>33</v>
@@ -89256,7 +89247,7 @@
     </row>
     <row r="7234" spans="1:3">
       <c r="A7234" t="s">
-        <v>2627</v>
+        <v>2626</v>
       </c>
       <c r="B7234" t="s">
         <v>91</v>
@@ -89267,18 +89258,18 @@
     </row>
     <row r="7235" spans="1:3">
       <c r="A7235" t="s">
-        <v>2627</v>
+        <v>2626</v>
       </c>
       <c r="B7235" t="s">
         <v>91</v>
       </c>
       <c r="C7235" t="s">
-        <v>2634</v>
+        <v>2632</v>
       </c>
     </row>
     <row r="7236" spans="1:3">
       <c r="A7236" t="s">
-        <v>2627</v>
+        <v>2626</v>
       </c>
       <c r="B7236" t="s">
         <v>118</v>
@@ -89289,7 +89280,7 @@
     </row>
     <row r="7237" spans="1:3">
       <c r="A7237" t="s">
-        <v>2627</v>
+        <v>2626</v>
       </c>
       <c r="B7237" t="s">
         <v>118</v>
@@ -89328,12 +89319,12 @@
         <v>16</v>
       </c>
       <c r="C7240" t="s">
-        <v>2633</v>
+        <v>2631</v>
       </c>
     </row>
     <row r="7241" spans="1:3">
       <c r="A7241" t="s">
-        <v>2635</v>
+        <v>2633</v>
       </c>
       <c r="B7241" t="s">
         <v>33</v>
@@ -89344,7 +89335,7 @@
     </row>
     <row r="7242" spans="1:3">
       <c r="A7242" t="s">
-        <v>2635</v>
+        <v>2633</v>
       </c>
       <c r="B7242" t="s">
         <v>118</v>
@@ -89355,7 +89346,7 @@
     </row>
     <row r="7243" spans="1:3">
       <c r="A7243" t="s">
-        <v>2635</v>
+        <v>2633</v>
       </c>
       <c r="B7243" t="s">
         <v>260</v>
@@ -89366,7 +89357,7 @@
     </row>
     <row r="7244" spans="1:3">
       <c r="A7244" t="s">
-        <v>2636</v>
+        <v>2634</v>
       </c>
       <c r="B7244" t="s">
         <v>33</v>
@@ -89377,7 +89368,7 @@
     </row>
     <row r="7245" spans="1:3">
       <c r="A7245" t="s">
-        <v>2636</v>
+        <v>2634</v>
       </c>
       <c r="B7245" t="s">
         <v>33</v>
@@ -89388,7 +89379,7 @@
     </row>
     <row r="7246" spans="1:3">
       <c r="A7246" t="s">
-        <v>2636</v>
+        <v>2634</v>
       </c>
       <c r="B7246" t="s">
         <v>118</v>
@@ -89399,7 +89390,7 @@
     </row>
     <row r="7247" spans="1:3">
       <c r="A7247" t="s">
-        <v>2636</v>
+        <v>2634</v>
       </c>
       <c r="B7247" t="s">
         <v>118</v>
@@ -89416,7 +89407,7 @@
         <v>5</v>
       </c>
       <c r="C7248" t="s">
-        <v>2637</v>
+        <v>2635</v>
       </c>
     </row>
     <row r="7249" spans="1:3">
@@ -89432,7 +89423,7 @@
     </row>
     <row r="7250" spans="1:3">
       <c r="A7250" t="s">
-        <v>2638</v>
+        <v>2636</v>
       </c>
       <c r="B7250" t="s">
         <v>91</v>
@@ -89443,7 +89434,7 @@
     </row>
     <row r="7251" spans="1:3">
       <c r="A7251" t="s">
-        <v>2639</v>
+        <v>2637</v>
       </c>
       <c r="B7251" t="s">
         <v>91</v>
@@ -89460,12 +89451,12 @@
         <v>5</v>
       </c>
       <c r="C7252" t="s">
-        <v>2640</v>
+        <v>2638</v>
       </c>
     </row>
     <row r="7253" spans="1:3">
       <c r="A7253" t="s">
-        <v>2641</v>
+        <v>2639</v>
       </c>
       <c r="B7253" t="s">
         <v>33</v>
@@ -89476,7 +89467,7 @@
     </row>
     <row r="7254" spans="1:3">
       <c r="A7254" t="s">
-        <v>2642</v>
+        <v>2640</v>
       </c>
       <c r="B7254" t="s">
         <v>33</v>
@@ -89487,7 +89478,7 @@
     </row>
     <row r="7255" spans="1:3">
       <c r="A7255" t="s">
-        <v>2643</v>
+        <v>2641</v>
       </c>
       <c r="B7255" t="s">
         <v>91</v>
@@ -89498,7 +89489,7 @@
     </row>
     <row r="7256" spans="1:3">
       <c r="A7256" t="s">
-        <v>2644</v>
+        <v>2642</v>
       </c>
       <c r="B7256" t="s">
         <v>91</v>
@@ -89509,7 +89500,7 @@
     </row>
     <row r="7257" spans="1:3">
       <c r="A7257" t="s">
-        <v>2645</v>
+        <v>2643</v>
       </c>
       <c r="B7257" t="s">
         <v>118</v>
@@ -89520,10 +89511,10 @@
     </row>
     <row r="7258" spans="1:3">
       <c r="A7258" t="s">
-        <v>2646</v>
+        <v>2644</v>
       </c>
       <c r="B7258" t="s">
-        <v>2622</v>
+        <v>228</v>
       </c>
       <c r="C7258" t="s">
         <v>956</v>
@@ -89531,7 +89522,7 @@
     </row>
     <row r="7259" spans="1:3">
       <c r="A7259" t="s">
-        <v>2647</v>
+        <v>2645</v>
       </c>
       <c r="B7259" t="s">
         <v>118</v>
@@ -89542,7 +89533,7 @@
     </row>
     <row r="7260" spans="1:3">
       <c r="A7260" t="s">
-        <v>2647</v>
+        <v>2645</v>
       </c>
       <c r="B7260" t="s">
         <v>300</v>
@@ -89553,7 +89544,7 @@
     </row>
     <row r="7261" spans="1:3">
       <c r="A7261" t="s">
-        <v>2648</v>
+        <v>2646</v>
       </c>
       <c r="B7261" t="s">
         <v>91</v>
@@ -89567,7 +89558,7 @@
         <v>246</v>
       </c>
       <c r="B7262" t="s">
-        <v>2649</v>
+        <v>243</v>
       </c>
       <c r="C7262" t="s">
         <v>258</v>
@@ -89578,7 +89569,7 @@
         <v>246</v>
       </c>
       <c r="B7263" t="s">
-        <v>2649</v>
+        <v>243</v>
       </c>
       <c r="C7263" t="s">
         <v>2082</v>
@@ -89586,7 +89577,7 @@
     </row>
     <row r="7264" spans="1:3">
       <c r="A7264" t="s">
-        <v>2623</v>
+        <v>2622</v>
       </c>
       <c r="B7264" t="s">
         <v>308</v>
@@ -89603,7 +89594,7 @@
         <v>118</v>
       </c>
       <c r="C7265" t="s">
-        <v>2650</v>
+        <v>2647</v>
       </c>
     </row>
     <row r="7266" spans="1:3">
@@ -89625,7 +89616,7 @@
         <v>118</v>
       </c>
       <c r="C7267" t="s">
-        <v>2651</v>
+        <v>2648</v>
       </c>
     </row>
     <row r="7268" spans="1:3">
@@ -89633,10 +89624,10 @@
         <v>249</v>
       </c>
       <c r="B7268" t="s">
-        <v>2630</v>
+        <v>306</v>
       </c>
       <c r="C7268" t="s">
-        <v>2631</v>
+        <v>2629</v>
       </c>
     </row>
     <row r="7269" spans="1:3">
@@ -89644,7 +89635,7 @@
         <v>249</v>
       </c>
       <c r="B7269" t="s">
-        <v>2630</v>
+        <v>306</v>
       </c>
       <c r="C7269" t="s">
         <v>320</v>
@@ -89655,7 +89646,7 @@
         <v>249</v>
       </c>
       <c r="B7270" t="s">
-        <v>2630</v>
+        <v>306</v>
       </c>
       <c r="C7270" t="s">
         <v>311</v>
@@ -89666,10 +89657,10 @@
         <v>249</v>
       </c>
       <c r="B7271" t="s">
-        <v>2630</v>
+        <v>306</v>
       </c>
       <c r="C7271" t="s">
-        <v>2652</v>
+        <v>2649</v>
       </c>
     </row>
     <row r="7272" spans="1:3">
@@ -89680,7 +89671,7 @@
         <v>300</v>
       </c>
       <c r="C7272" t="s">
-        <v>2653</v>
+        <v>2650</v>
       </c>
     </row>
     <row r="7273" spans="1:3">
@@ -89691,7 +89682,7 @@
         <v>308</v>
       </c>
       <c r="C7273" t="s">
-        <v>2628</v>
+        <v>2627</v>
       </c>
     </row>
     <row r="7274" spans="1:3">
@@ -89702,12 +89693,12 @@
         <v>308</v>
       </c>
       <c r="C7274" t="s">
-        <v>2654</v>
+        <v>2651</v>
       </c>
     </row>
     <row r="7275" spans="1:3">
       <c r="A7275" t="s">
-        <v>2655</v>
+        <v>2652</v>
       </c>
       <c r="B7275" t="s">
         <v>931</v>
@@ -89718,7 +89709,7 @@
     </row>
     <row r="7276" spans="1:3">
       <c r="A7276" t="s">
-        <v>2656</v>
+        <v>2653</v>
       </c>
       <c r="B7276" t="s">
         <v>24</v>
@@ -89729,7 +89720,7 @@
     </row>
     <row r="7277" spans="1:3">
       <c r="A7277" t="s">
-        <v>2657</v>
+        <v>2654</v>
       </c>
       <c r="B7277" t="s">
         <v>91</v>
@@ -89740,7 +89731,7 @@
     </row>
     <row r="7278" spans="1:3">
       <c r="A7278" t="s">
-        <v>2658</v>
+        <v>2655</v>
       </c>
       <c r="B7278" t="s">
         <v>24</v>
@@ -89751,7 +89742,7 @@
     </row>
     <row r="7279" spans="1:3">
       <c r="A7279" t="s">
-        <v>2659</v>
+        <v>2656</v>
       </c>
       <c r="B7279" t="s">
         <v>91</v>
@@ -89762,7 +89753,7 @@
     </row>
     <row r="7280" spans="1:3">
       <c r="A7280" t="s">
-        <v>2656</v>
+        <v>2653</v>
       </c>
       <c r="B7280" t="s">
         <v>118</v>
@@ -89773,10 +89764,10 @@
     </row>
     <row r="7281" spans="1:3">
       <c r="A7281" t="s">
-        <v>2660</v>
+        <v>2657</v>
       </c>
       <c r="B7281" t="s">
-        <v>2622</v>
+        <v>228</v>
       </c>
       <c r="C7281" t="s">
         <v>25</v>
@@ -89784,10 +89775,10 @@
     </row>
     <row r="7282" spans="1:3">
       <c r="A7282" t="s">
-        <v>2661</v>
+        <v>2658</v>
       </c>
       <c r="B7282" t="s">
-        <v>2622</v>
+        <v>228</v>
       </c>
       <c r="C7282" t="s">
         <v>25</v>
@@ -89795,10 +89786,10 @@
     </row>
     <row r="7283" spans="1:3">
       <c r="A7283" t="s">
-        <v>2662</v>
+        <v>2659</v>
       </c>
       <c r="B7283" t="s">
-        <v>2622</v>
+        <v>228</v>
       </c>
       <c r="C7283" t="s">
         <v>25</v>
@@ -89806,7 +89797,7 @@
     </row>
     <row r="7284" spans="1:3">
       <c r="A7284" t="s">
-        <v>2663</v>
+        <v>2660</v>
       </c>
       <c r="B7284" t="s">
         <v>24</v>
@@ -89817,7 +89808,7 @@
     </row>
     <row r="7285" spans="1:3">
       <c r="A7285" t="s">
-        <v>2664</v>
+        <v>2661</v>
       </c>
       <c r="B7285" t="s">
         <v>33</v>
@@ -89834,7 +89825,7 @@
         <v>118</v>
       </c>
       <c r="C7286" t="s">
-        <v>2628</v>
+        <v>2627</v>
       </c>
     </row>
     <row r="7287" spans="1:3">
@@ -89856,7 +89847,7 @@
         <v>302</v>
       </c>
       <c r="C7288" t="s">
-        <v>2629</v>
+        <v>2628</v>
       </c>
     </row>
     <row r="7289" spans="1:3">
@@ -89864,10 +89855,10 @@
         <v>25</v>
       </c>
       <c r="B7289" t="s">
-        <v>2630</v>
+        <v>306</v>
       </c>
       <c r="C7289" t="s">
-        <v>2631</v>
+        <v>2629</v>
       </c>
     </row>
     <row r="7290" spans="1:3">
@@ -89875,7 +89866,7 @@
         <v>25</v>
       </c>
       <c r="B7290" t="s">
-        <v>2630</v>
+        <v>306</v>
       </c>
       <c r="C7290" t="s">
         <v>303</v>
@@ -89886,7 +89877,7 @@
         <v>25</v>
       </c>
       <c r="B7291" t="s">
-        <v>2630</v>
+        <v>306</v>
       </c>
       <c r="C7291" t="s">
         <v>320</v>
@@ -89897,7 +89888,7 @@
         <v>25</v>
       </c>
       <c r="B7292" t="s">
-        <v>2630</v>
+        <v>306</v>
       </c>
       <c r="C7292" t="s">
         <v>317</v>
@@ -89908,7 +89899,7 @@
         <v>25</v>
       </c>
       <c r="B7293" t="s">
-        <v>2630</v>
+        <v>306</v>
       </c>
       <c r="C7293" t="s">
         <v>311</v>
@@ -89933,7 +89924,7 @@
         <v>300</v>
       </c>
       <c r="C7295" t="s">
-        <v>2632</v>
+        <v>2630</v>
       </c>
     </row>
     <row r="7296" spans="1:3">
@@ -89971,7 +89962,7 @@
     </row>
     <row r="7299" spans="1:3">
       <c r="A7299" t="s">
-        <v>2665</v>
+        <v>2662</v>
       </c>
       <c r="B7299" t="s">
         <v>118</v>
@@ -89985,7 +89976,7 @@
         <v>2001</v>
       </c>
       <c r="B7300" t="s">
-        <v>2622</v>
+        <v>228</v>
       </c>
       <c r="C7300" t="s">
         <v>956</v>
@@ -89993,7 +89984,7 @@
     </row>
     <row r="7301" spans="1:3">
       <c r="A7301" t="s">
-        <v>2666</v>
+        <v>2663</v>
       </c>
       <c r="B7301" t="s">
         <v>24</v>
@@ -90004,7 +89995,7 @@
     </row>
     <row r="7302" spans="1:3">
       <c r="A7302" t="s">
-        <v>2667</v>
+        <v>2664</v>
       </c>
       <c r="B7302" t="s">
         <v>118</v>
@@ -90015,7 +90006,7 @@
     </row>
     <row r="7303" spans="1:3">
       <c r="A7303" t="s">
-        <v>2668</v>
+        <v>2665</v>
       </c>
       <c r="B7303" t="s">
         <v>24</v>
@@ -90029,7 +90020,7 @@
         <v>314</v>
       </c>
       <c r="B7304" t="s">
-        <v>2622</v>
+        <v>228</v>
       </c>
       <c r="C7304" t="s">
         <v>25</v>
@@ -90037,7 +90028,7 @@
     </row>
     <row r="7305" spans="1:3">
       <c r="A7305" t="s">
-        <v>2669</v>
+        <v>2666</v>
       </c>
       <c r="B7305" t="s">
         <v>24</v>
@@ -90051,7 +90042,7 @@
         <v>315</v>
       </c>
       <c r="B7306" t="s">
-        <v>2622</v>
+        <v>228</v>
       </c>
       <c r="C7306" t="s">
         <v>25</v>
@@ -90081,7 +90072,7 @@
     </row>
     <row r="7309" spans="1:3">
       <c r="A7309" t="s">
-        <v>2670</v>
+        <v>2667</v>
       </c>
       <c r="B7309" t="s">
         <v>118</v>
@@ -90092,7 +90083,7 @@
     </row>
     <row r="7310" spans="1:3">
       <c r="A7310" t="s">
-        <v>2671</v>
+        <v>2668</v>
       </c>
       <c r="B7310" t="s">
         <v>91</v>
@@ -90103,7 +90094,7 @@
     </row>
     <row r="7311" spans="1:3">
       <c r="A7311" t="s">
-        <v>2672</v>
+        <v>2669</v>
       </c>
       <c r="B7311" t="s">
         <v>91</v>
@@ -90125,7 +90116,7 @@
     </row>
     <row r="7313" spans="1:3">
       <c r="A7313" t="s">
-        <v>2636</v>
+        <v>2634</v>
       </c>
       <c r="B7313" t="s">
         <v>33</v>
@@ -90136,10 +90127,10 @@
     </row>
     <row r="7314" spans="1:3">
       <c r="A7314" t="s">
-        <v>2673</v>
+        <v>2670</v>
       </c>
       <c r="B7314" t="s">
-        <v>2622</v>
+        <v>228</v>
       </c>
       <c r="C7314" t="s">
         <v>956</v>
@@ -90147,24 +90138,24 @@
     </row>
     <row r="7315" spans="1:3">
       <c r="A7315" t="s">
-        <v>2674</v>
+        <v>2671</v>
       </c>
       <c r="B7315" t="s">
         <v>115</v>
       </c>
       <c r="C7315" t="s">
-        <v>2675</v>
+        <v>2672</v>
       </c>
     </row>
     <row r="7316" spans="1:3">
       <c r="A7316" t="s">
-        <v>2674</v>
+        <v>2671</v>
       </c>
       <c r="B7316" t="s">
         <v>115</v>
       </c>
       <c r="C7316" t="s">
-        <v>2676</v>
+        <v>2673</v>
       </c>
     </row>
     <row r="7317" spans="1:3">
@@ -90183,7 +90174,7 @@
         <v>242</v>
       </c>
       <c r="B7318" t="s">
-        <v>2649</v>
+        <v>243</v>
       </c>
       <c r="C7318" t="s">
         <v>246</v>
@@ -90191,18 +90182,18 @@
     </row>
     <row r="7319" spans="1:3">
       <c r="A7319" t="s">
-        <v>2677</v>
+        <v>2674</v>
       </c>
       <c r="B7319" t="s">
         <v>5</v>
       </c>
       <c r="C7319" t="s">
-        <v>2678</v>
+        <v>2675</v>
       </c>
     </row>
     <row r="7320" spans="1:3">
       <c r="A7320" t="s">
-        <v>2677</v>
+        <v>2674</v>
       </c>
       <c r="B7320" t="s">
         <v>12</v>
@@ -90213,7 +90204,7 @@
     </row>
     <row r="7321" spans="1:3">
       <c r="A7321" t="s">
-        <v>2677</v>
+        <v>2674</v>
       </c>
       <c r="B7321" t="s">
         <v>14</v>
@@ -90224,7 +90215,7 @@
     </row>
     <row r="7322" spans="1:3">
       <c r="A7322" t="s">
-        <v>2677</v>
+        <v>2674</v>
       </c>
       <c r="B7322" t="s">
         <v>9</v>
@@ -90235,7 +90226,7 @@
     </row>
     <row r="7323" spans="1:3">
       <c r="A7323" t="s">
-        <v>2677</v>
+        <v>2674</v>
       </c>
       <c r="B7323" t="s">
         <v>7</v>
@@ -90246,7 +90237,7 @@
     </row>
     <row r="7324" spans="1:3">
       <c r="A7324" t="s">
-        <v>2677</v>
+        <v>2674</v>
       </c>
       <c r="B7324" t="s">
         <v>11</v>
@@ -90257,7 +90248,7 @@
     </row>
     <row r="7325" spans="1:3">
       <c r="A7325" t="s">
-        <v>2677</v>
+        <v>2674</v>
       </c>
       <c r="B7325" t="s">
         <v>16</v>
@@ -90268,18 +90259,18 @@
     </row>
     <row r="7326" spans="1:3">
       <c r="A7326" t="s">
-        <v>2677</v>
+        <v>2674</v>
       </c>
       <c r="B7326" t="s">
         <v>4</v>
       </c>
       <c r="C7326" t="s">
-        <v>2677</v>
+        <v>2674</v>
       </c>
     </row>
     <row r="7327" spans="1:3">
       <c r="A7327" t="s">
-        <v>2679</v>
+        <v>2676</v>
       </c>
       <c r="B7327" t="s">
         <v>5</v>
@@ -90290,7 +90281,7 @@
     </row>
     <row r="7328" spans="1:3">
       <c r="A7328" t="s">
-        <v>2679</v>
+        <v>2676</v>
       </c>
       <c r="B7328" t="s">
         <v>12</v>
@@ -90301,7 +90292,7 @@
     </row>
     <row r="7329" spans="1:3">
       <c r="A7329" t="s">
-        <v>2679</v>
+        <v>2676</v>
       </c>
       <c r="B7329" t="s">
         <v>14</v>
@@ -90312,7 +90303,7 @@
     </row>
     <row r="7330" spans="1:3">
       <c r="A7330" t="s">
-        <v>2679</v>
+        <v>2676</v>
       </c>
       <c r="B7330" t="s">
         <v>9</v>
@@ -90323,7 +90314,7 @@
     </row>
     <row r="7331" spans="1:3">
       <c r="A7331" t="s">
-        <v>2679</v>
+        <v>2676</v>
       </c>
       <c r="B7331" t="s">
         <v>7</v>
@@ -90334,40 +90325,40 @@
     </row>
     <row r="7332" spans="1:3">
       <c r="A7332" t="s">
-        <v>2679</v>
+        <v>2676</v>
       </c>
       <c r="B7332" t="s">
         <v>11</v>
       </c>
       <c r="C7332" t="s">
-        <v>2680</v>
+        <v>2677</v>
       </c>
     </row>
     <row r="7333" spans="1:3">
       <c r="A7333" t="s">
-        <v>2679</v>
+        <v>2676</v>
       </c>
       <c r="B7333" t="s">
         <v>16</v>
       </c>
       <c r="C7333" t="s">
-        <v>2681</v>
+        <v>2678</v>
       </c>
     </row>
     <row r="7334" spans="1:3">
       <c r="A7334" t="s">
-        <v>2679</v>
+        <v>2676</v>
       </c>
       <c r="B7334" t="s">
         <v>4</v>
       </c>
       <c r="C7334" t="s">
-        <v>2679</v>
+        <v>2676</v>
       </c>
     </row>
     <row r="7335" spans="1:3">
       <c r="A7335" t="s">
-        <v>2682</v>
+        <v>2679</v>
       </c>
       <c r="B7335" t="s">
         <v>24</v>
@@ -90378,18 +90369,18 @@
     </row>
     <row r="7336" spans="1:3">
       <c r="A7336" t="s">
-        <v>2683</v>
+        <v>2680</v>
       </c>
       <c r="B7336" t="s">
         <v>5</v>
       </c>
       <c r="C7336" t="s">
-        <v>2684</v>
+        <v>2681</v>
       </c>
     </row>
     <row r="7337" spans="1:3">
       <c r="A7337" t="s">
-        <v>2683</v>
+        <v>2680</v>
       </c>
       <c r="B7337" t="s">
         <v>12</v>
@@ -90400,7 +90391,7 @@
     </row>
     <row r="7338" spans="1:3">
       <c r="A7338" t="s">
-        <v>2683</v>
+        <v>2680</v>
       </c>
       <c r="B7338" t="s">
         <v>14</v>
@@ -90411,7 +90402,7 @@
     </row>
     <row r="7339" spans="1:3">
       <c r="A7339" t="s">
-        <v>2683</v>
+        <v>2680</v>
       </c>
       <c r="B7339" t="s">
         <v>9</v>
@@ -90422,7 +90413,7 @@
     </row>
     <row r="7340" spans="1:3">
       <c r="A7340" t="s">
-        <v>2683</v>
+        <v>2680</v>
       </c>
       <c r="B7340" t="s">
         <v>7</v>
@@ -90433,7 +90424,7 @@
     </row>
     <row r="7341" spans="1:3">
       <c r="A7341" t="s">
-        <v>2683</v>
+        <v>2680</v>
       </c>
       <c r="B7341" t="s">
         <v>11</v>
@@ -90444,7 +90435,7 @@
     </row>
     <row r="7342" spans="1:3">
       <c r="A7342" t="s">
-        <v>2683</v>
+        <v>2680</v>
       </c>
       <c r="B7342" t="s">
         <v>16</v>
@@ -90455,13 +90446,13 @@
     </row>
     <row r="7343" spans="1:3">
       <c r="A7343" t="s">
-        <v>2683</v>
+        <v>2680</v>
       </c>
       <c r="B7343" t="s">
         <v>4</v>
       </c>
       <c r="C7343" t="s">
-        <v>2683</v>
+        <v>2680</v>
       </c>
     </row>
     <row r="7344" spans="1:3">
@@ -90472,7 +90463,7 @@
         <v>16</v>
       </c>
       <c r="C7344" t="s">
-        <v>2685</v>
+        <v>2682</v>
       </c>
     </row>
     <row r="7345" spans="1:3">
@@ -90483,7 +90474,7 @@
         <v>9</v>
       </c>
       <c r="C7345" t="s">
-        <v>2686</v>
+        <v>2683</v>
       </c>
     </row>
     <row r="7346" spans="1:3">
@@ -90494,7 +90485,7 @@
         <v>16</v>
       </c>
       <c r="C7346" t="s">
-        <v>2687</v>
+        <v>2684</v>
       </c>
     </row>
     <row r="7347" spans="1:3">
@@ -90505,7 +90496,7 @@
         <v>5</v>
       </c>
       <c r="C7347" t="s">
-        <v>2688</v>
+        <v>2685</v>
       </c>
     </row>
     <row r="7348" spans="1:3">
@@ -90516,7 +90507,7 @@
         <v>5</v>
       </c>
       <c r="C7348" t="s">
-        <v>2689</v>
+        <v>2686</v>
       </c>
     </row>
     <row r="7349" spans="1:3">
@@ -90527,7 +90518,7 @@
         <v>9</v>
       </c>
       <c r="C7349" t="s">
-        <v>2690</v>
+        <v>2687</v>
       </c>
     </row>
     <row r="7350" spans="1:3">
@@ -90604,7 +90595,7 @@
         <v>35</v>
       </c>
       <c r="C7356" t="s">
-        <v>2691</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="7357" spans="1:3">
@@ -90653,29 +90644,29 @@
     </row>
     <row r="7361" spans="1:3">
       <c r="A7361" t="s">
-        <v>2628</v>
+        <v>2627</v>
       </c>
       <c r="B7361" t="s">
         <v>5</v>
       </c>
       <c r="C7361" t="s">
-        <v>2692</v>
+        <v>2689</v>
       </c>
     </row>
     <row r="7362" spans="1:3">
       <c r="A7362" t="s">
-        <v>2628</v>
+        <v>2627</v>
       </c>
       <c r="B7362" t="s">
         <v>12</v>
       </c>
       <c r="C7362" t="s">
-        <v>2693</v>
+        <v>2690</v>
       </c>
     </row>
     <row r="7363" spans="1:3">
       <c r="A7363" t="s">
-        <v>2628</v>
+        <v>2627</v>
       </c>
       <c r="B7363" t="s">
         <v>12</v>
@@ -90686,7 +90677,7 @@
     </row>
     <row r="7364" spans="1:3">
       <c r="A7364" t="s">
-        <v>2628</v>
+        <v>2627</v>
       </c>
       <c r="B7364" t="s">
         <v>14</v>
@@ -90697,18 +90688,18 @@
     </row>
     <row r="7365" spans="1:3">
       <c r="A7365" t="s">
-        <v>2628</v>
+        <v>2627</v>
       </c>
       <c r="B7365" t="s">
         <v>9</v>
       </c>
       <c r="C7365" t="s">
-        <v>2694</v>
+        <v>2691</v>
       </c>
     </row>
     <row r="7366" spans="1:3">
       <c r="A7366" t="s">
-        <v>2628</v>
+        <v>2627</v>
       </c>
       <c r="B7366" t="s">
         <v>7</v>
@@ -90719,7 +90710,7 @@
     </row>
     <row r="7367" spans="1:3">
       <c r="A7367" t="s">
-        <v>2628</v>
+        <v>2627</v>
       </c>
       <c r="B7367" t="s">
         <v>11</v>
@@ -90730,29 +90721,29 @@
     </row>
     <row r="7368" spans="1:3">
       <c r="A7368" t="s">
-        <v>2628</v>
+        <v>2627</v>
       </c>
       <c r="B7368" t="s">
         <v>11</v>
       </c>
       <c r="C7368" t="s">
-        <v>2695</v>
+        <v>2692</v>
       </c>
     </row>
     <row r="7369" spans="1:3">
       <c r="A7369" t="s">
-        <v>2628</v>
+        <v>2627</v>
       </c>
       <c r="B7369" t="s">
         <v>16</v>
       </c>
       <c r="C7369" t="s">
-        <v>2695</v>
+        <v>2692</v>
       </c>
     </row>
     <row r="7370" spans="1:3">
       <c r="A7370" t="s">
-        <v>2628</v>
+        <v>2627</v>
       </c>
       <c r="B7370" t="s">
         <v>35</v>
@@ -90763,7 +90754,7 @@
     </row>
     <row r="7371" spans="1:3">
       <c r="A7371" t="s">
-        <v>2628</v>
+        <v>2627</v>
       </c>
       <c r="B7371" t="s">
         <v>35</v>
@@ -90774,51 +90765,51 @@
     </row>
     <row r="7372" spans="1:3">
       <c r="A7372" t="s">
-        <v>2628</v>
+        <v>2627</v>
       </c>
       <c r="B7372" t="s">
         <v>35</v>
       </c>
       <c r="C7372" t="s">
-        <v>2696</v>
+        <v>2693</v>
       </c>
     </row>
     <row r="7373" spans="1:3">
       <c r="A7373" t="s">
-        <v>2628</v>
+        <v>2627</v>
       </c>
       <c r="B7373" t="s">
         <v>4</v>
       </c>
       <c r="C7373" t="s">
-        <v>2628</v>
+        <v>2627</v>
       </c>
     </row>
     <row r="7374" spans="1:3">
       <c r="A7374" t="s">
-        <v>2628</v>
+        <v>2627</v>
       </c>
       <c r="B7374" t="s">
         <v>115</v>
       </c>
       <c r="C7374" t="s">
-        <v>2697</v>
+        <v>2694</v>
       </c>
     </row>
     <row r="7375" spans="1:3">
       <c r="A7375" t="s">
-        <v>2672</v>
+        <v>2669</v>
       </c>
       <c r="B7375" t="s">
         <v>33</v>
       </c>
       <c r="C7375" t="s">
-        <v>2628</v>
+        <v>2627</v>
       </c>
     </row>
     <row r="7376" spans="1:3">
       <c r="A7376" t="s">
-        <v>2672</v>
+        <v>2669</v>
       </c>
       <c r="B7376" t="s">
         <v>33</v>
@@ -90829,7 +90820,7 @@
     </row>
     <row r="7377" spans="1:3">
       <c r="A7377" t="s">
-        <v>2672</v>
+        <v>2669</v>
       </c>
       <c r="B7377" t="s">
         <v>91</v>
@@ -90840,7 +90831,7 @@
     </row>
     <row r="7378" spans="1:3">
       <c r="A7378" t="s">
-        <v>2672</v>
+        <v>2669</v>
       </c>
       <c r="B7378" t="s">
         <v>118</v>
@@ -90851,7 +90842,7 @@
     </row>
     <row r="7379" spans="1:3">
       <c r="A7379" t="s">
-        <v>2672</v>
+        <v>2669</v>
       </c>
       <c r="B7379" t="s">
         <v>118</v>
@@ -90862,7 +90853,7 @@
     </row>
     <row r="7380" spans="1:3">
       <c r="A7380" t="s">
-        <v>2672</v>
+        <v>2669</v>
       </c>
       <c r="B7380" t="s">
         <v>118</v>
@@ -90873,7 +90864,7 @@
     </row>
     <row r="7381" spans="1:3">
       <c r="A7381" t="s">
-        <v>2672</v>
+        <v>2669</v>
       </c>
       <c r="B7381" t="s">
         <v>118</v>
@@ -90884,7 +90875,7 @@
     </row>
     <row r="7382" spans="1:3">
       <c r="A7382" t="s">
-        <v>2672</v>
+        <v>2669</v>
       </c>
       <c r="B7382" t="s">
         <v>118</v>
@@ -90895,7 +90886,7 @@
     </row>
     <row r="7383" spans="1:3">
       <c r="A7383" t="s">
-        <v>2672</v>
+        <v>2669</v>
       </c>
       <c r="B7383" t="s">
         <v>118</v>
@@ -90906,7 +90897,7 @@
     </row>
     <row r="7384" spans="1:3">
       <c r="A7384" t="s">
-        <v>2672</v>
+        <v>2669</v>
       </c>
       <c r="B7384" t="s">
         <v>24</v>
@@ -90917,7 +90908,7 @@
     </row>
     <row r="7385" spans="1:3">
       <c r="A7385" t="s">
-        <v>2672</v>
+        <v>2669</v>
       </c>
       <c r="B7385" t="s">
         <v>115</v>
@@ -90928,7 +90919,7 @@
     </row>
     <row r="7386" spans="1:3">
       <c r="A7386" t="s">
-        <v>2698</v>
+        <v>2695</v>
       </c>
       <c r="B7386" t="s">
         <v>5</v>
@@ -90939,29 +90930,29 @@
     </row>
     <row r="7387" spans="1:3">
       <c r="A7387" t="s">
-        <v>2698</v>
+        <v>2695</v>
       </c>
       <c r="B7387" t="s">
         <v>5</v>
       </c>
       <c r="C7387" t="s">
-        <v>2699</v>
+        <v>2696</v>
       </c>
     </row>
     <row r="7388" spans="1:3">
       <c r="A7388" t="s">
-        <v>2698</v>
+        <v>2695</v>
       </c>
       <c r="B7388" t="s">
         <v>5</v>
       </c>
       <c r="C7388" t="s">
-        <v>2700</v>
+        <v>2697</v>
       </c>
     </row>
     <row r="7389" spans="1:3">
       <c r="A7389" t="s">
-        <v>2698</v>
+        <v>2695</v>
       </c>
       <c r="B7389" t="s">
         <v>12</v>
@@ -90972,7 +90963,7 @@
     </row>
     <row r="7390" spans="1:3">
       <c r="A7390" t="s">
-        <v>2698</v>
+        <v>2695</v>
       </c>
       <c r="B7390" t="s">
         <v>14</v>
@@ -90983,7 +90974,7 @@
     </row>
     <row r="7391" spans="1:3">
       <c r="A7391" t="s">
-        <v>2698</v>
+        <v>2695</v>
       </c>
       <c r="B7391" t="s">
         <v>9</v>
@@ -90994,7 +90985,7 @@
     </row>
     <row r="7392" spans="1:3">
       <c r="A7392" t="s">
-        <v>2698</v>
+        <v>2695</v>
       </c>
       <c r="B7392" t="s">
         <v>7</v>
@@ -91005,7 +90996,7 @@
     </row>
     <row r="7393" spans="1:3">
       <c r="A7393" t="s">
-        <v>2698</v>
+        <v>2695</v>
       </c>
       <c r="B7393" t="s">
         <v>11</v>
@@ -91016,18 +91007,18 @@
     </row>
     <row r="7394" spans="1:3">
       <c r="A7394" t="s">
-        <v>2698</v>
+        <v>2695</v>
       </c>
       <c r="B7394" t="s">
         <v>16</v>
       </c>
       <c r="C7394" t="s">
-        <v>2701</v>
+        <v>2698</v>
       </c>
     </row>
     <row r="7395" spans="1:3">
       <c r="A7395" t="s">
-        <v>2698</v>
+        <v>2695</v>
       </c>
       <c r="B7395" t="s">
         <v>35</v>
@@ -91038,24 +91029,24 @@
     </row>
     <row r="7396" spans="1:3">
       <c r="A7396" t="s">
-        <v>2698</v>
+        <v>2695</v>
       </c>
       <c r="B7396" t="s">
         <v>35</v>
       </c>
       <c r="C7396" t="s">
-        <v>2699</v>
+        <v>2696</v>
       </c>
     </row>
     <row r="7397" spans="1:3">
       <c r="A7397" t="s">
-        <v>2698</v>
+        <v>2695</v>
       </c>
       <c r="B7397" t="s">
         <v>4</v>
       </c>
       <c r="C7397" t="s">
-        <v>2698</v>
+        <v>2695</v>
       </c>
     </row>
     <row r="7398" spans="1:3">
@@ -91143,7 +91134,7 @@
         <v>35</v>
       </c>
       <c r="C7405" t="s">
-        <v>2702</v>
+        <v>2699</v>
       </c>
     </row>
     <row r="7406" spans="1:3">
@@ -91154,7 +91145,7 @@
         <v>35</v>
       </c>
       <c r="C7406" t="s">
-        <v>2703</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="7407" spans="1:3">
@@ -91264,7 +91255,7 @@
         <v>35</v>
       </c>
       <c r="C7416" t="s">
-        <v>2704</v>
+        <v>2701</v>
       </c>
     </row>
     <row r="7417" spans="1:3">
@@ -91275,7 +91266,7 @@
         <v>35</v>
       </c>
       <c r="C7417" t="s">
-        <v>2705</v>
+        <v>2702</v>
       </c>
     </row>
     <row r="7418" spans="1:3">
@@ -91308,7 +91299,7 @@
         <v>35</v>
       </c>
       <c r="C7420" t="s">
-        <v>2706</v>
+        <v>2703</v>
       </c>
     </row>
     <row r="7421" spans="1:3">
@@ -91341,7 +91332,7 @@
         <v>35</v>
       </c>
       <c r="C7423" t="s">
-        <v>2707</v>
+        <v>2704</v>
       </c>
     </row>
     <row r="7424" spans="1:3">
@@ -91396,7 +91387,7 @@
         <v>16</v>
       </c>
       <c r="C7428" t="s">
-        <v>2708</v>
+        <v>2705</v>
       </c>
     </row>
     <row r="7429" spans="1:3">
@@ -91495,7 +91486,7 @@
         <v>9</v>
       </c>
       <c r="C7437" t="s">
-        <v>2709</v>
+        <v>2706</v>
       </c>
     </row>
     <row r="7438" spans="1:3">
@@ -91506,7 +91497,7 @@
         <v>11</v>
       </c>
       <c r="C7438" t="s">
-        <v>2680</v>
+        <v>2677</v>
       </c>
     </row>
     <row r="7439" spans="1:3">
@@ -91517,7 +91508,7 @@
         <v>16</v>
       </c>
       <c r="C7439" t="s">
-        <v>2710</v>
+        <v>2707</v>
       </c>
     </row>
     <row r="7440" spans="1:3">
@@ -91528,12 +91519,12 @@
         <v>35</v>
       </c>
       <c r="C7440" t="s">
-        <v>2711</v>
+        <v>2708</v>
       </c>
     </row>
     <row r="7441" spans="1:3">
       <c r="A7441" t="s">
-        <v>2712</v>
+        <v>2709</v>
       </c>
       <c r="B7441" t="s">
         <v>5</v>
@@ -91544,7 +91535,7 @@
     </row>
     <row r="7442" spans="1:3">
       <c r="A7442" t="s">
-        <v>2712</v>
+        <v>2709</v>
       </c>
       <c r="B7442" t="s">
         <v>5</v>
@@ -91555,7 +91546,7 @@
     </row>
     <row r="7443" spans="1:3">
       <c r="A7443" t="s">
-        <v>2712</v>
+        <v>2709</v>
       </c>
       <c r="B7443" t="s">
         <v>12</v>
@@ -91566,7 +91557,7 @@
     </row>
     <row r="7444" spans="1:3">
       <c r="A7444" t="s">
-        <v>2712</v>
+        <v>2709</v>
       </c>
       <c r="B7444" t="s">
         <v>14</v>
@@ -91577,18 +91568,18 @@
     </row>
     <row r="7445" spans="1:3">
       <c r="A7445" t="s">
-        <v>2712</v>
+        <v>2709</v>
       </c>
       <c r="B7445" t="s">
         <v>9</v>
       </c>
       <c r="C7445" t="s">
-        <v>2686</v>
+        <v>2683</v>
       </c>
     </row>
     <row r="7446" spans="1:3">
       <c r="A7446" t="s">
-        <v>2712</v>
+        <v>2709</v>
       </c>
       <c r="B7446" t="s">
         <v>7</v>
@@ -91599,7 +91590,7 @@
     </row>
     <row r="7447" spans="1:3">
       <c r="A7447" t="s">
-        <v>2712</v>
+        <v>2709</v>
       </c>
       <c r="B7447" t="s">
         <v>11</v>
@@ -91610,18 +91601,18 @@
     </row>
     <row r="7448" spans="1:3">
       <c r="A7448" t="s">
-        <v>2712</v>
+        <v>2709</v>
       </c>
       <c r="B7448" t="s">
         <v>16</v>
       </c>
       <c r="C7448" t="s">
-        <v>2687</v>
+        <v>2684</v>
       </c>
     </row>
     <row r="7449" spans="1:3">
       <c r="A7449" t="s">
-        <v>2712</v>
+        <v>2709</v>
       </c>
       <c r="B7449" t="s">
         <v>35</v>
@@ -91632,18 +91623,18 @@
     </row>
     <row r="7450" spans="1:3">
       <c r="A7450" t="s">
-        <v>2712</v>
+        <v>2709</v>
       </c>
       <c r="B7450" t="s">
         <v>35</v>
       </c>
       <c r="C7450" t="s">
-        <v>2713</v>
+        <v>2710</v>
       </c>
     </row>
     <row r="7451" spans="1:3">
       <c r="A7451" t="s">
-        <v>2712</v>
+        <v>2709</v>
       </c>
       <c r="B7451" t="s">
         <v>35</v>
@@ -91654,7 +91645,7 @@
     </row>
     <row r="7452" spans="1:3">
       <c r="A7452" t="s">
-        <v>2712</v>
+        <v>2709</v>
       </c>
       <c r="B7452" t="s">
         <v>35</v>
@@ -91665,18 +91656,18 @@
     </row>
     <row r="7453" spans="1:3">
       <c r="A7453" t="s">
-        <v>2712</v>
+        <v>2709</v>
       </c>
       <c r="B7453" t="s">
         <v>4</v>
       </c>
       <c r="C7453" t="s">
-        <v>2712</v>
+        <v>2709</v>
       </c>
     </row>
     <row r="7454" spans="1:3">
       <c r="A7454" t="s">
-        <v>2714</v>
+        <v>2711</v>
       </c>
       <c r="B7454" t="s">
         <v>12</v>
@@ -91687,7 +91678,7 @@
     </row>
     <row r="7455" spans="1:3">
       <c r="A7455" t="s">
-        <v>2714</v>
+        <v>2711</v>
       </c>
       <c r="B7455" t="s">
         <v>14</v>
@@ -91698,7 +91689,7 @@
     </row>
     <row r="7456" spans="1:3">
       <c r="A7456" t="s">
-        <v>2714</v>
+        <v>2711</v>
       </c>
       <c r="B7456" t="s">
         <v>9</v>
@@ -91709,7 +91700,7 @@
     </row>
     <row r="7457" spans="1:3">
       <c r="A7457" t="s">
-        <v>2714</v>
+        <v>2711</v>
       </c>
       <c r="B7457" t="s">
         <v>7</v>
@@ -91720,7 +91711,7 @@
     </row>
     <row r="7458" spans="1:3">
       <c r="A7458" t="s">
-        <v>2714</v>
+        <v>2711</v>
       </c>
       <c r="B7458" t="s">
         <v>11</v>
@@ -91731,7 +91722,7 @@
     </row>
     <row r="7459" spans="1:3">
       <c r="A7459" t="s">
-        <v>2714</v>
+        <v>2711</v>
       </c>
       <c r="B7459" t="s">
         <v>16</v>
@@ -91742,29 +91733,29 @@
     </row>
     <row r="7460" spans="1:3">
       <c r="A7460" t="s">
-        <v>2714</v>
+        <v>2711</v>
       </c>
       <c r="B7460" t="s">
         <v>35</v>
       </c>
       <c r="C7460" t="s">
-        <v>2715</v>
+        <v>2712</v>
       </c>
     </row>
     <row r="7461" spans="1:3">
       <c r="A7461" t="s">
-        <v>2714</v>
+        <v>2711</v>
       </c>
       <c r="B7461" t="s">
         <v>35</v>
       </c>
       <c r="C7461" t="s">
-        <v>2716</v>
+        <v>2713</v>
       </c>
     </row>
     <row r="7462" spans="1:3">
       <c r="A7462" t="s">
-        <v>2714</v>
+        <v>2711</v>
       </c>
       <c r="B7462" t="s">
         <v>35</v>
@@ -91775,7 +91766,7 @@
     </row>
     <row r="7463" spans="1:3">
       <c r="A7463" t="s">
-        <v>2714</v>
+        <v>2711</v>
       </c>
       <c r="B7463" t="s">
         <v>35</v>
@@ -91786,24 +91777,24 @@
     </row>
     <row r="7464" spans="1:3">
       <c r="A7464" t="s">
+        <v>2711</v>
+      </c>
+      <c r="B7464" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7464" t="s">
         <v>2714</v>
-      </c>
-      <c r="B7464" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7464" t="s">
-        <v>2717</v>
       </c>
     </row>
     <row r="7465" spans="1:3">
       <c r="A7465" t="s">
-        <v>2714</v>
+        <v>2711</v>
       </c>
       <c r="B7465" t="s">
         <v>4</v>
       </c>
       <c r="C7465" t="s">
-        <v>2714</v>
+        <v>2711</v>
       </c>
     </row>
     <row r="7466" spans="1:3">
@@ -91814,7 +91805,7 @@
         <v>9</v>
       </c>
       <c r="C7466" t="s">
-        <v>2718</v>
+        <v>2715</v>
       </c>
     </row>
     <row r="7467" spans="1:3">
@@ -91830,7 +91821,7 @@
     </row>
     <row r="7468" spans="1:3">
       <c r="A7468" t="s">
-        <v>2719</v>
+        <v>2716</v>
       </c>
       <c r="B7468" t="s">
         <v>12</v>
@@ -91841,7 +91832,7 @@
     </row>
     <row r="7469" spans="1:3">
       <c r="A7469" t="s">
-        <v>2719</v>
+        <v>2716</v>
       </c>
       <c r="B7469" t="s">
         <v>14</v>
@@ -91852,7 +91843,7 @@
     </row>
     <row r="7470" spans="1:3">
       <c r="A7470" t="s">
-        <v>2719</v>
+        <v>2716</v>
       </c>
       <c r="B7470" t="s">
         <v>9</v>
@@ -91863,7 +91854,7 @@
     </row>
     <row r="7471" spans="1:3">
       <c r="A7471" t="s">
-        <v>2719</v>
+        <v>2716</v>
       </c>
       <c r="B7471" t="s">
         <v>7</v>
@@ -91874,7 +91865,7 @@
     </row>
     <row r="7472" spans="1:3">
       <c r="A7472" t="s">
-        <v>2719</v>
+        <v>2716</v>
       </c>
       <c r="B7472" t="s">
         <v>11</v>
@@ -91885,7 +91876,7 @@
     </row>
     <row r="7473" spans="1:3">
       <c r="A7473" t="s">
-        <v>2719</v>
+        <v>2716</v>
       </c>
       <c r="B7473" t="s">
         <v>16</v>
@@ -91896,13 +91887,13 @@
     </row>
     <row r="7474" spans="1:3">
       <c r="A7474" t="s">
-        <v>2719</v>
+        <v>2716</v>
       </c>
       <c r="B7474" t="s">
         <v>4</v>
       </c>
       <c r="C7474" t="s">
-        <v>2719</v>
+        <v>2716</v>
       </c>
     </row>
     <row r="7475" spans="1:3">
@@ -91918,7 +91909,7 @@
     </row>
     <row r="7476" spans="1:3">
       <c r="A7476" t="s">
-        <v>2720</v>
+        <v>2717</v>
       </c>
       <c r="B7476" t="s">
         <v>12</v>
@@ -91929,7 +91920,7 @@
     </row>
     <row r="7477" spans="1:3">
       <c r="A7477" t="s">
-        <v>2720</v>
+        <v>2717</v>
       </c>
       <c r="B7477" t="s">
         <v>14</v>
@@ -91940,7 +91931,7 @@
     </row>
     <row r="7478" spans="1:3">
       <c r="A7478" t="s">
-        <v>2720</v>
+        <v>2717</v>
       </c>
       <c r="B7478" t="s">
         <v>9</v>
@@ -91951,7 +91942,7 @@
     </row>
     <row r="7479" spans="1:3">
       <c r="A7479" t="s">
-        <v>2720</v>
+        <v>2717</v>
       </c>
       <c r="B7479" t="s">
         <v>7</v>
@@ -91962,7 +91953,7 @@
     </row>
     <row r="7480" spans="1:3">
       <c r="A7480" t="s">
-        <v>2720</v>
+        <v>2717</v>
       </c>
       <c r="B7480" t="s">
         <v>11</v>
@@ -91973,24 +91964,24 @@
     </row>
     <row r="7481" spans="1:3">
       <c r="A7481" t="s">
-        <v>2720</v>
+        <v>2717</v>
       </c>
       <c r="B7481" t="s">
         <v>16</v>
       </c>
       <c r="C7481" t="s">
-        <v>2721</v>
+        <v>2718</v>
       </c>
     </row>
     <row r="7482" spans="1:3">
       <c r="A7482" t="s">
-        <v>2720</v>
+        <v>2717</v>
       </c>
       <c r="B7482" t="s">
         <v>4</v>
       </c>
       <c r="C7482" t="s">
-        <v>2720</v>
+        <v>2717</v>
       </c>
     </row>
     <row r="7483" spans="1:3">
@@ -92028,7 +92019,7 @@
     </row>
     <row r="7486" spans="1:3">
       <c r="A7486" t="s">
-        <v>2722</v>
+        <v>2719</v>
       </c>
       <c r="B7486" t="s">
         <v>12</v>
@@ -92039,7 +92030,7 @@
     </row>
     <row r="7487" spans="1:3">
       <c r="A7487" t="s">
-        <v>2722</v>
+        <v>2719</v>
       </c>
       <c r="B7487" t="s">
         <v>14</v>
@@ -92050,7 +92041,7 @@
     </row>
     <row r="7488" spans="1:3">
       <c r="A7488" t="s">
-        <v>2722</v>
+        <v>2719</v>
       </c>
       <c r="B7488" t="s">
         <v>9</v>
@@ -92061,7 +92052,7 @@
     </row>
     <row r="7489" spans="1:3">
       <c r="A7489" t="s">
-        <v>2722</v>
+        <v>2719</v>
       </c>
       <c r="B7489" t="s">
         <v>7</v>
@@ -92072,7 +92063,7 @@
     </row>
     <row r="7490" spans="1:3">
       <c r="A7490" t="s">
-        <v>2722</v>
+        <v>2719</v>
       </c>
       <c r="B7490" t="s">
         <v>11</v>
@@ -92083,7 +92074,7 @@
     </row>
     <row r="7491" spans="1:3">
       <c r="A7491" t="s">
-        <v>2722</v>
+        <v>2719</v>
       </c>
       <c r="B7491" t="s">
         <v>16</v>
@@ -92094,7 +92085,7 @@
     </row>
     <row r="7492" spans="1:3">
       <c r="A7492" t="s">
-        <v>2722</v>
+        <v>2719</v>
       </c>
       <c r="B7492" t="s">
         <v>35</v>
@@ -92105,13 +92096,13 @@
     </row>
     <row r="7493" spans="1:3">
       <c r="A7493" t="s">
-        <v>2722</v>
+        <v>2719</v>
       </c>
       <c r="B7493" t="s">
         <v>4</v>
       </c>
       <c r="C7493" t="s">
-        <v>2722</v>
+        <v>2719</v>
       </c>
     </row>
     <row r="7494" spans="1:3">
@@ -92122,7 +92113,7 @@
         <v>5</v>
       </c>
       <c r="C7494" t="s">
-        <v>2723</v>
+        <v>2720</v>
       </c>
     </row>
     <row r="7495" spans="1:3">
@@ -92138,18 +92129,18 @@
     </row>
     <row r="7496" spans="1:3">
       <c r="A7496" t="s">
-        <v>2724</v>
+        <v>2721</v>
       </c>
       <c r="B7496" t="s">
         <v>5</v>
       </c>
       <c r="C7496" t="s">
-        <v>2725</v>
+        <v>2722</v>
       </c>
     </row>
     <row r="7497" spans="1:3">
       <c r="A7497" t="s">
-        <v>2724</v>
+        <v>2721</v>
       </c>
       <c r="B7497" t="s">
         <v>5</v>
@@ -92160,29 +92151,29 @@
     </row>
     <row r="7498" spans="1:3">
       <c r="A7498" t="s">
-        <v>2724</v>
+        <v>2721</v>
       </c>
       <c r="B7498" t="s">
         <v>5</v>
       </c>
       <c r="C7498" t="s">
-        <v>2726</v>
+        <v>2723</v>
       </c>
     </row>
     <row r="7499" spans="1:3">
       <c r="A7499" t="s">
-        <v>2724</v>
+        <v>2721</v>
       </c>
       <c r="B7499" t="s">
         <v>5</v>
       </c>
       <c r="C7499" t="s">
-        <v>2727</v>
+        <v>2724</v>
       </c>
     </row>
     <row r="7500" spans="1:3">
       <c r="A7500" t="s">
-        <v>2724</v>
+        <v>2721</v>
       </c>
       <c r="B7500" t="s">
         <v>12</v>
@@ -92193,7 +92184,7 @@
     </row>
     <row r="7501" spans="1:3">
       <c r="A7501" t="s">
-        <v>2724</v>
+        <v>2721</v>
       </c>
       <c r="B7501" t="s">
         <v>14</v>
@@ -92204,7 +92195,7 @@
     </row>
     <row r="7502" spans="1:3">
       <c r="A7502" t="s">
-        <v>2724</v>
+        <v>2721</v>
       </c>
       <c r="B7502" t="s">
         <v>9</v>
@@ -92215,7 +92206,7 @@
     </row>
     <row r="7503" spans="1:3">
       <c r="A7503" t="s">
-        <v>2724</v>
+        <v>2721</v>
       </c>
       <c r="B7503" t="s">
         <v>7</v>
@@ -92226,7 +92217,7 @@
     </row>
     <row r="7504" spans="1:3">
       <c r="A7504" t="s">
-        <v>2724</v>
+        <v>2721</v>
       </c>
       <c r="B7504" t="s">
         <v>11</v>
@@ -92237,7 +92228,7 @@
     </row>
     <row r="7505" spans="1:3">
       <c r="A7505" t="s">
-        <v>2724</v>
+        <v>2721</v>
       </c>
       <c r="B7505" t="s">
         <v>16</v>
@@ -92248,18 +92239,18 @@
     </row>
     <row r="7506" spans="1:3">
       <c r="A7506" t="s">
-        <v>2724</v>
+        <v>2721</v>
       </c>
       <c r="B7506" t="s">
         <v>35</v>
       </c>
       <c r="C7506" t="s">
-        <v>2725</v>
+        <v>2722</v>
       </c>
     </row>
     <row r="7507" spans="1:3">
       <c r="A7507" t="s">
-        <v>2724</v>
+        <v>2721</v>
       </c>
       <c r="B7507" t="s">
         <v>35</v>
@@ -92270,35 +92261,35 @@
     </row>
     <row r="7508" spans="1:3">
       <c r="A7508" t="s">
-        <v>2724</v>
+        <v>2721</v>
       </c>
       <c r="B7508" t="s">
         <v>35</v>
       </c>
       <c r="C7508" t="s">
-        <v>2726</v>
+        <v>2723</v>
       </c>
     </row>
     <row r="7509" spans="1:3">
       <c r="A7509" t="s">
+        <v>2721</v>
+      </c>
+      <c r="B7509" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7509" t="s">
         <v>2724</v>
-      </c>
-      <c r="B7509" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7509" t="s">
-        <v>2727</v>
       </c>
     </row>
     <row r="7510" spans="1:3">
       <c r="A7510" t="s">
-        <v>2724</v>
+        <v>2721</v>
       </c>
       <c r="B7510" t="s">
         <v>4</v>
       </c>
       <c r="C7510" t="s">
-        <v>2724</v>
+        <v>2721</v>
       </c>
     </row>
     <row r="7511" spans="1:3">
@@ -92309,7 +92300,7 @@
         <v>5</v>
       </c>
       <c r="C7511" t="s">
-        <v>2728</v>
+        <v>2725</v>
       </c>
     </row>
     <row r="7512" spans="1:3">
@@ -92320,7 +92311,7 @@
         <v>5</v>
       </c>
       <c r="C7512" t="s">
-        <v>2729</v>
+        <v>2726</v>
       </c>
     </row>
     <row r="7513" spans="1:3">
@@ -92331,7 +92322,7 @@
         <v>5</v>
       </c>
       <c r="C7513" t="s">
-        <v>2730</v>
+        <v>2727</v>
       </c>
     </row>
     <row r="7514" spans="1:3">
@@ -92342,7 +92333,7 @@
         <v>9</v>
       </c>
       <c r="C7514" t="s">
-        <v>2731</v>
+        <v>2728</v>
       </c>
     </row>
     <row r="7515" spans="1:3">
@@ -92375,7 +92366,7 @@
         <v>91</v>
       </c>
       <c r="C7517" t="s">
-        <v>2732</v>
+        <v>2729</v>
       </c>
     </row>
     <row r="7518" spans="1:3">
@@ -92408,7 +92399,7 @@
         <v>91</v>
       </c>
       <c r="C7520" t="s">
-        <v>2733</v>
+        <v>2730</v>
       </c>
     </row>
     <row r="7521" spans="1:3">
@@ -92419,12 +92410,12 @@
         <v>91</v>
       </c>
       <c r="C7521" t="s">
-        <v>2734</v>
+        <v>2731</v>
       </c>
     </row>
     <row r="7522" spans="1:3">
       <c r="A7522" t="s">
-        <v>2735</v>
+        <v>2732</v>
       </c>
       <c r="B7522" t="s">
         <v>91</v>
@@ -92435,18 +92426,18 @@
     </row>
     <row r="7523" spans="1:3">
       <c r="A7523" t="s">
-        <v>2735</v>
+        <v>2732</v>
       </c>
       <c r="B7523" t="s">
         <v>91</v>
       </c>
       <c r="C7523" t="s">
-        <v>2736</v>
+        <v>2733</v>
       </c>
     </row>
     <row r="7524" spans="1:3">
       <c r="A7524" t="s">
-        <v>2735</v>
+        <v>2732</v>
       </c>
       <c r="B7524" t="s">
         <v>33</v>
@@ -92457,10 +92448,10 @@
     </row>
     <row r="7525" spans="1:3">
       <c r="A7525" t="s">
-        <v>2735</v>
+        <v>2732</v>
       </c>
       <c r="B7525" t="s">
-        <v>2622</v>
+        <v>228</v>
       </c>
       <c r="C7525" t="s">
         <v>220</v>
@@ -92485,7 +92476,7 @@
         <v>9</v>
       </c>
       <c r="C7527" t="s">
-        <v>2737</v>
+        <v>2734</v>
       </c>
     </row>
     <row r="7528" spans="1:3">
@@ -92496,7 +92487,7 @@
         <v>7</v>
       </c>
       <c r="C7528" t="s">
-        <v>2738</v>
+        <v>2735</v>
       </c>
     </row>
     <row r="7529" spans="1:3">
@@ -92507,7 +92498,7 @@
         <v>11</v>
       </c>
       <c r="C7529" t="s">
-        <v>2738</v>
+        <v>2735</v>
       </c>
     </row>
     <row r="7530" spans="1:3">
@@ -92518,12 +92509,12 @@
         <v>16</v>
       </c>
       <c r="C7530" t="s">
-        <v>2739</v>
+        <v>2736</v>
       </c>
     </row>
     <row r="7531" spans="1:3">
       <c r="A7531" t="s">
-        <v>2740</v>
+        <v>2737</v>
       </c>
       <c r="B7531" t="s">
         <v>5</v>
@@ -92534,7 +92525,7 @@
     </row>
     <row r="7532" spans="1:3">
       <c r="A7532" t="s">
-        <v>2740</v>
+        <v>2737</v>
       </c>
       <c r="B7532" t="s">
         <v>12</v>
@@ -92545,7 +92536,7 @@
     </row>
     <row r="7533" spans="1:3">
       <c r="A7533" t="s">
-        <v>2740</v>
+        <v>2737</v>
       </c>
       <c r="B7533" t="s">
         <v>14</v>
@@ -92556,29 +92547,29 @@
     </row>
     <row r="7534" spans="1:3">
       <c r="A7534" t="s">
-        <v>2740</v>
+        <v>2737</v>
       </c>
       <c r="B7534" t="s">
         <v>9</v>
       </c>
       <c r="C7534" t="s">
-        <v>2741</v>
+        <v>2738</v>
       </c>
     </row>
     <row r="7535" spans="1:3">
       <c r="A7535" t="s">
-        <v>2740</v>
+        <v>2737</v>
       </c>
       <c r="B7535" t="s">
         <v>7</v>
       </c>
       <c r="C7535" t="s">
-        <v>2738</v>
+        <v>2735</v>
       </c>
     </row>
     <row r="7536" spans="1:3">
       <c r="A7536" t="s">
-        <v>2740</v>
+        <v>2737</v>
       </c>
       <c r="B7536" t="s">
         <v>11</v>
@@ -92589,24 +92580,24 @@
     </row>
     <row r="7537" spans="1:3">
       <c r="A7537" t="s">
-        <v>2740</v>
+        <v>2737</v>
       </c>
       <c r="B7537" t="s">
         <v>16</v>
       </c>
       <c r="C7537" t="s">
-        <v>2739</v>
+        <v>2736</v>
       </c>
     </row>
     <row r="7538" spans="1:3">
       <c r="A7538" t="s">
-        <v>2740</v>
+        <v>2737</v>
       </c>
       <c r="B7538" t="s">
         <v>4</v>
       </c>
       <c r="C7538" t="s">
-        <v>2740</v>
+        <v>2737</v>
       </c>
     </row>
     <row r="7539" spans="1:3">
@@ -92628,7 +92619,7 @@
         <v>91</v>
       </c>
       <c r="C7540" t="s">
-        <v>2628</v>
+        <v>2627</v>
       </c>
     </row>
     <row r="7541" spans="1:3">
@@ -92639,7 +92630,7 @@
         <v>91</v>
       </c>
       <c r="C7541" t="s">
-        <v>2629</v>
+        <v>2628</v>
       </c>
     </row>
     <row r="7542" spans="1:3">
@@ -92658,7 +92649,7 @@
         <v>2168</v>
       </c>
       <c r="B7543" t="s">
-        <v>2622</v>
+        <v>228</v>
       </c>
       <c r="C7543" t="s">
         <v>220</v>
@@ -92666,7 +92657,7 @@
     </row>
     <row r="7544" spans="1:3">
       <c r="A7544" t="s">
-        <v>2742</v>
+        <v>2739</v>
       </c>
       <c r="B7544" t="s">
         <v>12</v>
@@ -92677,7 +92668,7 @@
     </row>
     <row r="7545" spans="1:3">
       <c r="A7545" t="s">
-        <v>2742</v>
+        <v>2739</v>
       </c>
       <c r="B7545" t="s">
         <v>14</v>
@@ -92688,7 +92679,7 @@
     </row>
     <row r="7546" spans="1:3">
       <c r="A7546" t="s">
-        <v>2742</v>
+        <v>2739</v>
       </c>
       <c r="B7546" t="s">
         <v>9</v>
@@ -92699,7 +92690,7 @@
     </row>
     <row r="7547" spans="1:3">
       <c r="A7547" t="s">
-        <v>2742</v>
+        <v>2739</v>
       </c>
       <c r="B7547" t="s">
         <v>7</v>
@@ -92710,7 +92701,7 @@
     </row>
     <row r="7548" spans="1:3">
       <c r="A7548" t="s">
-        <v>2742</v>
+        <v>2739</v>
       </c>
       <c r="B7548" t="s">
         <v>11</v>
@@ -92721,7 +92712,7 @@
     </row>
     <row r="7549" spans="1:3">
       <c r="A7549" t="s">
-        <v>2742</v>
+        <v>2739</v>
       </c>
       <c r="B7549" t="s">
         <v>16</v>
@@ -92732,18 +92723,18 @@
     </row>
     <row r="7550" spans="1:3">
       <c r="A7550" t="s">
-        <v>2742</v>
+        <v>2739</v>
       </c>
       <c r="B7550" t="s">
         <v>4</v>
       </c>
       <c r="C7550" t="s">
-        <v>2742</v>
+        <v>2739</v>
       </c>
     </row>
     <row r="7551" spans="1:3">
       <c r="A7551" t="s">
-        <v>2743</v>
+        <v>2740</v>
       </c>
       <c r="B7551" t="s">
         <v>12</v>
@@ -92754,7 +92745,7 @@
     </row>
     <row r="7552" spans="1:3">
       <c r="A7552" t="s">
-        <v>2743</v>
+        <v>2740</v>
       </c>
       <c r="B7552" t="s">
         <v>14</v>
@@ -92765,7 +92756,7 @@
     </row>
     <row r="7553" spans="1:3">
       <c r="A7553" t="s">
-        <v>2743</v>
+        <v>2740</v>
       </c>
       <c r="B7553" t="s">
         <v>9</v>
@@ -92776,7 +92767,7 @@
     </row>
     <row r="7554" spans="1:3">
       <c r="A7554" t="s">
-        <v>2743</v>
+        <v>2740</v>
       </c>
       <c r="B7554" t="s">
         <v>7</v>
@@ -92787,7 +92778,7 @@
     </row>
     <row r="7555" spans="1:3">
       <c r="A7555" t="s">
-        <v>2743</v>
+        <v>2740</v>
       </c>
       <c r="B7555" t="s">
         <v>11</v>
@@ -92798,7 +92789,7 @@
     </row>
     <row r="7556" spans="1:3">
       <c r="A7556" t="s">
-        <v>2743</v>
+        <v>2740</v>
       </c>
       <c r="B7556" t="s">
         <v>16</v>
@@ -92809,29 +92800,29 @@
     </row>
     <row r="7557" spans="1:3">
       <c r="A7557" t="s">
-        <v>2743</v>
+        <v>2740</v>
       </c>
       <c r="B7557" t="s">
         <v>35</v>
       </c>
       <c r="C7557" t="s">
-        <v>2744</v>
+        <v>2741</v>
       </c>
     </row>
     <row r="7558" spans="1:3">
       <c r="A7558" t="s">
-        <v>2743</v>
+        <v>2740</v>
       </c>
       <c r="B7558" t="s">
         <v>4</v>
       </c>
       <c r="C7558" t="s">
-        <v>2743</v>
+        <v>2740</v>
       </c>
     </row>
     <row r="7559" spans="1:3">
       <c r="A7559" t="s">
-        <v>2745</v>
+        <v>2742</v>
       </c>
       <c r="B7559" t="s">
         <v>12</v>
@@ -92842,7 +92833,7 @@
     </row>
     <row r="7560" spans="1:3">
       <c r="A7560" t="s">
-        <v>2745</v>
+        <v>2742</v>
       </c>
       <c r="B7560" t="s">
         <v>14</v>
@@ -92853,18 +92844,18 @@
     </row>
     <row r="7561" spans="1:3">
       <c r="A7561" t="s">
-        <v>2745</v>
+        <v>2742</v>
       </c>
       <c r="B7561" t="s">
         <v>9</v>
       </c>
       <c r="C7561" t="s">
-        <v>2746</v>
+        <v>2743</v>
       </c>
     </row>
     <row r="7562" spans="1:3">
       <c r="A7562" t="s">
-        <v>2745</v>
+        <v>2742</v>
       </c>
       <c r="B7562" t="s">
         <v>7</v>
@@ -92875,18 +92866,18 @@
     </row>
     <row r="7563" spans="1:3">
       <c r="A7563" t="s">
-        <v>2745</v>
+        <v>2742</v>
       </c>
       <c r="B7563" t="s">
         <v>11</v>
       </c>
       <c r="C7563" t="s">
-        <v>2680</v>
+        <v>2677</v>
       </c>
     </row>
     <row r="7564" spans="1:3">
       <c r="A7564" t="s">
-        <v>2745</v>
+        <v>2742</v>
       </c>
       <c r="B7564" t="s">
         <v>16</v>
@@ -92897,7 +92888,7 @@
     </row>
     <row r="7565" spans="1:3">
       <c r="A7565" t="s">
-        <v>2745</v>
+        <v>2742</v>
       </c>
       <c r="B7565" t="s">
         <v>35</v>
@@ -92908,7 +92899,7 @@
     </row>
     <row r="7566" spans="1:3">
       <c r="A7566" t="s">
-        <v>2745</v>
+        <v>2742</v>
       </c>
       <c r="B7566" t="s">
         <v>35</v>
@@ -92919,7 +92910,7 @@
     </row>
     <row r="7567" spans="1:3">
       <c r="A7567" t="s">
-        <v>2745</v>
+        <v>2742</v>
       </c>
       <c r="B7567" t="s">
         <v>35</v>
@@ -92930,18 +92921,18 @@
     </row>
     <row r="7568" spans="1:3">
       <c r="A7568" t="s">
-        <v>2745</v>
+        <v>2742</v>
       </c>
       <c r="B7568" t="s">
         <v>4</v>
       </c>
       <c r="C7568" t="s">
-        <v>2745</v>
+        <v>2742</v>
       </c>
     </row>
     <row r="7569" spans="1:3">
       <c r="A7569" t="s">
-        <v>2747</v>
+        <v>2744</v>
       </c>
       <c r="B7569" t="s">
         <v>5</v>
@@ -92952,7 +92943,7 @@
     </row>
     <row r="7570" spans="1:3">
       <c r="A7570" t="s">
-        <v>2747</v>
+        <v>2744</v>
       </c>
       <c r="B7570" t="s">
         <v>5</v>
@@ -92963,18 +92954,18 @@
     </row>
     <row r="7571" spans="1:3">
       <c r="A7571" t="s">
-        <v>2747</v>
+        <v>2744</v>
       </c>
       <c r="B7571" t="s">
         <v>5</v>
       </c>
       <c r="C7571" t="s">
-        <v>2748</v>
+        <v>2745</v>
       </c>
     </row>
     <row r="7572" spans="1:3">
       <c r="A7572" t="s">
-        <v>2747</v>
+        <v>2744</v>
       </c>
       <c r="B7572" t="s">
         <v>12</v>
@@ -92985,7 +92976,7 @@
     </row>
     <row r="7573" spans="1:3">
       <c r="A7573" t="s">
-        <v>2747</v>
+        <v>2744</v>
       </c>
       <c r="B7573" t="s">
         <v>14</v>
@@ -92996,18 +92987,18 @@
     </row>
     <row r="7574" spans="1:3">
       <c r="A7574" t="s">
-        <v>2747</v>
+        <v>2744</v>
       </c>
       <c r="B7574" t="s">
         <v>9</v>
       </c>
       <c r="C7574" t="s">
-        <v>2749</v>
+        <v>2746</v>
       </c>
     </row>
     <row r="7575" spans="1:3">
       <c r="A7575" t="s">
-        <v>2747</v>
+        <v>2744</v>
       </c>
       <c r="B7575" t="s">
         <v>7</v>
@@ -93018,7 +93009,7 @@
     </row>
     <row r="7576" spans="1:3">
       <c r="A7576" t="s">
-        <v>2747</v>
+        <v>2744</v>
       </c>
       <c r="B7576" t="s">
         <v>11</v>
@@ -93029,7 +93020,7 @@
     </row>
     <row r="7577" spans="1:3">
       <c r="A7577" t="s">
-        <v>2747</v>
+        <v>2744</v>
       </c>
       <c r="B7577" t="s">
         <v>16</v>
@@ -93040,13 +93031,13 @@
     </row>
     <row r="7578" spans="1:3">
       <c r="A7578" t="s">
-        <v>2747</v>
+        <v>2744</v>
       </c>
       <c r="B7578" t="s">
         <v>4</v>
       </c>
       <c r="C7578" t="s">
-        <v>2747</v>
+        <v>2744</v>
       </c>
     </row>
     <row r="7579" spans="1:3">
@@ -93062,7 +93053,7 @@
     </row>
     <row r="7580" spans="1:3">
       <c r="A7580" t="s">
-        <v>2750</v>
+        <v>2747</v>
       </c>
       <c r="B7580" t="s">
         <v>12</v>
@@ -93073,7 +93064,7 @@
     </row>
     <row r="7581" spans="1:3">
       <c r="A7581" t="s">
-        <v>2750</v>
+        <v>2747</v>
       </c>
       <c r="B7581" t="s">
         <v>14</v>
@@ -93084,7 +93075,7 @@
     </row>
     <row r="7582" spans="1:3">
       <c r="A7582" t="s">
-        <v>2750</v>
+        <v>2747</v>
       </c>
       <c r="B7582" t="s">
         <v>9</v>
@@ -93095,7 +93086,7 @@
     </row>
     <row r="7583" spans="1:3">
       <c r="A7583" t="s">
-        <v>2750</v>
+        <v>2747</v>
       </c>
       <c r="B7583" t="s">
         <v>7</v>
@@ -93106,7 +93097,7 @@
     </row>
     <row r="7584" spans="1:3">
       <c r="A7584" t="s">
-        <v>2750</v>
+        <v>2747</v>
       </c>
       <c r="B7584" t="s">
         <v>11</v>
@@ -93117,7 +93108,7 @@
     </row>
     <row r="7585" spans="1:3">
       <c r="A7585" t="s">
-        <v>2750</v>
+        <v>2747</v>
       </c>
       <c r="B7585" t="s">
         <v>16</v>
@@ -93128,13 +93119,13 @@
     </row>
     <row r="7586" spans="1:3">
       <c r="A7586" t="s">
-        <v>2750</v>
+        <v>2747</v>
       </c>
       <c r="B7586" t="s">
         <v>4</v>
       </c>
       <c r="C7586" t="s">
-        <v>2750</v>
+        <v>2747</v>
       </c>
     </row>
     <row r="7587" spans="1:3">
@@ -93189,7 +93180,7 @@
         <v>35</v>
       </c>
       <c r="C7591" t="s">
-        <v>2751</v>
+        <v>2748</v>
       </c>
     </row>
     <row r="7592" spans="1:3">
@@ -93200,12 +93191,12 @@
         <v>35</v>
       </c>
       <c r="C7592" t="s">
-        <v>2752</v>
+        <v>2749</v>
       </c>
     </row>
     <row r="7593" spans="1:3">
       <c r="A7593" t="s">
-        <v>2753</v>
+        <v>2750</v>
       </c>
       <c r="B7593" t="s">
         <v>5</v>
@@ -93216,7 +93207,7 @@
     </row>
     <row r="7594" spans="1:3">
       <c r="A7594" t="s">
-        <v>2753</v>
+        <v>2750</v>
       </c>
       <c r="B7594" t="s">
         <v>5</v>
@@ -93227,7 +93218,7 @@
     </row>
     <row r="7595" spans="1:3">
       <c r="A7595" t="s">
-        <v>2753</v>
+        <v>2750</v>
       </c>
       <c r="B7595" t="s">
         <v>5</v>
@@ -93238,18 +93229,18 @@
     </row>
     <row r="7596" spans="1:3">
       <c r="A7596" t="s">
-        <v>2753</v>
+        <v>2750</v>
       </c>
       <c r="B7596" t="s">
         <v>5</v>
       </c>
       <c r="C7596" t="s">
-        <v>2754</v>
+        <v>2751</v>
       </c>
     </row>
     <row r="7597" spans="1:3">
       <c r="A7597" t="s">
-        <v>2753</v>
+        <v>2750</v>
       </c>
       <c r="B7597" t="s">
         <v>5</v>
@@ -93260,7 +93251,7 @@
     </row>
     <row r="7598" spans="1:3">
       <c r="A7598" t="s">
-        <v>2753</v>
+        <v>2750</v>
       </c>
       <c r="B7598" t="s">
         <v>5</v>
@@ -93271,7 +93262,7 @@
     </row>
     <row r="7599" spans="1:3">
       <c r="A7599" t="s">
-        <v>2753</v>
+        <v>2750</v>
       </c>
       <c r="B7599" t="s">
         <v>5</v>
@@ -93282,7 +93273,7 @@
     </row>
     <row r="7600" spans="1:3">
       <c r="A7600" t="s">
-        <v>2753</v>
+        <v>2750</v>
       </c>
       <c r="B7600" t="s">
         <v>5</v>
@@ -93293,7 +93284,7 @@
     </row>
     <row r="7601" spans="1:3">
       <c r="A7601" t="s">
-        <v>2753</v>
+        <v>2750</v>
       </c>
       <c r="B7601" t="s">
         <v>5</v>
@@ -93304,7 +93295,7 @@
     </row>
     <row r="7602" spans="1:3">
       <c r="A7602" t="s">
-        <v>2753</v>
+        <v>2750</v>
       </c>
       <c r="B7602" t="s">
         <v>12</v>
@@ -93315,7 +93306,7 @@
     </row>
     <row r="7603" spans="1:3">
       <c r="A7603" t="s">
-        <v>2753</v>
+        <v>2750</v>
       </c>
       <c r="B7603" t="s">
         <v>14</v>
@@ -93326,7 +93317,7 @@
     </row>
     <row r="7604" spans="1:3">
       <c r="A7604" t="s">
-        <v>2753</v>
+        <v>2750</v>
       </c>
       <c r="B7604" t="s">
         <v>9</v>
@@ -93337,7 +93328,7 @@
     </row>
     <row r="7605" spans="1:3">
       <c r="A7605" t="s">
-        <v>2753</v>
+        <v>2750</v>
       </c>
       <c r="B7605" t="s">
         <v>7</v>
@@ -93348,7 +93339,7 @@
     </row>
     <row r="7606" spans="1:3">
       <c r="A7606" t="s">
-        <v>2753</v>
+        <v>2750</v>
       </c>
       <c r="B7606" t="s">
         <v>11</v>
@@ -93359,7 +93350,7 @@
     </row>
     <row r="7607" spans="1:3">
       <c r="A7607" t="s">
-        <v>2753</v>
+        <v>2750</v>
       </c>
       <c r="B7607" t="s">
         <v>16</v>
@@ -93370,13 +93361,13 @@
     </row>
     <row r="7608" spans="1:3">
       <c r="A7608" t="s">
-        <v>2753</v>
+        <v>2750</v>
       </c>
       <c r="B7608" t="s">
         <v>4</v>
       </c>
       <c r="C7608" t="s">
-        <v>2753</v>
+        <v>2750</v>
       </c>
     </row>
     <row r="7609" spans="1:3">
@@ -93453,7 +93444,7 @@
         <v>5</v>
       </c>
       <c r="C7615" t="s">
-        <v>2755</v>
+        <v>2752</v>
       </c>
     </row>
     <row r="7616" spans="1:3">
@@ -93502,29 +93493,29 @@
     </row>
     <row r="7620" spans="1:3">
       <c r="A7620" t="s">
-        <v>2756</v>
+        <v>2753</v>
       </c>
       <c r="B7620" t="s">
         <v>5</v>
       </c>
       <c r="C7620" t="s">
-        <v>2757</v>
+        <v>2754</v>
       </c>
     </row>
     <row r="7621" spans="1:3">
       <c r="A7621" t="s">
-        <v>2756</v>
+        <v>2753</v>
       </c>
       <c r="B7621" t="s">
         <v>5</v>
       </c>
       <c r="C7621" t="s">
-        <v>2758</v>
+        <v>2755</v>
       </c>
     </row>
     <row r="7622" spans="1:3">
       <c r="A7622" t="s">
-        <v>2756</v>
+        <v>2753</v>
       </c>
       <c r="B7622" t="s">
         <v>5</v>
@@ -93535,18 +93526,18 @@
     </row>
     <row r="7623" spans="1:3">
       <c r="A7623" t="s">
-        <v>2756</v>
+        <v>2753</v>
       </c>
       <c r="B7623" t="s">
         <v>5</v>
       </c>
       <c r="C7623" t="s">
-        <v>2759</v>
+        <v>2756</v>
       </c>
     </row>
     <row r="7624" spans="1:3">
       <c r="A7624" t="s">
-        <v>2756</v>
+        <v>2753</v>
       </c>
       <c r="B7624" t="s">
         <v>5</v>
@@ -93557,7 +93548,7 @@
     </row>
     <row r="7625" spans="1:3">
       <c r="A7625" t="s">
-        <v>2756</v>
+        <v>2753</v>
       </c>
       <c r="B7625" t="s">
         <v>12</v>
@@ -93568,7 +93559,7 @@
     </row>
     <row r="7626" spans="1:3">
       <c r="A7626" t="s">
-        <v>2756</v>
+        <v>2753</v>
       </c>
       <c r="B7626" t="s">
         <v>14</v>
@@ -93579,7 +93570,7 @@
     </row>
     <row r="7627" spans="1:3">
       <c r="A7627" t="s">
-        <v>2756</v>
+        <v>2753</v>
       </c>
       <c r="B7627" t="s">
         <v>9</v>
@@ -93590,7 +93581,7 @@
     </row>
     <row r="7628" spans="1:3">
       <c r="A7628" t="s">
-        <v>2756</v>
+        <v>2753</v>
       </c>
       <c r="B7628" t="s">
         <v>7</v>
@@ -93601,7 +93592,7 @@
     </row>
     <row r="7629" spans="1:3">
       <c r="A7629" t="s">
-        <v>2756</v>
+        <v>2753</v>
       </c>
       <c r="B7629" t="s">
         <v>11</v>
@@ -93612,24 +93603,24 @@
     </row>
     <row r="7630" spans="1:3">
       <c r="A7630" t="s">
-        <v>2756</v>
+        <v>2753</v>
       </c>
       <c r="B7630" t="s">
         <v>16</v>
       </c>
       <c r="C7630" t="s">
-        <v>2760</v>
+        <v>2757</v>
       </c>
     </row>
     <row r="7631" spans="1:3">
       <c r="A7631" t="s">
-        <v>2756</v>
+        <v>2753</v>
       </c>
       <c r="B7631" t="s">
         <v>4</v>
       </c>
       <c r="C7631" t="s">
-        <v>2756</v>
+        <v>2753</v>
       </c>
     </row>
     <row r="7632" spans="1:3">
@@ -93706,7 +93697,7 @@
         <v>35</v>
       </c>
       <c r="C7638" t="s">
-        <v>2761</v>
+        <v>2758</v>
       </c>
     </row>
     <row r="7639" spans="1:3">
@@ -93722,7 +93713,7 @@
     </row>
     <row r="7640" spans="1:3">
       <c r="A7640" t="s">
-        <v>2762</v>
+        <v>2759</v>
       </c>
       <c r="B7640" t="s">
         <v>33</v>
@@ -93733,7 +93724,7 @@
     </row>
     <row r="7641" spans="1:3">
       <c r="A7641" t="s">
-        <v>2762</v>
+        <v>2759</v>
       </c>
       <c r="B7641" t="s">
         <v>33</v>
@@ -93744,7 +93735,7 @@
     </row>
     <row r="7642" spans="1:3">
       <c r="A7642" t="s">
-        <v>2762</v>
+        <v>2759</v>
       </c>
       <c r="B7642" t="s">
         <v>33</v>
@@ -93755,7 +93746,7 @@
     </row>
     <row r="7643" spans="1:3">
       <c r="A7643" t="s">
-        <v>2762</v>
+        <v>2759</v>
       </c>
       <c r="B7643" t="s">
         <v>91</v>
@@ -93766,18 +93757,18 @@
     </row>
     <row r="7644" spans="1:3">
       <c r="A7644" t="s">
-        <v>2762</v>
+        <v>2759</v>
       </c>
       <c r="B7644" t="s">
         <v>91</v>
       </c>
       <c r="C7644" t="s">
-        <v>2634</v>
+        <v>2632</v>
       </c>
     </row>
     <row r="7645" spans="1:3">
       <c r="A7645" t="s">
-        <v>2762</v>
+        <v>2759</v>
       </c>
       <c r="B7645" t="s">
         <v>118</v>
@@ -93788,7 +93779,7 @@
     </row>
     <row r="7646" spans="1:3">
       <c r="A7646" t="s">
-        <v>2762</v>
+        <v>2759</v>
       </c>
       <c r="B7646" t="s">
         <v>118</v>
@@ -93799,7 +93790,7 @@
     </row>
     <row r="7647" spans="1:3">
       <c r="A7647" t="s">
-        <v>2762</v>
+        <v>2759</v>
       </c>
       <c r="B7647" t="s">
         <v>118</v>
@@ -93810,10 +93801,10 @@
     </row>
     <row r="7648" spans="1:3">
       <c r="A7648" t="s">
-        <v>2762</v>
+        <v>2759</v>
       </c>
       <c r="B7648" t="s">
-        <v>2622</v>
+        <v>228</v>
       </c>
       <c r="C7648" t="s">
         <v>220</v>
@@ -93821,7 +93812,7 @@
     </row>
     <row r="7649" spans="1:3">
       <c r="A7649" t="s">
-        <v>2762</v>
+        <v>2759</v>
       </c>
       <c r="B7649" t="s">
         <v>118</v>
@@ -93832,7 +93823,7 @@
     </row>
     <row r="7650" spans="1:3">
       <c r="A7650" t="s">
-        <v>2762</v>
+        <v>2759</v>
       </c>
       <c r="B7650" t="s">
         <v>24</v>
@@ -93843,7 +93834,7 @@
     </row>
     <row r="7651" spans="1:3">
       <c r="A7651" t="s">
-        <v>2762</v>
+        <v>2759</v>
       </c>
       <c r="B7651" t="s">
         <v>118</v>
@@ -93854,10 +93845,10 @@
     </row>
     <row r="7652" spans="1:3">
       <c r="A7652" t="s">
-        <v>2762</v>
+        <v>2759</v>
       </c>
       <c r="B7652" t="s">
-        <v>2622</v>
+        <v>228</v>
       </c>
       <c r="C7652" t="s">
         <v>249</v>
@@ -93865,7 +93856,7 @@
     </row>
     <row r="7653" spans="1:3">
       <c r="A7653" t="s">
-        <v>2762</v>
+        <v>2759</v>
       </c>
       <c r="B7653" t="s">
         <v>115</v>
@@ -93876,7 +93867,7 @@
     </row>
     <row r="7654" spans="1:3">
       <c r="A7654" t="s">
-        <v>2762</v>
+        <v>2759</v>
       </c>
       <c r="B7654" t="s">
         <v>115</v>
@@ -93887,7 +93878,7 @@
     </row>
     <row r="7655" spans="1:3">
       <c r="A7655" t="s">
-        <v>2763</v>
+        <v>2760</v>
       </c>
       <c r="B7655" t="s">
         <v>12</v>
@@ -93898,7 +93889,7 @@
     </row>
     <row r="7656" spans="1:3">
       <c r="A7656" t="s">
-        <v>2763</v>
+        <v>2760</v>
       </c>
       <c r="B7656" t="s">
         <v>14</v>
@@ -93909,7 +93900,7 @@
     </row>
     <row r="7657" spans="1:3">
       <c r="A7657" t="s">
-        <v>2763</v>
+        <v>2760</v>
       </c>
       <c r="B7657" t="s">
         <v>9</v>
@@ -93920,7 +93911,7 @@
     </row>
     <row r="7658" spans="1:3">
       <c r="A7658" t="s">
-        <v>2763</v>
+        <v>2760</v>
       </c>
       <c r="B7658" t="s">
         <v>7</v>
@@ -93931,7 +93922,7 @@
     </row>
     <row r="7659" spans="1:3">
       <c r="A7659" t="s">
-        <v>2763</v>
+        <v>2760</v>
       </c>
       <c r="B7659" t="s">
         <v>11</v>
@@ -93942,7 +93933,7 @@
     </row>
     <row r="7660" spans="1:3">
       <c r="A7660" t="s">
-        <v>2763</v>
+        <v>2760</v>
       </c>
       <c r="B7660" t="s">
         <v>16</v>
@@ -93953,18 +93944,18 @@
     </row>
     <row r="7661" spans="1:3">
       <c r="A7661" t="s">
-        <v>2763</v>
+        <v>2760</v>
       </c>
       <c r="B7661" t="s">
         <v>35</v>
       </c>
       <c r="C7661" t="s">
-        <v>2764</v>
+        <v>2761</v>
       </c>
     </row>
     <row r="7662" spans="1:3">
       <c r="A7662" t="s">
-        <v>2763</v>
+        <v>2760</v>
       </c>
       <c r="B7662" t="s">
         <v>35</v>
@@ -93975,18 +93966,18 @@
     </row>
     <row r="7663" spans="1:3">
       <c r="A7663" t="s">
-        <v>2763</v>
+        <v>2760</v>
       </c>
       <c r="B7663" t="s">
         <v>35</v>
       </c>
       <c r="C7663" t="s">
-        <v>2765</v>
+        <v>2762</v>
       </c>
     </row>
     <row r="7664" spans="1:3">
       <c r="A7664" t="s">
-        <v>2763</v>
+        <v>2760</v>
       </c>
       <c r="B7664" t="s">
         <v>35</v>
@@ -93997,18 +93988,18 @@
     </row>
     <row r="7665" spans="1:3">
       <c r="A7665" t="s">
+        <v>2760</v>
+      </c>
+      <c r="B7665" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7665" t="s">
         <v>2763</v>
-      </c>
-      <c r="B7665" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7665" t="s">
-        <v>2766</v>
       </c>
     </row>
     <row r="7666" spans="1:3">
       <c r="A7666" t="s">
-        <v>2763</v>
+        <v>2760</v>
       </c>
       <c r="B7666" t="s">
         <v>35</v>
@@ -94019,7 +94010,7 @@
     </row>
     <row r="7667" spans="1:3">
       <c r="A7667" t="s">
-        <v>2763</v>
+        <v>2760</v>
       </c>
       <c r="B7667" t="s">
         <v>35</v>
@@ -94030,29 +94021,29 @@
     </row>
     <row r="7668" spans="1:3">
       <c r="A7668" t="s">
-        <v>2763</v>
+        <v>2760</v>
       </c>
       <c r="B7668" t="s">
         <v>4</v>
       </c>
       <c r="C7668" t="s">
-        <v>2763</v>
+        <v>2760</v>
       </c>
     </row>
     <row r="7669" spans="1:3">
       <c r="A7669" t="s">
-        <v>2767</v>
+        <v>2764</v>
       </c>
       <c r="B7669" t="s">
         <v>12</v>
       </c>
       <c r="C7669" t="s">
-        <v>2768</v>
+        <v>2765</v>
       </c>
     </row>
     <row r="7670" spans="1:3">
       <c r="A7670" t="s">
-        <v>2767</v>
+        <v>2764</v>
       </c>
       <c r="B7670" t="s">
         <v>14</v>
@@ -94063,7 +94054,7 @@
     </row>
     <row r="7671" spans="1:3">
       <c r="A7671" t="s">
-        <v>2767</v>
+        <v>2764</v>
       </c>
       <c r="B7671" t="s">
         <v>9</v>
@@ -94074,40 +94065,40 @@
     </row>
     <row r="7672" spans="1:3">
       <c r="A7672" t="s">
-        <v>2767</v>
+        <v>2764</v>
       </c>
       <c r="B7672" t="s">
         <v>7</v>
       </c>
       <c r="C7672" t="s">
-        <v>2768</v>
+        <v>2765</v>
       </c>
     </row>
     <row r="7673" spans="1:3">
       <c r="A7673" t="s">
-        <v>2767</v>
+        <v>2764</v>
       </c>
       <c r="B7673" t="s">
         <v>16</v>
       </c>
       <c r="C7673" t="s">
-        <v>2767</v>
+        <v>2764</v>
       </c>
     </row>
     <row r="7674" spans="1:3">
       <c r="A7674" t="s">
-        <v>2767</v>
+        <v>2764</v>
       </c>
       <c r="B7674" t="s">
         <v>4</v>
       </c>
       <c r="C7674" t="s">
-        <v>2767</v>
+        <v>2764</v>
       </c>
     </row>
     <row r="7675" spans="1:3">
       <c r="A7675" t="s">
-        <v>2769</v>
+        <v>2766</v>
       </c>
       <c r="B7675" t="s">
         <v>12</v>
@@ -94118,7 +94109,7 @@
     </row>
     <row r="7676" spans="1:3">
       <c r="A7676" t="s">
-        <v>2769</v>
+        <v>2766</v>
       </c>
       <c r="B7676" t="s">
         <v>14</v>
@@ -94129,7 +94120,7 @@
     </row>
     <row r="7677" spans="1:3">
       <c r="A7677" t="s">
-        <v>2769</v>
+        <v>2766</v>
       </c>
       <c r="B7677" t="s">
         <v>9</v>
@@ -94140,7 +94131,7 @@
     </row>
     <row r="7678" spans="1:3">
       <c r="A7678" t="s">
-        <v>2769</v>
+        <v>2766</v>
       </c>
       <c r="B7678" t="s">
         <v>7</v>
@@ -94151,7 +94142,7 @@
     </row>
     <row r="7679" spans="1:3">
       <c r="A7679" t="s">
-        <v>2769</v>
+        <v>2766</v>
       </c>
       <c r="B7679" t="s">
         <v>11</v>
@@ -94162,7 +94153,7 @@
     </row>
     <row r="7680" spans="1:3">
       <c r="A7680" t="s">
-        <v>2769</v>
+        <v>2766</v>
       </c>
       <c r="B7680" t="s">
         <v>16</v>
@@ -94173,18 +94164,18 @@
     </row>
     <row r="7681" spans="1:3">
       <c r="A7681" t="s">
-        <v>2769</v>
+        <v>2766</v>
       </c>
       <c r="B7681" t="s">
         <v>35</v>
       </c>
       <c r="C7681" t="s">
-        <v>2770</v>
+        <v>2767</v>
       </c>
     </row>
     <row r="7682" spans="1:3">
       <c r="A7682" t="s">
-        <v>2769</v>
+        <v>2766</v>
       </c>
       <c r="B7682" t="s">
         <v>35</v>
@@ -94195,7 +94186,7 @@
     </row>
     <row r="7683" spans="1:3">
       <c r="A7683" t="s">
-        <v>2769</v>
+        <v>2766</v>
       </c>
       <c r="B7683" t="s">
         <v>35</v>
@@ -94206,7 +94197,7 @@
     </row>
     <row r="7684" spans="1:3">
       <c r="A7684" t="s">
-        <v>2769</v>
+        <v>2766</v>
       </c>
       <c r="B7684" t="s">
         <v>35</v>
@@ -94217,7 +94208,7 @@
     </row>
     <row r="7685" spans="1:3">
       <c r="A7685" t="s">
-        <v>2769</v>
+        <v>2766</v>
       </c>
       <c r="B7685" t="s">
         <v>35</v>
@@ -94228,7 +94219,7 @@
     </row>
     <row r="7686" spans="1:3">
       <c r="A7686" t="s">
-        <v>2769</v>
+        <v>2766</v>
       </c>
       <c r="B7686" t="s">
         <v>35</v>
@@ -94239,13 +94230,13 @@
     </row>
     <row r="7687" spans="1:3">
       <c r="A7687" t="s">
-        <v>2769</v>
+        <v>2766</v>
       </c>
       <c r="B7687" t="s">
         <v>4</v>
       </c>
       <c r="C7687" t="s">
-        <v>2769</v>
+        <v>2766</v>
       </c>
     </row>
     <row r="7688" spans="1:3">
@@ -94256,7 +94247,7 @@
         <v>16</v>
       </c>
       <c r="C7688" t="s">
-        <v>2771</v>
+        <v>2768</v>
       </c>
     </row>
     <row r="7689" spans="1:3">
@@ -94278,7 +94269,7 @@
         <v>35</v>
       </c>
       <c r="C7690" t="s">
-        <v>2772</v>
+        <v>2769</v>
       </c>
     </row>
     <row r="7691" spans="1:3">
@@ -94289,7 +94280,7 @@
         <v>35</v>
       </c>
       <c r="C7691" t="s">
-        <v>2773</v>
+        <v>2770</v>
       </c>
     </row>
     <row r="7692" spans="1:3">
@@ -94300,7 +94291,7 @@
         <v>7</v>
       </c>
       <c r="C7692" t="s">
-        <v>2738</v>
+        <v>2735</v>
       </c>
     </row>
     <row r="7693" spans="1:3">
@@ -94333,7 +94324,7 @@
         <v>9</v>
       </c>
       <c r="C7695" t="s">
-        <v>2774</v>
+        <v>2771</v>
       </c>
     </row>
     <row r="7696" spans="1:3">
@@ -94366,7 +94357,7 @@
         <v>5</v>
       </c>
       <c r="C7698" t="s">
-        <v>2775</v>
+        <v>2772</v>
       </c>
     </row>
     <row r="7699" spans="1:3">
@@ -94377,7 +94368,7 @@
         <v>5</v>
       </c>
       <c r="C7699" t="s">
-        <v>2776</v>
+        <v>2773</v>
       </c>
     </row>
     <row r="7700" spans="1:3">
@@ -94410,7 +94401,7 @@
         <v>5</v>
       </c>
       <c r="C7702" t="s">
-        <v>2777</v>
+        <v>2774</v>
       </c>
     </row>
     <row r="7703" spans="1:3">
@@ -94492,7 +94483,7 @@
     </row>
     <row r="7710" spans="1:3">
       <c r="A7710" t="s">
-        <v>2778</v>
+        <v>2775</v>
       </c>
       <c r="B7710" t="s">
         <v>5</v>
@@ -94503,7 +94494,7 @@
     </row>
     <row r="7711" spans="1:3">
       <c r="A7711" t="s">
-        <v>2778</v>
+        <v>2775</v>
       </c>
       <c r="B7711" t="s">
         <v>12</v>
@@ -94514,7 +94505,7 @@
     </row>
     <row r="7712" spans="1:3">
       <c r="A7712" t="s">
-        <v>2778</v>
+        <v>2775</v>
       </c>
       <c r="B7712" t="s">
         <v>14</v>
@@ -94525,7 +94516,7 @@
     </row>
     <row r="7713" spans="1:3">
       <c r="A7713" t="s">
-        <v>2778</v>
+        <v>2775</v>
       </c>
       <c r="B7713" t="s">
         <v>9</v>
@@ -94536,7 +94527,7 @@
     </row>
     <row r="7714" spans="1:3">
       <c r="A7714" t="s">
-        <v>2778</v>
+        <v>2775</v>
       </c>
       <c r="B7714" t="s">
         <v>7</v>
@@ -94547,7 +94538,7 @@
     </row>
     <row r="7715" spans="1:3">
       <c r="A7715" t="s">
-        <v>2778</v>
+        <v>2775</v>
       </c>
       <c r="B7715" t="s">
         <v>11</v>
@@ -94558,7 +94549,7 @@
     </row>
     <row r="7716" spans="1:3">
       <c r="A7716" t="s">
-        <v>2778</v>
+        <v>2775</v>
       </c>
       <c r="B7716" t="s">
         <v>16</v>
@@ -94569,13 +94560,13 @@
     </row>
     <row r="7717" spans="1:3">
       <c r="A7717" t="s">
-        <v>2778</v>
+        <v>2775</v>
       </c>
       <c r="B7717" t="s">
         <v>4</v>
       </c>
       <c r="C7717" t="s">
-        <v>2778</v>
+        <v>2775</v>
       </c>
     </row>
     <row r="7718" spans="1:3">
@@ -94597,7 +94588,7 @@
         <v>5</v>
       </c>
       <c r="C7719" t="s">
-        <v>2779</v>
+        <v>2776</v>
       </c>
     </row>
     <row r="7720" spans="1:3">
@@ -94608,45 +94599,45 @@
         <v>5</v>
       </c>
       <c r="C7720" t="s">
-        <v>2780</v>
+        <v>2777</v>
       </c>
     </row>
     <row r="7721" spans="1:3">
       <c r="A7721" t="s">
-        <v>2781</v>
+        <v>2778</v>
       </c>
       <c r="B7721" t="s">
         <v>5</v>
       </c>
       <c r="C7721" t="s">
-        <v>2782</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="7722" spans="1:3">
       <c r="A7722" t="s">
-        <v>2781</v>
+        <v>2778</v>
       </c>
       <c r="B7722" t="s">
         <v>5</v>
       </c>
       <c r="C7722" t="s">
-        <v>2783</v>
+        <v>2780</v>
       </c>
     </row>
     <row r="7723" spans="1:3">
       <c r="A7723" t="s">
-        <v>2781</v>
+        <v>2778</v>
       </c>
       <c r="B7723" t="s">
         <v>5</v>
       </c>
       <c r="C7723" t="s">
-        <v>2784</v>
+        <v>2781</v>
       </c>
     </row>
     <row r="7724" spans="1:3">
       <c r="A7724" t="s">
-        <v>2781</v>
+        <v>2778</v>
       </c>
       <c r="B7724" t="s">
         <v>12</v>
@@ -94657,7 +94648,7 @@
     </row>
     <row r="7725" spans="1:3">
       <c r="A7725" t="s">
-        <v>2781</v>
+        <v>2778</v>
       </c>
       <c r="B7725" t="s">
         <v>14</v>
@@ -94668,18 +94659,18 @@
     </row>
     <row r="7726" spans="1:3">
       <c r="A7726" t="s">
-        <v>2781</v>
+        <v>2778</v>
       </c>
       <c r="B7726" t="s">
         <v>9</v>
       </c>
       <c r="C7726" t="s">
-        <v>2785</v>
+        <v>2782</v>
       </c>
     </row>
     <row r="7727" spans="1:3">
       <c r="A7727" t="s">
-        <v>2781</v>
+        <v>2778</v>
       </c>
       <c r="B7727" t="s">
         <v>7</v>
@@ -94690,7 +94681,7 @@
     </row>
     <row r="7728" spans="1:3">
       <c r="A7728" t="s">
-        <v>2781</v>
+        <v>2778</v>
       </c>
       <c r="B7728" t="s">
         <v>11</v>
@@ -94701,7 +94692,7 @@
     </row>
     <row r="7729" spans="1:3">
       <c r="A7729" t="s">
-        <v>2781</v>
+        <v>2778</v>
       </c>
       <c r="B7729" t="s">
         <v>16</v>
@@ -94712,13 +94703,13 @@
     </row>
     <row r="7730" spans="1:3">
       <c r="A7730" t="s">
-        <v>2781</v>
+        <v>2778</v>
       </c>
       <c r="B7730" t="s">
         <v>4</v>
       </c>
       <c r="C7730" t="s">
-        <v>2781</v>
+        <v>2778</v>
       </c>
     </row>
     <row r="7731" spans="1:3">
@@ -94740,7 +94731,7 @@
         <v>5</v>
       </c>
       <c r="C7732" t="s">
-        <v>2631</v>
+        <v>2629</v>
       </c>
     </row>
     <row r="7733" spans="1:3">
@@ -94751,7 +94742,7 @@
         <v>5</v>
       </c>
       <c r="C7733" t="s">
-        <v>2786</v>
+        <v>2783</v>
       </c>
     </row>
     <row r="7734" spans="1:3">
@@ -94762,7 +94753,7 @@
         <v>5</v>
       </c>
       <c r="C7734" t="s">
-        <v>2787</v>
+        <v>2784</v>
       </c>
     </row>
     <row r="7735" spans="1:3">
@@ -94773,7 +94764,7 @@
         <v>9</v>
       </c>
       <c r="C7735" t="s">
-        <v>2746</v>
+        <v>2743</v>
       </c>
     </row>
     <row r="7736" spans="1:3">
@@ -94784,12 +94775,12 @@
         <v>11</v>
       </c>
       <c r="C7736" t="s">
-        <v>2680</v>
+        <v>2677</v>
       </c>
     </row>
     <row r="7737" spans="1:3">
       <c r="A7737" t="s">
-        <v>2788</v>
+        <v>2785</v>
       </c>
       <c r="B7737" t="s">
         <v>12</v>
@@ -94800,7 +94791,7 @@
     </row>
     <row r="7738" spans="1:3">
       <c r="A7738" t="s">
-        <v>2788</v>
+        <v>2785</v>
       </c>
       <c r="B7738" t="s">
         <v>14</v>
@@ -94811,7 +94802,7 @@
     </row>
     <row r="7739" spans="1:3">
       <c r="A7739" t="s">
-        <v>2788</v>
+        <v>2785</v>
       </c>
       <c r="B7739" t="s">
         <v>9</v>
@@ -94822,7 +94813,7 @@
     </row>
     <row r="7740" spans="1:3">
       <c r="A7740" t="s">
-        <v>2788</v>
+        <v>2785</v>
       </c>
       <c r="B7740" t="s">
         <v>7</v>
@@ -94833,18 +94824,18 @@
     </row>
     <row r="7741" spans="1:3">
       <c r="A7741" t="s">
-        <v>2788</v>
+        <v>2785</v>
       </c>
       <c r="B7741" t="s">
         <v>11</v>
       </c>
       <c r="C7741" t="s">
-        <v>2680</v>
+        <v>2677</v>
       </c>
     </row>
     <row r="7742" spans="1:3">
       <c r="A7742" t="s">
-        <v>2788</v>
+        <v>2785</v>
       </c>
       <c r="B7742" t="s">
         <v>16</v>
@@ -94855,7 +94846,7 @@
     </row>
     <row r="7743" spans="1:3">
       <c r="A7743" t="s">
-        <v>2788</v>
+        <v>2785</v>
       </c>
       <c r="B7743" t="s">
         <v>35</v>
@@ -94866,7 +94857,7 @@
     </row>
     <row r="7744" spans="1:3">
       <c r="A7744" t="s">
-        <v>2788</v>
+        <v>2785</v>
       </c>
       <c r="B7744" t="s">
         <v>35</v>
@@ -94877,24 +94868,24 @@
     </row>
     <row r="7745" spans="1:3">
       <c r="A7745" t="s">
-        <v>2788</v>
+        <v>2785</v>
       </c>
       <c r="B7745" t="s">
         <v>35</v>
       </c>
       <c r="C7745" t="s">
-        <v>2789</v>
+        <v>2786</v>
       </c>
     </row>
     <row r="7746" spans="1:3">
       <c r="A7746" t="s">
-        <v>2788</v>
+        <v>2785</v>
       </c>
       <c r="B7746" t="s">
         <v>4</v>
       </c>
       <c r="C7746" t="s">
-        <v>2788</v>
+        <v>2785</v>
       </c>
     </row>
     <row r="7747" spans="1:3">
@@ -94927,7 +94918,7 @@
         <v>35</v>
       </c>
       <c r="C7749" t="s">
-        <v>2790</v>
+        <v>2787</v>
       </c>
     </row>
     <row r="7750" spans="1:3">
@@ -94938,7 +94929,7 @@
         <v>9</v>
       </c>
       <c r="C7750" t="s">
-        <v>2694</v>
+        <v>2691</v>
       </c>
     </row>
     <row r="7751" spans="1:3">
@@ -94949,7 +94940,7 @@
         <v>16</v>
       </c>
       <c r="C7751" t="s">
-        <v>2695</v>
+        <v>2692</v>
       </c>
     </row>
     <row r="7752" spans="1:3">
@@ -94960,12 +94951,12 @@
         <v>35</v>
       </c>
       <c r="C7752" t="s">
-        <v>2791</v>
+        <v>2788</v>
       </c>
     </row>
     <row r="7753" spans="1:3">
       <c r="A7753" t="s">
-        <v>2792</v>
+        <v>2789</v>
       </c>
       <c r="B7753" t="s">
         <v>12</v>
@@ -94976,7 +94967,7 @@
     </row>
     <row r="7754" spans="1:3">
       <c r="A7754" t="s">
-        <v>2792</v>
+        <v>2789</v>
       </c>
       <c r="B7754" t="s">
         <v>14</v>
@@ -94987,7 +94978,7 @@
     </row>
     <row r="7755" spans="1:3">
       <c r="A7755" t="s">
-        <v>2792</v>
+        <v>2789</v>
       </c>
       <c r="B7755" t="s">
         <v>9</v>
@@ -94998,7 +94989,7 @@
     </row>
     <row r="7756" spans="1:3">
       <c r="A7756" t="s">
-        <v>2792</v>
+        <v>2789</v>
       </c>
       <c r="B7756" t="s">
         <v>7</v>
@@ -95009,7 +95000,7 @@
     </row>
     <row r="7757" spans="1:3">
       <c r="A7757" t="s">
-        <v>2792</v>
+        <v>2789</v>
       </c>
       <c r="B7757" t="s">
         <v>11</v>
@@ -95020,7 +95011,7 @@
     </row>
     <row r="7758" spans="1:3">
       <c r="A7758" t="s">
-        <v>2792</v>
+        <v>2789</v>
       </c>
       <c r="B7758" t="s">
         <v>16</v>
@@ -95031,7 +95022,7 @@
     </row>
     <row r="7759" spans="1:3">
       <c r="A7759" t="s">
-        <v>2792</v>
+        <v>2789</v>
       </c>
       <c r="B7759" t="s">
         <v>35</v>
@@ -95042,13 +95033,13 @@
     </row>
     <row r="7760" spans="1:3">
       <c r="A7760" t="s">
-        <v>2792</v>
+        <v>2789</v>
       </c>
       <c r="B7760" t="s">
         <v>4</v>
       </c>
       <c r="C7760" t="s">
-        <v>2792</v>
+        <v>2789</v>
       </c>
     </row>
     <row r="7761" spans="1:3">
@@ -95103,7 +95094,7 @@
         <v>16</v>
       </c>
       <c r="C7765" t="s">
-        <v>2793</v>
+        <v>2790</v>
       </c>
     </row>
     <row r="7766" spans="1:3">
@@ -95114,7 +95105,7 @@
         <v>35</v>
       </c>
       <c r="C7766" t="s">
-        <v>2794</v>
+        <v>2791</v>
       </c>
     </row>
     <row r="7767" spans="1:3">
@@ -95130,7 +95121,7 @@
     </row>
     <row r="7768" spans="1:3">
       <c r="A7768" t="s">
-        <v>2795</v>
+        <v>2792</v>
       </c>
       <c r="B7768" t="s">
         <v>5</v>
@@ -95141,7 +95132,7 @@
     </row>
     <row r="7769" spans="1:3">
       <c r="A7769" t="s">
-        <v>2795</v>
+        <v>2792</v>
       </c>
       <c r="B7769" t="s">
         <v>12</v>
@@ -95152,7 +95143,7 @@
     </row>
     <row r="7770" spans="1:3">
       <c r="A7770" t="s">
-        <v>2795</v>
+        <v>2792</v>
       </c>
       <c r="B7770" t="s">
         <v>14</v>
@@ -95163,7 +95154,7 @@
     </row>
     <row r="7771" spans="1:3">
       <c r="A7771" t="s">
-        <v>2795</v>
+        <v>2792</v>
       </c>
       <c r="B7771" t="s">
         <v>9</v>
@@ -95174,7 +95165,7 @@
     </row>
     <row r="7772" spans="1:3">
       <c r="A7772" t="s">
-        <v>2795</v>
+        <v>2792</v>
       </c>
       <c r="B7772" t="s">
         <v>7</v>
@@ -95185,7 +95176,7 @@
     </row>
     <row r="7773" spans="1:3">
       <c r="A7773" t="s">
-        <v>2795</v>
+        <v>2792</v>
       </c>
       <c r="B7773" t="s">
         <v>11</v>
@@ -95196,7 +95187,7 @@
     </row>
     <row r="7774" spans="1:3">
       <c r="A7774" t="s">
-        <v>2795</v>
+        <v>2792</v>
       </c>
       <c r="B7774" t="s">
         <v>16</v>
@@ -95207,13 +95198,13 @@
     </row>
     <row r="7775" spans="1:3">
       <c r="A7775" t="s">
-        <v>2795</v>
+        <v>2792</v>
       </c>
       <c r="B7775" t="s">
         <v>4</v>
       </c>
       <c r="C7775" t="s">
-        <v>2795</v>
+        <v>2792</v>
       </c>
     </row>
     <row r="7776" spans="1:3">
@@ -95224,7 +95215,7 @@
         <v>35</v>
       </c>
       <c r="C7776" t="s">
-        <v>2796</v>
+        <v>2793</v>
       </c>
     </row>
     <row r="7777" spans="1:3">
@@ -95246,7 +95237,7 @@
         <v>5</v>
       </c>
       <c r="C7778" t="s">
-        <v>2797</v>
+        <v>2794</v>
       </c>
     </row>
     <row r="7779" spans="1:3">
@@ -95433,7 +95424,7 @@
         <v>35</v>
       </c>
       <c r="C7795" t="s">
-        <v>2797</v>
+        <v>2794</v>
       </c>
     </row>
     <row r="7796" spans="1:3">
@@ -95669,7 +95660,7 @@
     </row>
     <row r="7817" spans="1:3">
       <c r="A7817" t="s">
-        <v>2798</v>
+        <v>2795</v>
       </c>
       <c r="B7817" t="s">
         <v>5</v>
@@ -95680,7 +95671,7 @@
     </row>
     <row r="7818" spans="1:3">
       <c r="A7818" t="s">
-        <v>2798</v>
+        <v>2795</v>
       </c>
       <c r="B7818" t="s">
         <v>12</v>
@@ -95691,7 +95682,7 @@
     </row>
     <row r="7819" spans="1:3">
       <c r="A7819" t="s">
-        <v>2798</v>
+        <v>2795</v>
       </c>
       <c r="B7819" t="s">
         <v>14</v>
@@ -95702,7 +95693,7 @@
     </row>
     <row r="7820" spans="1:3">
       <c r="A7820" t="s">
-        <v>2798</v>
+        <v>2795</v>
       </c>
       <c r="B7820" t="s">
         <v>9</v>
@@ -95713,7 +95704,7 @@
     </row>
     <row r="7821" spans="1:3">
       <c r="A7821" t="s">
-        <v>2798</v>
+        <v>2795</v>
       </c>
       <c r="B7821" t="s">
         <v>7</v>
@@ -95724,7 +95715,7 @@
     </row>
     <row r="7822" spans="1:3">
       <c r="A7822" t="s">
-        <v>2798</v>
+        <v>2795</v>
       </c>
       <c r="B7822" t="s">
         <v>11</v>
@@ -95735,18 +95726,18 @@
     </row>
     <row r="7823" spans="1:3">
       <c r="A7823" t="s">
-        <v>2798</v>
+        <v>2795</v>
       </c>
       <c r="B7823" t="s">
         <v>16</v>
       </c>
       <c r="C7823" t="s">
-        <v>2799</v>
+        <v>2796</v>
       </c>
     </row>
     <row r="7824" spans="1:3">
       <c r="A7824" t="s">
-        <v>2798</v>
+        <v>2795</v>
       </c>
       <c r="B7824" t="s">
         <v>35</v>
@@ -95757,7 +95748,7 @@
     </row>
     <row r="7825" spans="1:3">
       <c r="A7825" t="s">
-        <v>2798</v>
+        <v>2795</v>
       </c>
       <c r="B7825" t="s">
         <v>35</v>
@@ -95768,7 +95759,7 @@
     </row>
     <row r="7826" spans="1:3">
       <c r="A7826" t="s">
-        <v>2798</v>
+        <v>2795</v>
       </c>
       <c r="B7826" t="s">
         <v>35</v>
@@ -95779,7 +95770,7 @@
     </row>
     <row r="7827" spans="1:3">
       <c r="A7827" t="s">
-        <v>2798</v>
+        <v>2795</v>
       </c>
       <c r="B7827" t="s">
         <v>35</v>
@@ -95790,7 +95781,7 @@
     </row>
     <row r="7828" spans="1:3">
       <c r="A7828" t="s">
-        <v>2798</v>
+        <v>2795</v>
       </c>
       <c r="B7828" t="s">
         <v>35</v>
@@ -95801,13 +95792,13 @@
     </row>
     <row r="7829" spans="1:3">
       <c r="A7829" t="s">
-        <v>2798</v>
+        <v>2795</v>
       </c>
       <c r="B7829" t="s">
         <v>4</v>
       </c>
       <c r="C7829" t="s">
-        <v>2798</v>
+        <v>2795</v>
       </c>
     </row>
     <row r="7830" spans="1:3">
@@ -95873,7 +95864,7 @@
         <v>12</v>
       </c>
       <c r="C7835" t="s">
-        <v>2693</v>
+        <v>2690</v>
       </c>
     </row>
     <row r="7836" spans="1:3">
@@ -95928,7 +95919,7 @@
         <v>16</v>
       </c>
       <c r="C7840" t="s">
-        <v>2800</v>
+        <v>2797</v>
       </c>
     </row>
     <row r="7841" spans="1:3">
@@ -95950,7 +95941,7 @@
         <v>35</v>
       </c>
       <c r="C7842" t="s">
-        <v>2801</v>
+        <v>2798</v>
       </c>
     </row>
     <row r="7843" spans="1:3">
@@ -95961,7 +95952,7 @@
         <v>35</v>
       </c>
       <c r="C7843" t="s">
-        <v>2802</v>
+        <v>2799</v>
       </c>
     </row>
     <row r="7844" spans="1:3">
@@ -95972,7 +95963,7 @@
         <v>35</v>
       </c>
       <c r="C7844" t="s">
-        <v>2705</v>
+        <v>2702</v>
       </c>
     </row>
     <row r="7845" spans="1:3">
@@ -96115,7 +96106,7 @@
         <v>5</v>
       </c>
       <c r="C7857" t="s">
-        <v>2803</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="7858" spans="1:3">
@@ -96126,7 +96117,7 @@
         <v>5</v>
       </c>
       <c r="C7858" t="s">
-        <v>2766</v>
+        <v>2763</v>
       </c>
     </row>
     <row r="7859" spans="1:3">
@@ -96230,7 +96221,7 @@
     </row>
     <row r="7868" spans="1:3">
       <c r="A7868" t="s">
-        <v>2804</v>
+        <v>2801</v>
       </c>
       <c r="B7868" t="s">
         <v>12</v>
@@ -96241,7 +96232,7 @@
     </row>
     <row r="7869" spans="1:3">
       <c r="A7869" t="s">
-        <v>2804</v>
+        <v>2801</v>
       </c>
       <c r="B7869" t="s">
         <v>14</v>
@@ -96252,7 +96243,7 @@
     </row>
     <row r="7870" spans="1:3">
       <c r="A7870" t="s">
-        <v>2804</v>
+        <v>2801</v>
       </c>
       <c r="B7870" t="s">
         <v>9</v>
@@ -96263,7 +96254,7 @@
     </row>
     <row r="7871" spans="1:3">
       <c r="A7871" t="s">
-        <v>2804</v>
+        <v>2801</v>
       </c>
       <c r="B7871" t="s">
         <v>7</v>
@@ -96274,7 +96265,7 @@
     </row>
     <row r="7872" spans="1:3">
       <c r="A7872" t="s">
-        <v>2804</v>
+        <v>2801</v>
       </c>
       <c r="B7872" t="s">
         <v>11</v>
@@ -96285,7 +96276,7 @@
     </row>
     <row r="7873" spans="1:3">
       <c r="A7873" t="s">
-        <v>2804</v>
+        <v>2801</v>
       </c>
       <c r="B7873" t="s">
         <v>16</v>
@@ -96296,7 +96287,7 @@
     </row>
     <row r="7874" spans="1:3">
       <c r="A7874" t="s">
-        <v>2804</v>
+        <v>2801</v>
       </c>
       <c r="B7874" t="s">
         <v>35</v>
@@ -96307,29 +96298,29 @@
     </row>
     <row r="7875" spans="1:3">
       <c r="A7875" t="s">
-        <v>2804</v>
+        <v>2801</v>
       </c>
       <c r="B7875" t="s">
         <v>35</v>
       </c>
       <c r="C7875" t="s">
-        <v>2805</v>
+        <v>2802</v>
       </c>
     </row>
     <row r="7876" spans="1:3">
       <c r="A7876" t="s">
-        <v>2804</v>
+        <v>2801</v>
       </c>
       <c r="B7876" t="s">
         <v>4</v>
       </c>
       <c r="C7876" t="s">
-        <v>2804</v>
+        <v>2801</v>
       </c>
     </row>
     <row r="7877" spans="1:3">
       <c r="A7877" t="s">
-        <v>2806</v>
+        <v>2803</v>
       </c>
       <c r="B7877" t="s">
         <v>12</v>
@@ -96340,7 +96331,7 @@
     </row>
     <row r="7878" spans="1:3">
       <c r="A7878" t="s">
-        <v>2806</v>
+        <v>2803</v>
       </c>
       <c r="B7878" t="s">
         <v>14</v>
@@ -96351,7 +96342,7 @@
     </row>
     <row r="7879" spans="1:3">
       <c r="A7879" t="s">
-        <v>2806</v>
+        <v>2803</v>
       </c>
       <c r="B7879" t="s">
         <v>9</v>
@@ -96362,7 +96353,7 @@
     </row>
     <row r="7880" spans="1:3">
       <c r="A7880" t="s">
-        <v>2806</v>
+        <v>2803</v>
       </c>
       <c r="B7880" t="s">
         <v>7</v>
@@ -96373,7 +96364,7 @@
     </row>
     <row r="7881" spans="1:3">
       <c r="A7881" t="s">
-        <v>2806</v>
+        <v>2803</v>
       </c>
       <c r="B7881" t="s">
         <v>11</v>
@@ -96384,7 +96375,7 @@
     </row>
     <row r="7882" spans="1:3">
       <c r="A7882" t="s">
-        <v>2806</v>
+        <v>2803</v>
       </c>
       <c r="B7882" t="s">
         <v>16</v>
@@ -96395,7 +96386,7 @@
     </row>
     <row r="7883" spans="1:3">
       <c r="A7883" t="s">
-        <v>2806</v>
+        <v>2803</v>
       </c>
       <c r="B7883" t="s">
         <v>35</v>
@@ -96406,18 +96397,18 @@
     </row>
     <row r="7884" spans="1:3">
       <c r="A7884" t="s">
-        <v>2806</v>
+        <v>2803</v>
       </c>
       <c r="B7884" t="s">
         <v>35</v>
       </c>
       <c r="C7884" t="s">
-        <v>2807</v>
+        <v>2804</v>
       </c>
     </row>
     <row r="7885" spans="1:3">
       <c r="A7885" t="s">
-        <v>2806</v>
+        <v>2803</v>
       </c>
       <c r="B7885" t="s">
         <v>35</v>
@@ -96428,18 +96419,18 @@
     </row>
     <row r="7886" spans="1:3">
       <c r="A7886" t="s">
-        <v>2806</v>
+        <v>2803</v>
       </c>
       <c r="B7886" t="s">
         <v>4</v>
       </c>
       <c r="C7886" t="s">
-        <v>2806</v>
+        <v>2803</v>
       </c>
     </row>
     <row r="7887" spans="1:3">
       <c r="A7887" t="s">
-        <v>2808</v>
+        <v>2805</v>
       </c>
       <c r="B7887" t="s">
         <v>12</v>
@@ -96450,7 +96441,7 @@
     </row>
     <row r="7888" spans="1:3">
       <c r="A7888" t="s">
-        <v>2808</v>
+        <v>2805</v>
       </c>
       <c r="B7888" t="s">
         <v>14</v>
@@ -96461,7 +96452,7 @@
     </row>
     <row r="7889" spans="1:3">
       <c r="A7889" t="s">
-        <v>2808</v>
+        <v>2805</v>
       </c>
       <c r="B7889" t="s">
         <v>9</v>
@@ -96472,7 +96463,7 @@
     </row>
     <row r="7890" spans="1:3">
       <c r="A7890" t="s">
-        <v>2808</v>
+        <v>2805</v>
       </c>
       <c r="B7890" t="s">
         <v>7</v>
@@ -96483,7 +96474,7 @@
     </row>
     <row r="7891" spans="1:3">
       <c r="A7891" t="s">
-        <v>2808</v>
+        <v>2805</v>
       </c>
       <c r="B7891" t="s">
         <v>11</v>
@@ -96494,7 +96485,7 @@
     </row>
     <row r="7892" spans="1:3">
       <c r="A7892" t="s">
-        <v>2808</v>
+        <v>2805</v>
       </c>
       <c r="B7892" t="s">
         <v>16</v>
@@ -96505,7 +96496,7 @@
     </row>
     <row r="7893" spans="1:3">
       <c r="A7893" t="s">
-        <v>2808</v>
+        <v>2805</v>
       </c>
       <c r="B7893" t="s">
         <v>35</v>
@@ -96516,18 +96507,18 @@
     </row>
     <row r="7894" spans="1:3">
       <c r="A7894" t="s">
-        <v>2808</v>
+        <v>2805</v>
       </c>
       <c r="B7894" t="s">
         <v>35</v>
       </c>
       <c r="C7894" t="s">
-        <v>2809</v>
+        <v>2806</v>
       </c>
     </row>
     <row r="7895" spans="1:3">
       <c r="A7895" t="s">
-        <v>2808</v>
+        <v>2805</v>
       </c>
       <c r="B7895" t="s">
         <v>35</v>
@@ -96538,18 +96529,18 @@
     </row>
     <row r="7896" spans="1:3">
       <c r="A7896" t="s">
-        <v>2808</v>
+        <v>2805</v>
       </c>
       <c r="B7896" t="s">
         <v>35</v>
       </c>
       <c r="C7896" t="s">
-        <v>2810</v>
+        <v>2807</v>
       </c>
     </row>
     <row r="7897" spans="1:3">
       <c r="A7897" t="s">
-        <v>2808</v>
+        <v>2805</v>
       </c>
       <c r="B7897" t="s">
         <v>35</v>
@@ -96560,7 +96551,7 @@
     </row>
     <row r="7898" spans="1:3">
       <c r="A7898" t="s">
-        <v>2808</v>
+        <v>2805</v>
       </c>
       <c r="B7898" t="s">
         <v>35</v>
@@ -96571,7 +96562,7 @@
     </row>
     <row r="7899" spans="1:3">
       <c r="A7899" t="s">
-        <v>2808</v>
+        <v>2805</v>
       </c>
       <c r="B7899" t="s">
         <v>35</v>
@@ -96582,13 +96573,13 @@
     </row>
     <row r="7900" spans="1:3">
       <c r="A7900" t="s">
-        <v>2808</v>
+        <v>2805</v>
       </c>
       <c r="B7900" t="s">
         <v>4</v>
       </c>
       <c r="C7900" t="s">
-        <v>2808</v>
+        <v>2805</v>
       </c>
     </row>
     <row r="7901" spans="1:3">
@@ -96632,7 +96623,7 @@
         <v>7</v>
       </c>
       <c r="C7904" t="s">
-        <v>2811</v>
+        <v>2808</v>
       </c>
     </row>
     <row r="7905" spans="1:3">
@@ -96676,7 +96667,7 @@
         <v>35</v>
       </c>
       <c r="C7908" t="s">
-        <v>2812</v>
+        <v>2809</v>
       </c>
     </row>
     <row r="7909" spans="1:3">
@@ -96687,7 +96678,7 @@
         <v>35</v>
       </c>
       <c r="C7909" t="s">
-        <v>2813</v>
+        <v>2810</v>
       </c>
     </row>
     <row r="7910" spans="1:3">
@@ -96885,7 +96876,7 @@
         <v>9</v>
       </c>
       <c r="C7927" t="s">
-        <v>2709</v>
+        <v>2706</v>
       </c>
     </row>
     <row r="7928" spans="1:3">
@@ -96896,7 +96887,7 @@
         <v>11</v>
       </c>
       <c r="C7928" t="s">
-        <v>2680</v>
+        <v>2677</v>
       </c>
     </row>
     <row r="7929" spans="1:3">
@@ -96907,7 +96898,7 @@
         <v>16</v>
       </c>
       <c r="C7929" t="s">
-        <v>2814</v>
+        <v>2811</v>
       </c>
     </row>
     <row r="7930" spans="1:3">
@@ -96918,7 +96909,7 @@
         <v>5</v>
       </c>
       <c r="C7930" t="s">
-        <v>2815</v>
+        <v>2812</v>
       </c>
     </row>
     <row r="7931" spans="1:3">
@@ -96951,12 +96942,12 @@
         <v>16</v>
       </c>
       <c r="C7933" t="s">
-        <v>2816</v>
+        <v>2813</v>
       </c>
     </row>
     <row r="7934" spans="1:3">
       <c r="A7934" t="s">
-        <v>2817</v>
+        <v>2814</v>
       </c>
       <c r="B7934" t="s">
         <v>33</v>
@@ -97003,7 +96994,7 @@
         <v>2613</v>
       </c>
       <c r="B7938" t="s">
-        <v>2622</v>
+        <v>228</v>
       </c>
       <c r="C7938" t="s">
         <v>549</v>
@@ -97017,7 +97008,7 @@
         <v>118</v>
       </c>
       <c r="C7939" t="s">
-        <v>2651</v>
+        <v>2648</v>
       </c>
     </row>
     <row r="7940" spans="1:3">
@@ -97028,15 +97019,15 @@
         <v>308</v>
       </c>
       <c r="C7940" t="s">
-        <v>2651</v>
+        <v>2648</v>
       </c>
     </row>
     <row r="7941" spans="1:3">
       <c r="A7941" t="s">
-        <v>2656</v>
+        <v>2653</v>
       </c>
       <c r="B7941" t="s">
-        <v>2622</v>
+        <v>228</v>
       </c>
       <c r="C7941" t="s">
         <v>27</v>
@@ -97044,10 +97035,10 @@
     </row>
     <row r="7942" spans="1:3">
       <c r="A7942" t="s">
-        <v>2662</v>
+        <v>2659</v>
       </c>
       <c r="B7942" t="s">
-        <v>2622</v>
+        <v>228</v>
       </c>
       <c r="C7942" t="s">
         <v>27</v>
@@ -97055,7 +97046,7 @@
     </row>
     <row r="7943" spans="1:3">
       <c r="A7943" t="s">
-        <v>2818</v>
+        <v>2815</v>
       </c>
       <c r="B7943" t="s">
         <v>24</v>
@@ -97066,7 +97057,7 @@
     </row>
     <row r="7944" spans="1:3">
       <c r="A7944" t="s">
-        <v>2819</v>
+        <v>2816</v>
       </c>
       <c r="B7944" t="s">
         <v>24</v>
@@ -97077,7 +97068,7 @@
     </row>
     <row r="7945" spans="1:3">
       <c r="A7945" t="s">
-        <v>2820</v>
+        <v>2817</v>
       </c>
       <c r="B7945" t="s">
         <v>24</v>
@@ -97091,7 +97082,7 @@
         <v>1961</v>
       </c>
       <c r="B7946" t="s">
-        <v>2622</v>
+        <v>228</v>
       </c>
       <c r="C7946" t="s">
         <v>27</v>
@@ -97099,10 +97090,10 @@
     </row>
     <row r="7947" spans="1:3">
       <c r="A7947" t="s">
-        <v>2821</v>
+        <v>2818</v>
       </c>
       <c r="B7947" t="s">
-        <v>2622</v>
+        <v>228</v>
       </c>
       <c r="C7947" t="s">
         <v>27</v>
@@ -97127,7 +97118,7 @@
         <v>5</v>
       </c>
       <c r="C7949" t="s">
-        <v>2822</v>
+        <v>2819</v>
       </c>
     </row>
     <row r="7950" spans="1:3">
@@ -97138,7 +97129,7 @@
         <v>5</v>
       </c>
       <c r="C7950" t="s">
-        <v>2823</v>
+        <v>2820</v>
       </c>
     </row>
     <row r="7951" spans="1:3">
@@ -97149,7 +97140,7 @@
         <v>5</v>
       </c>
       <c r="C7951" t="s">
-        <v>2824</v>
+        <v>2821</v>
       </c>
     </row>
     <row r="7952" spans="1:3">
@@ -97165,7 +97156,7 @@
     </row>
     <row r="7953" spans="1:3">
       <c r="A7953" t="s">
-        <v>2825</v>
+        <v>2822</v>
       </c>
       <c r="B7953" t="s">
         <v>5</v>
@@ -97176,7 +97167,7 @@
     </row>
     <row r="7954" spans="1:3">
       <c r="A7954" t="s">
-        <v>2825</v>
+        <v>2822</v>
       </c>
       <c r="B7954" t="s">
         <v>5</v>
@@ -97187,7 +97178,7 @@
     </row>
     <row r="7955" spans="1:3">
       <c r="A7955" t="s">
-        <v>2825</v>
+        <v>2822</v>
       </c>
       <c r="B7955" t="s">
         <v>12</v>
@@ -97198,7 +97189,7 @@
     </row>
     <row r="7956" spans="1:3">
       <c r="A7956" t="s">
-        <v>2825</v>
+        <v>2822</v>
       </c>
       <c r="B7956" t="s">
         <v>14</v>
@@ -97209,7 +97200,7 @@
     </row>
     <row r="7957" spans="1:3">
       <c r="A7957" t="s">
-        <v>2825</v>
+        <v>2822</v>
       </c>
       <c r="B7957" t="s">
         <v>9</v>
@@ -97220,7 +97211,7 @@
     </row>
     <row r="7958" spans="1:3">
       <c r="A7958" t="s">
-        <v>2825</v>
+        <v>2822</v>
       </c>
       <c r="B7958" t="s">
         <v>7</v>
@@ -97231,7 +97222,7 @@
     </row>
     <row r="7959" spans="1:3">
       <c r="A7959" t="s">
-        <v>2825</v>
+        <v>2822</v>
       </c>
       <c r="B7959" t="s">
         <v>11</v>
@@ -97242,24 +97233,24 @@
     </row>
     <row r="7960" spans="1:3">
       <c r="A7960" t="s">
-        <v>2825</v>
+        <v>2822</v>
       </c>
       <c r="B7960" t="s">
         <v>16</v>
       </c>
       <c r="C7960" t="s">
-        <v>2721</v>
+        <v>2718</v>
       </c>
     </row>
     <row r="7961" spans="1:3">
       <c r="A7961" t="s">
-        <v>2825</v>
+        <v>2822</v>
       </c>
       <c r="B7961" t="s">
         <v>4</v>
       </c>
       <c r="C7961" t="s">
-        <v>2825</v>
+        <v>2822</v>
       </c>
     </row>
     <row r="7962" spans="1:3">
@@ -97292,7 +97283,7 @@
         <v>9</v>
       </c>
       <c r="C7964" t="s">
-        <v>2826</v>
+        <v>2823</v>
       </c>
     </row>
     <row r="7965" spans="1:3">
@@ -97358,7 +97349,7 @@
         <v>5</v>
       </c>
       <c r="C7970" t="s">
-        <v>2827</v>
+        <v>2824</v>
       </c>
     </row>
     <row r="7971" spans="1:3">
@@ -97369,7 +97360,7 @@
         <v>5</v>
       </c>
       <c r="C7971" t="s">
-        <v>2828</v>
+        <v>2825</v>
       </c>
     </row>
     <row r="7972" spans="1:3">
@@ -97385,7 +97376,7 @@
     </row>
     <row r="7973" spans="1:3">
       <c r="A7973" t="s">
-        <v>2829</v>
+        <v>2826</v>
       </c>
       <c r="B7973" t="s">
         <v>5</v>
@@ -97396,7 +97387,7 @@
     </row>
     <row r="7974" spans="1:3">
       <c r="A7974" t="s">
-        <v>2829</v>
+        <v>2826</v>
       </c>
       <c r="B7974" t="s">
         <v>12</v>
@@ -97407,7 +97398,7 @@
     </row>
     <row r="7975" spans="1:3">
       <c r="A7975" t="s">
-        <v>2829</v>
+        <v>2826</v>
       </c>
       <c r="B7975" t="s">
         <v>14</v>
@@ -97418,18 +97409,18 @@
     </row>
     <row r="7976" spans="1:3">
       <c r="A7976" t="s">
-        <v>2829</v>
+        <v>2826</v>
       </c>
       <c r="B7976" t="s">
         <v>9</v>
       </c>
       <c r="C7976" t="s">
-        <v>2709</v>
+        <v>2706</v>
       </c>
     </row>
     <row r="7977" spans="1:3">
       <c r="A7977" t="s">
-        <v>2829</v>
+        <v>2826</v>
       </c>
       <c r="B7977" t="s">
         <v>7</v>
@@ -97440,35 +97431,35 @@
     </row>
     <row r="7978" spans="1:3">
       <c r="A7978" t="s">
-        <v>2829</v>
+        <v>2826</v>
       </c>
       <c r="B7978" t="s">
         <v>11</v>
       </c>
       <c r="C7978" t="s">
-        <v>2680</v>
+        <v>2677</v>
       </c>
     </row>
     <row r="7979" spans="1:3">
       <c r="A7979" t="s">
-        <v>2829</v>
+        <v>2826</v>
       </c>
       <c r="B7979" t="s">
         <v>16</v>
       </c>
       <c r="C7979" t="s">
-        <v>2830</v>
+        <v>2827</v>
       </c>
     </row>
     <row r="7980" spans="1:3">
       <c r="A7980" t="s">
-        <v>2829</v>
+        <v>2826</v>
       </c>
       <c r="B7980" t="s">
         <v>4</v>
       </c>
       <c r="C7980" t="s">
-        <v>2829</v>
+        <v>2826</v>
       </c>
     </row>
     <row r="7981" spans="1:3">
@@ -97506,21 +97497,21 @@
     </row>
     <row r="7984" spans="1:3">
       <c r="A7984" t="s">
-        <v>2831</v>
+        <v>2828</v>
       </c>
       <c r="B7984" t="s">
         <v>91</v>
       </c>
       <c r="C7984" t="s">
-        <v>2631</v>
+        <v>2629</v>
       </c>
     </row>
     <row r="7985" spans="1:3">
       <c r="A7985" t="s">
-        <v>2831</v>
+        <v>2828</v>
       </c>
       <c r="B7985" t="s">
-        <v>2622</v>
+        <v>228</v>
       </c>
       <c r="C7985" t="s">
         <v>549</v>
@@ -97528,7 +97519,7 @@
     </row>
     <row r="7986" spans="1:3">
       <c r="A7986" t="s">
-        <v>2831</v>
+        <v>2828</v>
       </c>
       <c r="B7986" t="s">
         <v>91</v>
@@ -97539,7 +97530,7 @@
     </row>
     <row r="7987" spans="1:3">
       <c r="A7987" t="s">
-        <v>2831</v>
+        <v>2828</v>
       </c>
       <c r="B7987" t="s">
         <v>33</v>
@@ -97550,13 +97541,13 @@
     </row>
     <row r="7988" spans="1:3">
       <c r="A7988" t="s">
-        <v>2831</v>
+        <v>2828</v>
       </c>
       <c r="B7988" t="s">
         <v>91</v>
       </c>
       <c r="C7988" t="s">
-        <v>2788</v>
+        <v>2785</v>
       </c>
     </row>
     <row r="7989" spans="1:3">
@@ -97589,7 +97580,7 @@
         <v>5</v>
       </c>
       <c r="C7991" t="s">
-        <v>2832</v>
+        <v>2829</v>
       </c>
     </row>
     <row r="7992" spans="1:3">
@@ -97600,7 +97591,7 @@
         <v>5</v>
       </c>
       <c r="C7992" t="s">
-        <v>2833</v>
+        <v>2830</v>
       </c>
     </row>
     <row r="7993" spans="1:3">
@@ -97611,7 +97602,7 @@
         <v>5</v>
       </c>
       <c r="C7993" t="s">
-        <v>2788</v>
+        <v>2785</v>
       </c>
     </row>
     <row r="7994" spans="1:3">
@@ -97633,7 +97624,7 @@
         <v>5</v>
       </c>
       <c r="C7995" t="s">
-        <v>2834</v>
+        <v>2831</v>
       </c>
     </row>
     <row r="7996" spans="1:3">
@@ -97655,7 +97646,7 @@
         <v>5</v>
       </c>
       <c r="C7997" t="s">
-        <v>2835</v>
+        <v>2832</v>
       </c>
     </row>
     <row r="7998" spans="1:3">
@@ -97693,7 +97684,7 @@
     </row>
     <row r="8001" spans="1:3">
       <c r="A8001" t="s">
-        <v>2631</v>
+        <v>2629</v>
       </c>
       <c r="B8001" t="s">
         <v>5</v>
@@ -97704,7 +97695,7 @@
     </row>
     <row r="8002" spans="1:3">
       <c r="A8002" t="s">
-        <v>2631</v>
+        <v>2629</v>
       </c>
       <c r="B8002" t="s">
         <v>5</v>
@@ -97715,18 +97706,18 @@
     </row>
     <row r="8003" spans="1:3">
       <c r="A8003" t="s">
-        <v>2631</v>
+        <v>2629</v>
       </c>
       <c r="B8003" t="s">
         <v>5</v>
       </c>
       <c r="C8003" t="s">
-        <v>2787</v>
+        <v>2784</v>
       </c>
     </row>
     <row r="8004" spans="1:3">
       <c r="A8004" t="s">
-        <v>2631</v>
+        <v>2629</v>
       </c>
       <c r="B8004" t="s">
         <v>12</v>
@@ -97737,7 +97728,7 @@
     </row>
     <row r="8005" spans="1:3">
       <c r="A8005" t="s">
-        <v>2631</v>
+        <v>2629</v>
       </c>
       <c r="B8005" t="s">
         <v>14</v>
@@ -97748,18 +97739,18 @@
     </row>
     <row r="8006" spans="1:3">
       <c r="A8006" t="s">
-        <v>2631</v>
+        <v>2629</v>
       </c>
       <c r="B8006" t="s">
         <v>9</v>
       </c>
       <c r="C8006" t="s">
-        <v>2746</v>
+        <v>2743</v>
       </c>
     </row>
     <row r="8007" spans="1:3">
       <c r="A8007" t="s">
-        <v>2631</v>
+        <v>2629</v>
       </c>
       <c r="B8007" t="s">
         <v>7</v>
@@ -97770,35 +97761,35 @@
     </row>
     <row r="8008" spans="1:3">
       <c r="A8008" t="s">
-        <v>2631</v>
+        <v>2629</v>
       </c>
       <c r="B8008" t="s">
         <v>11</v>
       </c>
       <c r="C8008" t="s">
-        <v>2680</v>
+        <v>2677</v>
       </c>
     </row>
     <row r="8009" spans="1:3">
       <c r="A8009" t="s">
-        <v>2631</v>
+        <v>2629</v>
       </c>
       <c r="B8009" t="s">
         <v>16</v>
       </c>
       <c r="C8009" t="s">
-        <v>2836</v>
+        <v>2833</v>
       </c>
     </row>
     <row r="8010" spans="1:3">
       <c r="A8010" t="s">
-        <v>2631</v>
+        <v>2629</v>
       </c>
       <c r="B8010" t="s">
         <v>4</v>
       </c>
       <c r="C8010" t="s">
-        <v>2631</v>
+        <v>2629</v>
       </c>
     </row>
     <row r="8011" spans="1:3">
@@ -97820,7 +97811,7 @@
         <v>35</v>
       </c>
       <c r="C8012" t="s">
-        <v>2837</v>
+        <v>2834</v>
       </c>
     </row>
     <row r="8013" spans="1:3">
@@ -97836,18 +97827,18 @@
     </row>
     <row r="8014" spans="1:3">
       <c r="A8014" t="s">
-        <v>2838</v>
+        <v>2835</v>
       </c>
       <c r="B8014" t="s">
         <v>5</v>
       </c>
       <c r="C8014" t="s">
-        <v>2839</v>
+        <v>2836</v>
       </c>
     </row>
     <row r="8015" spans="1:3">
       <c r="A8015" t="s">
-        <v>2838</v>
+        <v>2835</v>
       </c>
       <c r="B8015" t="s">
         <v>5</v>
@@ -97858,7 +97849,7 @@
     </row>
     <row r="8016" spans="1:3">
       <c r="A8016" t="s">
-        <v>2838</v>
+        <v>2835</v>
       </c>
       <c r="B8016" t="s">
         <v>12</v>
@@ -97869,7 +97860,7 @@
     </row>
     <row r="8017" spans="1:3">
       <c r="A8017" t="s">
-        <v>2838</v>
+        <v>2835</v>
       </c>
       <c r="B8017" t="s">
         <v>14</v>
@@ -97880,7 +97871,7 @@
     </row>
     <row r="8018" spans="1:3">
       <c r="A8018" t="s">
-        <v>2838</v>
+        <v>2835</v>
       </c>
       <c r="B8018" t="s">
         <v>9</v>
@@ -97891,7 +97882,7 @@
     </row>
     <row r="8019" spans="1:3">
       <c r="A8019" t="s">
-        <v>2838</v>
+        <v>2835</v>
       </c>
       <c r="B8019" t="s">
         <v>7</v>
@@ -97902,7 +97893,7 @@
     </row>
     <row r="8020" spans="1:3">
       <c r="A8020" t="s">
-        <v>2838</v>
+        <v>2835</v>
       </c>
       <c r="B8020" t="s">
         <v>11</v>
@@ -97913,7 +97904,7 @@
     </row>
     <row r="8021" spans="1:3">
       <c r="A8021" t="s">
-        <v>2838</v>
+        <v>2835</v>
       </c>
       <c r="B8021" t="s">
         <v>16</v>
@@ -97924,7 +97915,7 @@
     </row>
     <row r="8022" spans="1:3">
       <c r="A8022" t="s">
-        <v>2838</v>
+        <v>2835</v>
       </c>
       <c r="B8022" t="s">
         <v>35</v>
@@ -97935,13 +97926,13 @@
     </row>
     <row r="8023" spans="1:3">
       <c r="A8023" t="s">
-        <v>2838</v>
+        <v>2835</v>
       </c>
       <c r="B8023" t="s">
         <v>4</v>
       </c>
       <c r="C8023" t="s">
-        <v>2838</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="8024" spans="1:3">
@@ -97985,7 +97976,7 @@
         <v>35</v>
       </c>
       <c r="C8027" t="s">
-        <v>2840</v>
+        <v>2837</v>
       </c>
     </row>
     <row r="8028" spans="1:3">
@@ -98007,12 +97998,12 @@
         <v>35</v>
       </c>
       <c r="C8029" t="s">
-        <v>2841</v>
+        <v>2838</v>
       </c>
     </row>
     <row r="8030" spans="1:3">
       <c r="A8030" t="s">
-        <v>2842</v>
+        <v>2839</v>
       </c>
       <c r="B8030" t="s">
         <v>115</v>
@@ -98023,7 +98014,7 @@
     </row>
     <row r="8031" spans="1:3">
       <c r="A8031" t="s">
-        <v>2843</v>
+        <v>2840</v>
       </c>
       <c r="B8031" t="s">
         <v>115</v>
@@ -98056,7 +98047,7 @@
     </row>
     <row r="8034" spans="1:3">
       <c r="A8034" t="s">
-        <v>2844</v>
+        <v>2841</v>
       </c>
       <c r="B8034" t="s">
         <v>5</v>
@@ -98067,7 +98058,7 @@
     </row>
     <row r="8035" spans="1:3">
       <c r="A8035" t="s">
-        <v>2844</v>
+        <v>2841</v>
       </c>
       <c r="B8035" t="s">
         <v>12</v>
@@ -98078,7 +98069,7 @@
     </row>
     <row r="8036" spans="1:3">
       <c r="A8036" t="s">
-        <v>2844</v>
+        <v>2841</v>
       </c>
       <c r="B8036" t="s">
         <v>14</v>
@@ -98089,7 +98080,7 @@
     </row>
     <row r="8037" spans="1:3">
       <c r="A8037" t="s">
-        <v>2844</v>
+        <v>2841</v>
       </c>
       <c r="B8037" t="s">
         <v>9</v>
@@ -98100,7 +98091,7 @@
     </row>
     <row r="8038" spans="1:3">
       <c r="A8038" t="s">
-        <v>2844</v>
+        <v>2841</v>
       </c>
       <c r="B8038" t="s">
         <v>7</v>
@@ -98111,7 +98102,7 @@
     </row>
     <row r="8039" spans="1:3">
       <c r="A8039" t="s">
-        <v>2844</v>
+        <v>2841</v>
       </c>
       <c r="B8039" t="s">
         <v>11</v>
@@ -98122,7 +98113,7 @@
     </row>
     <row r="8040" spans="1:3">
       <c r="A8040" t="s">
-        <v>2844</v>
+        <v>2841</v>
       </c>
       <c r="B8040" t="s">
         <v>16</v>
@@ -98133,18 +98124,18 @@
     </row>
     <row r="8041" spans="1:3">
       <c r="A8041" t="s">
-        <v>2844</v>
+        <v>2841</v>
       </c>
       <c r="B8041" t="s">
         <v>4</v>
       </c>
       <c r="C8041" t="s">
-        <v>2844</v>
+        <v>2841</v>
       </c>
     </row>
     <row r="8042" spans="1:3">
       <c r="A8042" t="s">
-        <v>2845</v>
+        <v>2842</v>
       </c>
       <c r="B8042" t="s">
         <v>5</v>
@@ -98155,7 +98146,7 @@
     </row>
     <row r="8043" spans="1:3">
       <c r="A8043" t="s">
-        <v>2845</v>
+        <v>2842</v>
       </c>
       <c r="B8043" t="s">
         <v>12</v>
@@ -98166,7 +98157,7 @@
     </row>
     <row r="8044" spans="1:3">
       <c r="A8044" t="s">
-        <v>2845</v>
+        <v>2842</v>
       </c>
       <c r="B8044" t="s">
         <v>14</v>
@@ -98177,7 +98168,7 @@
     </row>
     <row r="8045" spans="1:3">
       <c r="A8045" t="s">
-        <v>2845</v>
+        <v>2842</v>
       </c>
       <c r="B8045" t="s">
         <v>9</v>
@@ -98188,7 +98179,7 @@
     </row>
     <row r="8046" spans="1:3">
       <c r="A8046" t="s">
-        <v>2845</v>
+        <v>2842</v>
       </c>
       <c r="B8046" t="s">
         <v>7</v>
@@ -98199,7 +98190,7 @@
     </row>
     <row r="8047" spans="1:3">
       <c r="A8047" t="s">
-        <v>2845</v>
+        <v>2842</v>
       </c>
       <c r="B8047" t="s">
         <v>11</v>
@@ -98210,24 +98201,24 @@
     </row>
     <row r="8048" spans="1:3">
       <c r="A8048" t="s">
-        <v>2845</v>
+        <v>2842</v>
       </c>
       <c r="B8048" t="s">
         <v>16</v>
       </c>
       <c r="C8048" t="s">
-        <v>2845</v>
+        <v>2842</v>
       </c>
     </row>
     <row r="8049" spans="1:3">
       <c r="A8049" t="s">
-        <v>2845</v>
+        <v>2842</v>
       </c>
       <c r="B8049" t="s">
         <v>4</v>
       </c>
       <c r="C8049" t="s">
-        <v>2845</v>
+        <v>2842</v>
       </c>
     </row>
     <row r="8050" spans="1:3">
@@ -98238,7 +98229,7 @@
         <v>5</v>
       </c>
       <c r="C8050" t="s">
-        <v>2846</v>
+        <v>2843</v>
       </c>
     </row>
     <row r="8051" spans="1:3">
@@ -98249,7 +98240,7 @@
         <v>5</v>
       </c>
       <c r="C8051" t="s">
-        <v>2847</v>
+        <v>2844</v>
       </c>
     </row>
     <row r="8052" spans="1:3">
@@ -98260,7 +98251,7 @@
         <v>35</v>
       </c>
       <c r="C8052" t="s">
-        <v>2846</v>
+        <v>2843</v>
       </c>
     </row>
     <row r="8053" spans="1:3">
@@ -98271,7 +98262,7 @@
         <v>35</v>
       </c>
       <c r="C8053" t="s">
-        <v>2847</v>
+        <v>2844</v>
       </c>
     </row>
     <row r="8054" spans="1:3">
@@ -98282,7 +98273,7 @@
         <v>5</v>
       </c>
       <c r="C8054" t="s">
-        <v>2848</v>
+        <v>2845</v>
       </c>
     </row>
     <row r="8055" spans="1:3">
@@ -98348,7 +98339,7 @@
         <v>35</v>
       </c>
       <c r="C8060" t="s">
-        <v>2849</v>
+        <v>2846</v>
       </c>
     </row>
     <row r="8061" spans="1:3">
@@ -98386,7 +98377,7 @@
     </row>
     <row r="8064" spans="1:3">
       <c r="A8064" t="s">
-        <v>2652</v>
+        <v>2649</v>
       </c>
       <c r="B8064" t="s">
         <v>12</v>
@@ -98397,7 +98388,7 @@
     </row>
     <row r="8065" spans="1:3">
       <c r="A8065" t="s">
-        <v>2652</v>
+        <v>2649</v>
       </c>
       <c r="B8065" t="s">
         <v>14</v>
@@ -98408,7 +98399,7 @@
     </row>
     <row r="8066" spans="1:3">
       <c r="A8066" t="s">
-        <v>2652</v>
+        <v>2649</v>
       </c>
       <c r="B8066" t="s">
         <v>9</v>
@@ -98419,7 +98410,7 @@
     </row>
     <row r="8067" spans="1:3">
       <c r="A8067" t="s">
-        <v>2652</v>
+        <v>2649</v>
       </c>
       <c r="B8067" t="s">
         <v>7</v>
@@ -98430,35 +98421,35 @@
     </row>
     <row r="8068" spans="1:3">
       <c r="A8068" t="s">
-        <v>2652</v>
+        <v>2649</v>
       </c>
       <c r="B8068" t="s">
         <v>11</v>
       </c>
       <c r="C8068" t="s">
-        <v>2680</v>
+        <v>2677</v>
       </c>
     </row>
     <row r="8069" spans="1:3">
       <c r="A8069" t="s">
-        <v>2652</v>
+        <v>2649</v>
       </c>
       <c r="B8069" t="s">
         <v>16</v>
       </c>
       <c r="C8069" t="s">
-        <v>2850</v>
+        <v>2847</v>
       </c>
     </row>
     <row r="8070" spans="1:3">
       <c r="A8070" t="s">
-        <v>2652</v>
+        <v>2649</v>
       </c>
       <c r="B8070" t="s">
         <v>4</v>
       </c>
       <c r="C8070" t="s">
-        <v>2652</v>
+        <v>2649</v>
       </c>
     </row>
     <row r="8071" spans="1:3">
@@ -98469,7 +98460,7 @@
         <v>9</v>
       </c>
       <c r="C8071" t="s">
-        <v>2746</v>
+        <v>2743</v>
       </c>
     </row>
     <row r="8072" spans="1:3">
@@ -98480,7 +98471,7 @@
         <v>11</v>
       </c>
       <c r="C8072" t="s">
-        <v>2680</v>
+        <v>2677</v>
       </c>
     </row>
     <row r="8073" spans="1:3">
@@ -98507,7 +98498,7 @@
     </row>
     <row r="8075" spans="1:3">
       <c r="A8075" t="s">
-        <v>2851</v>
+        <v>2848</v>
       </c>
       <c r="B8075" t="s">
         <v>91</v>
@@ -98518,18 +98509,18 @@
     </row>
     <row r="8076" spans="1:3">
       <c r="A8076" t="s">
-        <v>2851</v>
+        <v>2848</v>
       </c>
       <c r="B8076" t="s">
         <v>91</v>
       </c>
       <c r="C8076" t="s">
-        <v>2631</v>
+        <v>2629</v>
       </c>
     </row>
     <row r="8077" spans="1:3">
       <c r="A8077" t="s">
-        <v>2851</v>
+        <v>2848</v>
       </c>
       <c r="B8077" t="s">
         <v>91</v>
@@ -98540,7 +98531,7 @@
     </row>
     <row r="8078" spans="1:3">
       <c r="A8078" t="s">
-        <v>2851</v>
+        <v>2848</v>
       </c>
       <c r="B8078" t="s">
         <v>91</v>
@@ -98551,7 +98542,7 @@
     </row>
     <row r="8079" spans="1:3">
       <c r="A8079" t="s">
-        <v>2851</v>
+        <v>2848</v>
       </c>
       <c r="B8079" t="s">
         <v>33</v>
@@ -98595,7 +98586,7 @@
     </row>
     <row r="8083" spans="1:3">
       <c r="A8083" t="s">
-        <v>2852</v>
+        <v>2849</v>
       </c>
       <c r="B8083" t="s">
         <v>5</v>
@@ -98606,18 +98597,18 @@
     </row>
     <row r="8084" spans="1:3">
       <c r="A8084" t="s">
-        <v>2852</v>
+        <v>2849</v>
       </c>
       <c r="B8084" t="s">
         <v>5</v>
       </c>
       <c r="C8084" t="s">
-        <v>2853</v>
+        <v>2850</v>
       </c>
     </row>
     <row r="8085" spans="1:3">
       <c r="A8085" t="s">
-        <v>2852</v>
+        <v>2849</v>
       </c>
       <c r="B8085" t="s">
         <v>5</v>
@@ -98628,7 +98619,7 @@
     </row>
     <row r="8086" spans="1:3">
       <c r="A8086" t="s">
-        <v>2852</v>
+        <v>2849</v>
       </c>
       <c r="B8086" t="s">
         <v>12</v>
@@ -98639,7 +98630,7 @@
     </row>
     <row r="8087" spans="1:3">
       <c r="A8087" t="s">
-        <v>2852</v>
+        <v>2849</v>
       </c>
       <c r="B8087" t="s">
         <v>14</v>
@@ -98650,7 +98641,7 @@
     </row>
     <row r="8088" spans="1:3">
       <c r="A8088" t="s">
-        <v>2852</v>
+        <v>2849</v>
       </c>
       <c r="B8088" t="s">
         <v>9</v>
@@ -98661,7 +98652,7 @@
     </row>
     <row r="8089" spans="1:3">
       <c r="A8089" t="s">
-        <v>2852</v>
+        <v>2849</v>
       </c>
       <c r="B8089" t="s">
         <v>7</v>
@@ -98672,7 +98663,7 @@
     </row>
     <row r="8090" spans="1:3">
       <c r="A8090" t="s">
-        <v>2852</v>
+        <v>2849</v>
       </c>
       <c r="B8090" t="s">
         <v>11</v>
@@ -98683,7 +98674,7 @@
     </row>
     <row r="8091" spans="1:3">
       <c r="A8091" t="s">
-        <v>2852</v>
+        <v>2849</v>
       </c>
       <c r="B8091" t="s">
         <v>16</v>
@@ -98694,7 +98685,7 @@
     </row>
     <row r="8092" spans="1:3">
       <c r="A8092" t="s">
-        <v>2852</v>
+        <v>2849</v>
       </c>
       <c r="B8092" t="s">
         <v>35</v>
@@ -98705,7 +98696,7 @@
     </row>
     <row r="8093" spans="1:3">
       <c r="A8093" t="s">
-        <v>2852</v>
+        <v>2849</v>
       </c>
       <c r="B8093" t="s">
         <v>35</v>
@@ -98716,7 +98707,7 @@
     </row>
     <row r="8094" spans="1:3">
       <c r="A8094" t="s">
-        <v>2852</v>
+        <v>2849</v>
       </c>
       <c r="B8094" t="s">
         <v>35</v>
@@ -98727,18 +98718,18 @@
     </row>
     <row r="8095" spans="1:3">
       <c r="A8095" t="s">
-        <v>2852</v>
+        <v>2849</v>
       </c>
       <c r="B8095" t="s">
         <v>35</v>
       </c>
       <c r="C8095" t="s">
-        <v>2853</v>
+        <v>2850</v>
       </c>
     </row>
     <row r="8096" spans="1:3">
       <c r="A8096" t="s">
-        <v>2852</v>
+        <v>2849</v>
       </c>
       <c r="B8096" t="s">
         <v>35</v>
@@ -98749,13 +98740,13 @@
     </row>
     <row r="8097" spans="1:3">
       <c r="A8097" t="s">
-        <v>2852</v>
+        <v>2849</v>
       </c>
       <c r="B8097" t="s">
         <v>4</v>
       </c>
       <c r="C8097" t="s">
-        <v>2852</v>
+        <v>2849</v>
       </c>
     </row>
     <row r="8098" spans="1:3">
@@ -98766,7 +98757,7 @@
         <v>5</v>
       </c>
       <c r="C8098" t="s">
-        <v>2854</v>
+        <v>2851</v>
       </c>
     </row>
     <row r="8099" spans="1:3">
@@ -98777,7 +98768,7 @@
         <v>5</v>
       </c>
       <c r="C8099" t="s">
-        <v>2705</v>
+        <v>2702</v>
       </c>
     </row>
     <row r="8100" spans="1:3">
@@ -98788,7 +98779,7 @@
         <v>5</v>
       </c>
       <c r="C8100" t="s">
-        <v>2855</v>
+        <v>2852</v>
       </c>
     </row>
     <row r="8101" spans="1:3">
@@ -98799,7 +98790,7 @@
         <v>5</v>
       </c>
       <c r="C8101" t="s">
-        <v>2856</v>
+        <v>2853</v>
       </c>
     </row>
     <row r="8102" spans="1:3">
@@ -98810,7 +98801,7 @@
         <v>9</v>
       </c>
       <c r="C8102" t="s">
-        <v>2746</v>
+        <v>2743</v>
       </c>
     </row>
     <row r="8103" spans="1:3">
@@ -98843,7 +98834,7 @@
         <v>118</v>
       </c>
       <c r="C8105" t="s">
-        <v>2628</v>
+        <v>2627</v>
       </c>
     </row>
     <row r="8106" spans="1:3">
@@ -98854,7 +98845,7 @@
         <v>118</v>
       </c>
       <c r="C8106" t="s">
-        <v>2857</v>
+        <v>2854</v>
       </c>
     </row>
     <row r="8107" spans="1:3">
@@ -98909,7 +98900,7 @@
         <v>302</v>
       </c>
       <c r="C8111" t="s">
-        <v>2631</v>
+        <v>2629</v>
       </c>
     </row>
     <row r="8112" spans="1:3">
@@ -98917,10 +98908,10 @@
         <v>2620</v>
       </c>
       <c r="B8112" t="s">
-        <v>2630</v>
+        <v>306</v>
       </c>
       <c r="C8112" t="s">
-        <v>2788</v>
+        <v>2785</v>
       </c>
     </row>
     <row r="8113" spans="1:3">
@@ -98928,7 +98919,7 @@
         <v>2620</v>
       </c>
       <c r="B8113" t="s">
-        <v>2630</v>
+        <v>306</v>
       </c>
       <c r="C8113" t="s">
         <v>311</v>
@@ -98939,7 +98930,7 @@
         <v>2620</v>
       </c>
       <c r="B8114" t="s">
-        <v>2630</v>
+        <v>306</v>
       </c>
       <c r="C8114" t="s">
         <v>320</v>
@@ -98950,7 +98941,7 @@
         <v>2620</v>
       </c>
       <c r="B8115" t="s">
-        <v>2630</v>
+        <v>306</v>
       </c>
       <c r="C8115" t="s">
         <v>317</v>
@@ -98997,7 +98988,7 @@
         <v>300</v>
       </c>
       <c r="C8119" t="s">
-        <v>2756</v>
+        <v>2753</v>
       </c>
     </row>
     <row r="8120" spans="1:3">
@@ -99052,7 +99043,7 @@
         <v>5</v>
       </c>
       <c r="C8124" t="s">
-        <v>2858</v>
+        <v>2855</v>
       </c>
     </row>
     <row r="8125" spans="1:3">
@@ -99063,7 +99054,7 @@
         <v>5</v>
       </c>
       <c r="C8125" t="s">
-        <v>2859</v>
+        <v>2856</v>
       </c>
     </row>
     <row r="8126" spans="1:3">
@@ -99074,7 +99065,7 @@
         <v>5</v>
       </c>
       <c r="C8126" t="s">
-        <v>2860</v>
+        <v>2857</v>
       </c>
     </row>
     <row r="8127" spans="1:3">
@@ -99085,7 +99076,7 @@
         <v>5</v>
       </c>
       <c r="C8127" t="s">
-        <v>2861</v>
+        <v>2858</v>
       </c>
     </row>
     <row r="8128" spans="1:3">
@@ -99096,7 +99087,7 @@
         <v>11</v>
       </c>
       <c r="C8128" t="s">
-        <v>2862</v>
+        <v>2859</v>
       </c>
     </row>
     <row r="8129" spans="1:3">
@@ -99107,7 +99098,7 @@
         <v>16</v>
       </c>
       <c r="C8129" t="s">
-        <v>2681</v>
+        <v>2678</v>
       </c>
     </row>
     <row r="8130" spans="1:3">
@@ -99118,7 +99109,7 @@
         <v>35</v>
       </c>
       <c r="C8130" t="s">
-        <v>2858</v>
+        <v>2855</v>
       </c>
     </row>
     <row r="8131" spans="1:3">
@@ -99129,7 +99120,7 @@
         <v>35</v>
       </c>
       <c r="C8131" t="s">
-        <v>2859</v>
+        <v>2856</v>
       </c>
     </row>
     <row r="8132" spans="1:3">
@@ -99140,7 +99131,7 @@
         <v>35</v>
       </c>
       <c r="C8132" t="s">
-        <v>2860</v>
+        <v>2857</v>
       </c>
     </row>
     <row r="8133" spans="1:3">
@@ -99151,7 +99142,7 @@
         <v>35</v>
       </c>
       <c r="C8133" t="s">
-        <v>2861</v>
+        <v>2858</v>
       </c>
     </row>
     <row r="8134" spans="1:3">
@@ -99162,7 +99153,7 @@
         <v>4</v>
       </c>
       <c r="C8134" t="s">
-        <v>2632</v>
+        <v>2630</v>
       </c>
     </row>
     <row r="8135" spans="1:3">
@@ -99184,7 +99175,7 @@
         <v>5</v>
       </c>
       <c r="C8136" t="s">
-        <v>2863</v>
+        <v>2860</v>
       </c>
     </row>
     <row r="8137" spans="1:3">
@@ -99195,7 +99186,7 @@
         <v>9</v>
       </c>
       <c r="C8137" t="s">
-        <v>2864</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="8138" spans="1:3">
@@ -99211,7 +99202,7 @@
     </row>
     <row r="8139" spans="1:3">
       <c r="A8139" t="s">
-        <v>2865</v>
+        <v>2862</v>
       </c>
       <c r="B8139" t="s">
         <v>33</v>
@@ -99228,7 +99219,7 @@
         <v>5</v>
       </c>
       <c r="C8140" t="s">
-        <v>2866</v>
+        <v>2863</v>
       </c>
     </row>
     <row r="8141" spans="1:3">
@@ -99239,7 +99230,7 @@
         <v>35</v>
       </c>
       <c r="C8141" t="s">
-        <v>2866</v>
+        <v>2863</v>
       </c>
     </row>
     <row r="8142" spans="1:3">
@@ -99261,7 +99252,7 @@
         <v>5</v>
       </c>
       <c r="C8143" t="s">
-        <v>2867</v>
+        <v>2864</v>
       </c>
     </row>
     <row r="8144" spans="1:3">
@@ -99272,12 +99263,12 @@
         <v>35</v>
       </c>
       <c r="C8144" t="s">
-        <v>2867</v>
+        <v>2864</v>
       </c>
     </row>
     <row r="8145" spans="1:3">
       <c r="A8145" t="s">
-        <v>2868</v>
+        <v>2865</v>
       </c>
       <c r="B8145" t="s">
         <v>11</v>
@@ -99288,7 +99279,7 @@
     </row>
     <row r="8146" spans="1:3">
       <c r="A8146" t="s">
-        <v>2869</v>
+        <v>2866</v>
       </c>
       <c r="B8146" t="s">
         <v>7</v>
@@ -99299,7 +99290,7 @@
     </row>
     <row r="8147" spans="1:3">
       <c r="A8147" t="s">
-        <v>2869</v>
+        <v>2866</v>
       </c>
       <c r="B8147" t="s">
         <v>9</v>
@@ -99310,7 +99301,7 @@
     </row>
     <row r="8148" spans="1:3">
       <c r="A8148" t="s">
-        <v>2869</v>
+        <v>2866</v>
       </c>
       <c r="B8148" t="s">
         <v>16</v>
@@ -99321,18 +99312,18 @@
     </row>
     <row r="8149" spans="1:3">
       <c r="A8149" t="s">
-        <v>2869</v>
+        <v>2866</v>
       </c>
       <c r="B8149" t="s">
         <v>4</v>
       </c>
       <c r="C8149" t="s">
-        <v>2869</v>
+        <v>2866</v>
       </c>
     </row>
     <row r="8150" spans="1:3">
       <c r="A8150" t="s">
-        <v>2869</v>
+        <v>2866</v>
       </c>
       <c r="B8150" t="s">
         <v>12</v>
@@ -99343,7 +99334,7 @@
     </row>
     <row r="8151" spans="1:3">
       <c r="A8151" t="s">
-        <v>2869</v>
+        <v>2866</v>
       </c>
       <c r="B8151" t="s">
         <v>11</v>
@@ -99354,7 +99345,7 @@
     </row>
     <row r="8152" spans="1:3">
       <c r="A8152" t="s">
-        <v>2869</v>
+        <v>2866</v>
       </c>
       <c r="B8152" t="s">
         <v>35</v>
@@ -99365,7 +99356,7 @@
     </row>
     <row r="8153" spans="1:3">
       <c r="A8153" t="s">
-        <v>2869</v>
+        <v>2866</v>
       </c>
       <c r="B8153" t="s">
         <v>14</v>
@@ -99409,7 +99400,7 @@
     </row>
     <row r="8157" spans="1:3">
       <c r="A8157" t="s">
-        <v>2870</v>
+        <v>2867</v>
       </c>
       <c r="B8157" t="s">
         <v>91</v>
@@ -99420,7 +99411,7 @@
     </row>
     <row r="8158" spans="1:3">
       <c r="A8158" t="s">
-        <v>2870</v>
+        <v>2867</v>
       </c>
       <c r="B8158" t="s">
         <v>91</v>
@@ -99431,7 +99422,7 @@
     </row>
     <row r="8159" spans="1:3">
       <c r="A8159" t="s">
-        <v>2870</v>
+        <v>2867</v>
       </c>
       <c r="B8159" t="s">
         <v>91</v>
@@ -99442,18 +99433,18 @@
     </row>
     <row r="8160" spans="1:3">
       <c r="A8160" t="s">
-        <v>2870</v>
+        <v>2867</v>
       </c>
       <c r="B8160" t="s">
         <v>91</v>
       </c>
       <c r="C8160" t="s">
-        <v>2871</v>
+        <v>2868</v>
       </c>
     </row>
     <row r="8161" spans="1:3">
       <c r="A8161" t="s">
-        <v>2870</v>
+        <v>2867</v>
       </c>
       <c r="B8161" t="s">
         <v>91</v>
@@ -99464,29 +99455,29 @@
     </row>
     <row r="8162" spans="1:3">
       <c r="A8162" t="s">
-        <v>2870</v>
+        <v>2867</v>
       </c>
       <c r="B8162" t="s">
         <v>91</v>
       </c>
       <c r="C8162" t="s">
-        <v>2667</v>
+        <v>2664</v>
       </c>
     </row>
     <row r="8163" spans="1:3">
       <c r="A8163" t="s">
-        <v>2870</v>
+        <v>2867</v>
       </c>
       <c r="B8163" t="s">
         <v>91</v>
       </c>
       <c r="C8163" t="s">
-        <v>2872</v>
+        <v>2869</v>
       </c>
     </row>
     <row r="8164" spans="1:3">
       <c r="A8164" t="s">
-        <v>2870</v>
+        <v>2867</v>
       </c>
       <c r="B8164" t="s">
         <v>33</v>
@@ -99497,7 +99488,7 @@
     </row>
     <row r="8165" spans="1:3">
       <c r="A8165" t="s">
-        <v>2870</v>
+        <v>2867</v>
       </c>
       <c r="B8165" t="s">
         <v>91</v>
@@ -99508,13 +99499,13 @@
     </row>
     <row r="8166" spans="1:3">
       <c r="A8166" t="s">
-        <v>2870</v>
+        <v>2867</v>
       </c>
       <c r="B8166" t="s">
         <v>91</v>
       </c>
       <c r="C8166" t="s">
-        <v>2873</v>
+        <v>2870</v>
       </c>
     </row>
     <row r="8167" spans="1:3">
@@ -99525,12 +99516,12 @@
         <v>7</v>
       </c>
       <c r="C8167" t="s">
-        <v>2738</v>
+        <v>2735</v>
       </c>
     </row>
     <row r="8168" spans="1:3">
       <c r="A8168" t="s">
-        <v>2874</v>
+        <v>2871</v>
       </c>
       <c r="B8168" t="s">
         <v>24</v>
@@ -99541,7 +99532,7 @@
     </row>
     <row r="8169" spans="1:3">
       <c r="A8169" t="s">
-        <v>2734</v>
+        <v>2731</v>
       </c>
       <c r="B8169" t="s">
         <v>7</v>
@@ -99552,7 +99543,7 @@
     </row>
     <row r="8170" spans="1:3">
       <c r="A8170" t="s">
-        <v>2734</v>
+        <v>2731</v>
       </c>
       <c r="B8170" t="s">
         <v>9</v>
@@ -99563,7 +99554,7 @@
     </row>
     <row r="8171" spans="1:3">
       <c r="A8171" t="s">
-        <v>2734</v>
+        <v>2731</v>
       </c>
       <c r="B8171" t="s">
         <v>11</v>
@@ -99574,18 +99565,18 @@
     </row>
     <row r="8172" spans="1:3">
       <c r="A8172" t="s">
-        <v>2734</v>
+        <v>2731</v>
       </c>
       <c r="B8172" t="s">
         <v>4</v>
       </c>
       <c r="C8172" t="s">
-        <v>2734</v>
+        <v>2731</v>
       </c>
     </row>
     <row r="8173" spans="1:3">
       <c r="A8173" t="s">
-        <v>2734</v>
+        <v>2731</v>
       </c>
       <c r="B8173" t="s">
         <v>16</v>
@@ -99596,7 +99587,7 @@
     </row>
     <row r="8174" spans="1:3">
       <c r="A8174" t="s">
-        <v>2734</v>
+        <v>2731</v>
       </c>
       <c r="B8174" t="s">
         <v>12</v>
@@ -99607,7 +99598,7 @@
     </row>
     <row r="8175" spans="1:3">
       <c r="A8175" t="s">
-        <v>2734</v>
+        <v>2731</v>
       </c>
       <c r="B8175" t="s">
         <v>14</v>
@@ -99624,7 +99615,7 @@
         <v>33</v>
       </c>
       <c r="C8176" t="s">
-        <v>2734</v>
+        <v>2731</v>
       </c>
     </row>
     <row r="8177" spans="1:3">
@@ -99635,7 +99626,7 @@
         <v>91</v>
       </c>
       <c r="C8177" t="s">
-        <v>2739</v>
+        <v>2736</v>
       </c>
     </row>
     <row r="8178" spans="1:3">
@@ -99646,12 +99637,12 @@
         <v>91</v>
       </c>
       <c r="C8178" t="s">
-        <v>2875</v>
+        <v>2872</v>
       </c>
     </row>
     <row r="8179" spans="1:3">
       <c r="A8179" t="s">
-        <v>2656</v>
+        <v>2653</v>
       </c>
       <c r="B8179" t="s">
         <v>115</v>
@@ -99679,7 +99670,7 @@
         <v>308</v>
       </c>
       <c r="C8181" t="s">
-        <v>2631</v>
+        <v>2629</v>
       </c>
     </row>
     <row r="8182" spans="1:3">
@@ -99709,7 +99700,7 @@
         <v>229</v>
       </c>
       <c r="B8184" t="s">
-        <v>2630</v>
+        <v>306</v>
       </c>
       <c r="C8184" t="s">
         <v>808</v>
@@ -99720,7 +99711,7 @@
         <v>229</v>
       </c>
       <c r="B8185" t="s">
-        <v>2630</v>
+        <v>306</v>
       </c>
       <c r="C8185" t="s">
         <v>418</v>
@@ -99778,7 +99769,7 @@
         <v>302</v>
       </c>
       <c r="C8190" t="s">
-        <v>2631</v>
+        <v>2629</v>
       </c>
     </row>
     <row r="8191" spans="1:3">
@@ -99786,10 +99777,10 @@
         <v>229</v>
       </c>
       <c r="B8191" t="s">
-        <v>2630</v>
+        <v>306</v>
       </c>
       <c r="C8191" t="s">
-        <v>2876</v>
+        <v>2873</v>
       </c>
     </row>
     <row r="8192" spans="1:3">
@@ -99797,7 +99788,7 @@
         <v>229</v>
       </c>
       <c r="B8192" t="s">
-        <v>2630</v>
+        <v>306</v>
       </c>
       <c r="C8192" t="s">
         <v>270</v>
@@ -99808,7 +99799,7 @@
         <v>229</v>
       </c>
       <c r="B8193" t="s">
-        <v>2630</v>
+        <v>306</v>
       </c>
       <c r="C8193" t="s">
         <v>314</v>
@@ -99819,7 +99810,7 @@
         <v>229</v>
       </c>
       <c r="B8194" t="s">
-        <v>2630</v>
+        <v>306</v>
       </c>
       <c r="C8194" t="s">
         <v>1265</v>
@@ -99833,7 +99824,7 @@
         <v>302</v>
       </c>
       <c r="C8195" t="s">
-        <v>2628</v>
+        <v>2627</v>
       </c>
     </row>
     <row r="8196" spans="1:3">
@@ -99841,7 +99832,7 @@
         <v>229</v>
       </c>
       <c r="B8196" t="s">
-        <v>2630</v>
+        <v>306</v>
       </c>
       <c r="C8196" t="s">
         <v>320</v>
@@ -99852,7 +99843,7 @@
         <v>417</v>
       </c>
       <c r="B8197" t="s">
-        <v>2622</v>
+        <v>228</v>
       </c>
       <c r="C8197" t="s">
         <v>229</v>
@@ -99871,7 +99862,7 @@
     </row>
     <row r="8199" spans="1:3">
       <c r="A8199" t="s">
-        <v>2648</v>
+        <v>2646</v>
       </c>
       <c r="B8199" t="s">
         <v>118</v>
@@ -99904,10 +99895,10 @@
     </row>
     <row r="8202" spans="1:3">
       <c r="A8202" t="s">
-        <v>2665</v>
+        <v>2662</v>
       </c>
       <c r="B8202" t="s">
-        <v>2622</v>
+        <v>228</v>
       </c>
       <c r="C8202" t="s">
         <v>229</v>
@@ -99918,7 +99909,7 @@
         <v>1990</v>
       </c>
       <c r="B8203" t="s">
-        <v>2622</v>
+        <v>228</v>
       </c>
       <c r="C8203" t="s">
         <v>229</v>
@@ -99926,7 +99917,7 @@
     </row>
     <row r="8204" spans="1:3">
       <c r="A8204" t="s">
-        <v>2877</v>
+        <v>2874</v>
       </c>
       <c r="B8204" t="s">
         <v>24</v>
@@ -99937,7 +99928,7 @@
     </row>
     <row r="8205" spans="1:3">
       <c r="A8205" t="s">
-        <v>2878</v>
+        <v>2875</v>
       </c>
       <c r="B8205" t="s">
         <v>118</v>
@@ -99948,7 +99939,7 @@
     </row>
     <row r="8206" spans="1:3">
       <c r="A8206" t="s">
-        <v>2879</v>
+        <v>2876</v>
       </c>
       <c r="B8206" t="s">
         <v>118</v>
@@ -99959,10 +99950,10 @@
     </row>
     <row r="8207" spans="1:3">
       <c r="A8207" t="s">
-        <v>2880</v>
+        <v>2877</v>
       </c>
       <c r="B8207" t="s">
-        <v>2622</v>
+        <v>228</v>
       </c>
       <c r="C8207" t="s">
         <v>229</v>
@@ -99970,7 +99961,7 @@
     </row>
     <row r="8208" spans="1:3">
       <c r="A8208" t="s">
-        <v>2880</v>
+        <v>2877</v>
       </c>
       <c r="B8208" t="s">
         <v>118</v>
@@ -99984,7 +99975,7 @@
         <v>230</v>
       </c>
       <c r="B8209" t="s">
-        <v>2622</v>
+        <v>228</v>
       </c>
       <c r="C8209" t="s">
         <v>229</v>
@@ -100003,7 +99994,7 @@
     </row>
     <row r="8211" spans="1:3">
       <c r="A8211" t="s">
-        <v>2881</v>
+        <v>2878</v>
       </c>
       <c r="B8211" t="s">
         <v>24</v>
@@ -100017,7 +100008,7 @@
         <v>1041</v>
       </c>
       <c r="B8212" t="s">
-        <v>2622</v>
+        <v>228</v>
       </c>
       <c r="C8212" t="s">
         <v>229</v>
@@ -100025,7 +100016,7 @@
     </row>
     <row r="8213" spans="1:3">
       <c r="A8213" t="s">
-        <v>2882</v>
+        <v>2879</v>
       </c>
       <c r="B8213" t="s">
         <v>24</v>
@@ -100039,7 +100030,7 @@
         <v>1961</v>
       </c>
       <c r="B8214" t="s">
-        <v>2622</v>
+        <v>228</v>
       </c>
       <c r="C8214" t="s">
         <v>229</v>
@@ -100047,7 +100038,7 @@
     </row>
     <row r="8215" spans="1:3">
       <c r="A8215" t="s">
-        <v>2883</v>
+        <v>2880</v>
       </c>
       <c r="B8215" t="s">
         <v>24</v>
@@ -100058,7 +100049,7 @@
     </row>
     <row r="8216" spans="1:3">
       <c r="A8216" t="s">
-        <v>2884</v>
+        <v>2881</v>
       </c>
       <c r="B8216" t="s">
         <v>24</v>
@@ -100069,7 +100060,7 @@
     </row>
     <row r="8217" spans="1:3">
       <c r="A8217" t="s">
-        <v>2885</v>
+        <v>2882</v>
       </c>
       <c r="B8217" t="s">
         <v>118</v>
@@ -100080,7 +100071,7 @@
     </row>
     <row r="8218" spans="1:3">
       <c r="A8218" t="s">
-        <v>2673</v>
+        <v>2670</v>
       </c>
       <c r="B8218" t="s">
         <v>24</v>
@@ -100091,18 +100082,18 @@
     </row>
     <row r="8219" spans="1:3">
       <c r="A8219" t="s">
-        <v>2636</v>
+        <v>2634</v>
       </c>
       <c r="B8219" t="s">
         <v>33</v>
       </c>
       <c r="C8219" t="s">
-        <v>2651</v>
+        <v>2648</v>
       </c>
     </row>
     <row r="8220" spans="1:3">
       <c r="A8220" t="s">
-        <v>2636</v>
+        <v>2634</v>
       </c>
       <c r="B8220" t="s">
         <v>33</v>
@@ -100113,18 +100104,18 @@
     </row>
     <row r="8221" spans="1:3">
       <c r="A8221" t="s">
-        <v>2636</v>
+        <v>2634</v>
       </c>
       <c r="B8221" t="s">
         <v>91</v>
       </c>
       <c r="C8221" t="s">
-        <v>2634</v>
+        <v>2632</v>
       </c>
     </row>
     <row r="8222" spans="1:3">
       <c r="A8222" t="s">
-        <v>2636</v>
+        <v>2634</v>
       </c>
       <c r="B8222" t="s">
         <v>91</v>
@@ -100135,7 +100126,7 @@
     </row>
     <row r="8223" spans="1:3">
       <c r="A8223" t="s">
-        <v>2636</v>
+        <v>2634</v>
       </c>
       <c r="B8223" t="s">
         <v>33</v>
@@ -100146,7 +100137,7 @@
     </row>
     <row r="8224" spans="1:3">
       <c r="A8224" t="s">
-        <v>2636</v>
+        <v>2634</v>
       </c>
       <c r="B8224" t="s">
         <v>118</v>
@@ -100157,18 +100148,18 @@
     </row>
     <row r="8225" spans="1:3">
       <c r="A8225" t="s">
-        <v>2636</v>
+        <v>2634</v>
       </c>
       <c r="B8225" t="s">
         <v>118</v>
       </c>
       <c r="C8225" t="s">
-        <v>2623</v>
+        <v>2622</v>
       </c>
     </row>
     <row r="8226" spans="1:3">
       <c r="A8226" t="s">
-        <v>2636</v>
+        <v>2634</v>
       </c>
       <c r="B8226" t="s">
         <v>118</v>
@@ -100179,7 +100170,7 @@
     </row>
     <row r="8227" spans="1:3">
       <c r="A8227" t="s">
-        <v>2636</v>
+        <v>2634</v>
       </c>
       <c r="B8227" t="s">
         <v>118</v>
@@ -100190,7 +100181,7 @@
     </row>
     <row r="8228" spans="1:3">
       <c r="A8228" t="s">
-        <v>2636</v>
+        <v>2634</v>
       </c>
       <c r="B8228" t="s">
         <v>118</v>
@@ -100207,7 +100198,7 @@
         <v>91</v>
       </c>
       <c r="C8229" t="s">
-        <v>2886</v>
+        <v>2883</v>
       </c>
     </row>
     <row r="8230" spans="1:3">
@@ -100218,12 +100209,12 @@
         <v>9</v>
       </c>
       <c r="C8230" t="s">
-        <v>2694</v>
+        <v>2691</v>
       </c>
     </row>
     <row r="8231" spans="1:3">
       <c r="A8231" t="s">
-        <v>2655</v>
+        <v>2652</v>
       </c>
       <c r="B8231" t="s">
         <v>33</v>
@@ -100234,7 +100225,7 @@
     </row>
     <row r="8232" spans="1:3">
       <c r="A8232" t="s">
-        <v>2732</v>
+        <v>2729</v>
       </c>
       <c r="B8232" t="s">
         <v>7</v>
@@ -100245,18 +100236,18 @@
     </row>
     <row r="8233" spans="1:3">
       <c r="A8233" t="s">
-        <v>2732</v>
+        <v>2729</v>
       </c>
       <c r="B8233" t="s">
         <v>4</v>
       </c>
       <c r="C8233" t="s">
-        <v>2732</v>
+        <v>2729</v>
       </c>
     </row>
     <row r="8234" spans="1:3">
       <c r="A8234" t="s">
-        <v>2732</v>
+        <v>2729</v>
       </c>
       <c r="B8234" t="s">
         <v>11</v>
@@ -100267,7 +100258,7 @@
     </row>
     <row r="8235" spans="1:3">
       <c r="A8235" t="s">
-        <v>2732</v>
+        <v>2729</v>
       </c>
       <c r="B8235" t="s">
         <v>12</v>
@@ -100278,7 +100269,7 @@
     </row>
     <row r="8236" spans="1:3">
       <c r="A8236" t="s">
-        <v>2732</v>
+        <v>2729</v>
       </c>
       <c r="B8236" t="s">
         <v>9</v>
@@ -100289,7 +100280,7 @@
     </row>
     <row r="8237" spans="1:3">
       <c r="A8237" t="s">
-        <v>2732</v>
+        <v>2729</v>
       </c>
       <c r="B8237" t="s">
         <v>16</v>
@@ -100300,7 +100291,7 @@
     </row>
     <row r="8238" spans="1:3">
       <c r="A8238" t="s">
-        <v>2732</v>
+        <v>2729</v>
       </c>
       <c r="B8238" t="s">
         <v>35</v>
@@ -100311,7 +100302,7 @@
     </row>
     <row r="8239" spans="1:3">
       <c r="A8239" t="s">
-        <v>2732</v>
+        <v>2729</v>
       </c>
       <c r="B8239" t="s">
         <v>14</v>
@@ -100339,7 +100330,7 @@
         <v>308</v>
       </c>
       <c r="C8241" t="s">
-        <v>2838</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="8242" spans="1:3">
@@ -100347,7 +100338,7 @@
         <v>119</v>
       </c>
       <c r="B8242" t="s">
-        <v>2630</v>
+        <v>306</v>
       </c>
       <c r="C8242" t="s">
         <v>303</v>
@@ -100358,10 +100349,10 @@
         <v>119</v>
       </c>
       <c r="B8243" t="s">
-        <v>2630</v>
+        <v>306</v>
       </c>
       <c r="C8243" t="s">
-        <v>2631</v>
+        <v>2629</v>
       </c>
     </row>
     <row r="8244" spans="1:3">
@@ -100402,7 +100393,7 @@
         <v>119</v>
       </c>
       <c r="B8247" t="s">
-        <v>2630</v>
+        <v>306</v>
       </c>
       <c r="C8247" t="s">
         <v>317</v>
@@ -100416,7 +100407,7 @@
         <v>118</v>
       </c>
       <c r="C8248" t="s">
-        <v>2628</v>
+        <v>2627</v>
       </c>
     </row>
     <row r="8249" spans="1:3">
@@ -100424,7 +100415,7 @@
         <v>119</v>
       </c>
       <c r="B8249" t="s">
-        <v>2630</v>
+        <v>306</v>
       </c>
       <c r="C8249" t="s">
         <v>389</v>
@@ -100438,7 +100429,7 @@
         <v>302</v>
       </c>
       <c r="C8250" t="s">
-        <v>2632</v>
+        <v>2630</v>
       </c>
     </row>
     <row r="8251" spans="1:3">
@@ -100446,7 +100437,7 @@
         <v>119</v>
       </c>
       <c r="B8251" t="s">
-        <v>2630</v>
+        <v>306</v>
       </c>
       <c r="C8251" t="s">
         <v>320</v>
@@ -100460,7 +100451,7 @@
         <v>5</v>
       </c>
       <c r="C8252" t="s">
-        <v>2887</v>
+        <v>2884</v>
       </c>
     </row>
     <row r="8253" spans="1:3">
@@ -100471,7 +100462,7 @@
         <v>5</v>
       </c>
       <c r="C8253" t="s">
-        <v>2888</v>
+        <v>2885</v>
       </c>
     </row>
     <row r="8254" spans="1:3">
@@ -100482,7 +100473,7 @@
         <v>12</v>
       </c>
       <c r="C8254" t="s">
-        <v>2693</v>
+        <v>2690</v>
       </c>
     </row>
     <row r="8255" spans="1:3">
@@ -100504,12 +100495,12 @@
         <v>118</v>
       </c>
       <c r="C8256" t="s">
-        <v>2627</v>
+        <v>2626</v>
       </c>
     </row>
     <row r="8257" spans="1:3">
       <c r="A8257" t="s">
-        <v>2889</v>
+        <v>2886</v>
       </c>
       <c r="B8257" t="s">
         <v>7</v>
@@ -100520,7 +100511,7 @@
     </row>
     <row r="8258" spans="1:3">
       <c r="A8258" t="s">
-        <v>2889</v>
+        <v>2886</v>
       </c>
       <c r="B8258" t="s">
         <v>9</v>
@@ -100531,7 +100522,7 @@
     </row>
     <row r="8259" spans="1:3">
       <c r="A8259" t="s">
-        <v>2889</v>
+        <v>2886</v>
       </c>
       <c r="B8259" t="s">
         <v>11</v>
@@ -100542,18 +100533,18 @@
     </row>
     <row r="8260" spans="1:3">
       <c r="A8260" t="s">
-        <v>2889</v>
+        <v>2886</v>
       </c>
       <c r="B8260" t="s">
         <v>16</v>
       </c>
       <c r="C8260" t="s">
-        <v>2890</v>
+        <v>2887</v>
       </c>
     </row>
     <row r="8261" spans="1:3">
       <c r="A8261" t="s">
-        <v>2889</v>
+        <v>2886</v>
       </c>
       <c r="B8261" t="s">
         <v>12</v>
@@ -100564,18 +100555,18 @@
     </row>
     <row r="8262" spans="1:3">
       <c r="A8262" t="s">
-        <v>2889</v>
+        <v>2886</v>
       </c>
       <c r="B8262" t="s">
         <v>4</v>
       </c>
       <c r="C8262" t="s">
-        <v>2889</v>
+        <v>2886</v>
       </c>
     </row>
     <row r="8263" spans="1:3">
       <c r="A8263" t="s">
-        <v>2889</v>
+        <v>2886</v>
       </c>
       <c r="B8263" t="s">
         <v>14</v>
@@ -100592,7 +100583,7 @@
         <v>35</v>
       </c>
       <c r="C8264" t="s">
-        <v>2891</v>
+        <v>2888</v>
       </c>
     </row>
     <row r="8265" spans="1:3">
@@ -100625,7 +100616,7 @@
         <v>5</v>
       </c>
       <c r="C8267" t="s">
-        <v>2892</v>
+        <v>2889</v>
       </c>
     </row>
     <row r="8268" spans="1:3">
@@ -100878,7 +100869,7 @@
         <v>5</v>
       </c>
       <c r="C8290" t="s">
-        <v>2893</v>
+        <v>2890</v>
       </c>
     </row>
     <row r="8291" spans="1:3">
@@ -100916,18 +100907,18 @@
     </row>
     <row r="8294" spans="1:3">
       <c r="A8294" t="s">
-        <v>2659</v>
+        <v>2656</v>
       </c>
       <c r="B8294" t="s">
         <v>91</v>
       </c>
       <c r="C8294" t="s">
-        <v>2631</v>
+        <v>2629</v>
       </c>
     </row>
     <row r="8295" spans="1:3">
       <c r="A8295" t="s">
-        <v>2659</v>
+        <v>2656</v>
       </c>
       <c r="B8295" t="s">
         <v>91</v>
@@ -100938,18 +100929,18 @@
     </row>
     <row r="8296" spans="1:3">
       <c r="A8296" t="s">
-        <v>2659</v>
+        <v>2656</v>
       </c>
       <c r="B8296" t="s">
         <v>91</v>
       </c>
       <c r="C8296" t="s">
-        <v>2894</v>
+        <v>2891</v>
       </c>
     </row>
     <row r="8297" spans="1:3">
       <c r="A8297" t="s">
-        <v>2659</v>
+        <v>2656</v>
       </c>
       <c r="B8297" t="s">
         <v>33</v>
@@ -100960,29 +100951,29 @@
     </row>
     <row r="8298" spans="1:3">
       <c r="A8298" t="s">
-        <v>2659</v>
+        <v>2656</v>
       </c>
       <c r="B8298" t="s">
         <v>91</v>
       </c>
       <c r="C8298" t="s">
-        <v>2871</v>
+        <v>2868</v>
       </c>
     </row>
     <row r="8299" spans="1:3">
       <c r="A8299" t="s">
-        <v>2659</v>
+        <v>2656</v>
       </c>
       <c r="B8299" t="s">
         <v>91</v>
       </c>
       <c r="C8299" t="s">
-        <v>2872</v>
+        <v>2869</v>
       </c>
     </row>
     <row r="8300" spans="1:3">
       <c r="A8300" t="s">
-        <v>2659</v>
+        <v>2656</v>
       </c>
       <c r="B8300" t="s">
         <v>91</v>
@@ -100993,7 +100984,7 @@
     </row>
     <row r="8301" spans="1:3">
       <c r="A8301" t="s">
-        <v>2659</v>
+        <v>2656</v>
       </c>
       <c r="B8301" t="s">
         <v>91</v>
@@ -101051,7 +101042,7 @@
         <v>987</v>
       </c>
       <c r="B8306" t="s">
-        <v>2622</v>
+        <v>228</v>
       </c>
       <c r="C8306" t="s">
         <v>2620</v>
@@ -101065,7 +101056,7 @@
         <v>33</v>
       </c>
       <c r="C8307" t="s">
-        <v>2829</v>
+        <v>2826</v>
       </c>
     </row>
     <row r="8308" spans="1:3">
@@ -101084,7 +101075,7 @@
         <v>987</v>
       </c>
       <c r="B8309" t="s">
-        <v>2622</v>
+        <v>228</v>
       </c>
       <c r="C8309" t="s">
         <v>229</v>
@@ -101098,7 +101089,7 @@
         <v>33</v>
       </c>
       <c r="C8310" t="s">
-        <v>2788</v>
+        <v>2785</v>
       </c>
     </row>
     <row r="8311" spans="1:3">
@@ -101202,18 +101193,18 @@
     </row>
     <row r="8320" spans="1:3">
       <c r="A8320" t="s">
-        <v>2871</v>
+        <v>2868</v>
       </c>
       <c r="B8320" t="s">
         <v>5</v>
       </c>
       <c r="C8320" t="s">
-        <v>2895</v>
+        <v>2892</v>
       </c>
     </row>
     <row r="8321" spans="1:3">
       <c r="A8321" t="s">
-        <v>2871</v>
+        <v>2868</v>
       </c>
       <c r="B8321" t="s">
         <v>9</v>
@@ -101224,7 +101215,7 @@
     </row>
     <row r="8322" spans="1:3">
       <c r="A8322" t="s">
-        <v>2871</v>
+        <v>2868</v>
       </c>
       <c r="B8322" t="s">
         <v>11</v>
@@ -101235,29 +101226,29 @@
     </row>
     <row r="8323" spans="1:3">
       <c r="A8323" t="s">
-        <v>2871</v>
+        <v>2868</v>
       </c>
       <c r="B8323" t="s">
         <v>7</v>
       </c>
       <c r="C8323" t="s">
-        <v>2738</v>
+        <v>2735</v>
       </c>
     </row>
     <row r="8324" spans="1:3">
       <c r="A8324" t="s">
-        <v>2871</v>
+        <v>2868</v>
       </c>
       <c r="B8324" t="s">
         <v>4</v>
       </c>
       <c r="C8324" t="s">
-        <v>2871</v>
+        <v>2868</v>
       </c>
     </row>
     <row r="8325" spans="1:3">
       <c r="A8325" t="s">
-        <v>2871</v>
+        <v>2868</v>
       </c>
       <c r="B8325" t="s">
         <v>16</v>
@@ -101268,7 +101259,7 @@
     </row>
     <row r="8326" spans="1:3">
       <c r="A8326" t="s">
-        <v>2871</v>
+        <v>2868</v>
       </c>
       <c r="B8326" t="s">
         <v>12</v>
@@ -101279,7 +101270,7 @@
     </row>
     <row r="8327" spans="1:3">
       <c r="A8327" t="s">
-        <v>2871</v>
+        <v>2868</v>
       </c>
       <c r="B8327" t="s">
         <v>5</v>
@@ -101290,7 +101281,7 @@
     </row>
     <row r="8328" spans="1:3">
       <c r="A8328" t="s">
-        <v>2871</v>
+        <v>2868</v>
       </c>
       <c r="B8328" t="s">
         <v>14</v>
@@ -101301,7 +101292,7 @@
     </row>
     <row r="8329" spans="1:3">
       <c r="A8329" t="s">
-        <v>2871</v>
+        <v>2868</v>
       </c>
       <c r="B8329" t="s">
         <v>5</v>
@@ -101318,7 +101309,7 @@
         <v>33</v>
       </c>
       <c r="C8330" t="s">
-        <v>2871</v>
+        <v>2868</v>
       </c>
     </row>
     <row r="8331" spans="1:3">
@@ -101329,7 +101320,7 @@
         <v>91</v>
       </c>
       <c r="C8331" t="s">
-        <v>2628</v>
+        <v>2627</v>
       </c>
     </row>
     <row r="8332" spans="1:3">
@@ -101340,7 +101331,7 @@
         <v>33</v>
       </c>
       <c r="C8332" t="s">
-        <v>2896</v>
+        <v>2893</v>
       </c>
     </row>
     <row r="8333" spans="1:3">
@@ -101373,12 +101364,12 @@
         <v>35</v>
       </c>
       <c r="C8335" t="s">
-        <v>2897</v>
+        <v>2894</v>
       </c>
     </row>
     <row r="8336" spans="1:3">
       <c r="A8336" t="s">
-        <v>2651</v>
+        <v>2648</v>
       </c>
       <c r="B8336" t="s">
         <v>7</v>
@@ -101389,29 +101380,29 @@
     </row>
     <row r="8337" spans="1:3">
       <c r="A8337" t="s">
-        <v>2651</v>
+        <v>2648</v>
       </c>
       <c r="B8337" t="s">
         <v>4</v>
       </c>
       <c r="C8337" t="s">
-        <v>2651</v>
+        <v>2648</v>
       </c>
     </row>
     <row r="8338" spans="1:3">
       <c r="A8338" t="s">
-        <v>2651</v>
+        <v>2648</v>
       </c>
       <c r="B8338" t="s">
         <v>16</v>
       </c>
       <c r="C8338" t="s">
-        <v>2897</v>
+        <v>2894</v>
       </c>
     </row>
     <row r="8339" spans="1:3">
       <c r="A8339" t="s">
-        <v>2651</v>
+        <v>2648</v>
       </c>
       <c r="B8339" t="s">
         <v>12</v>
@@ -101422,7 +101413,7 @@
     </row>
     <row r="8340" spans="1:3">
       <c r="A8340" t="s">
-        <v>2651</v>
+        <v>2648</v>
       </c>
       <c r="B8340" t="s">
         <v>11</v>
@@ -101433,7 +101424,7 @@
     </row>
     <row r="8341" spans="1:3">
       <c r="A8341" t="s">
-        <v>2651</v>
+        <v>2648</v>
       </c>
       <c r="B8341" t="s">
         <v>9</v>
@@ -101444,7 +101435,7 @@
     </row>
     <row r="8342" spans="1:3">
       <c r="A8342" t="s">
-        <v>2651</v>
+        <v>2648</v>
       </c>
       <c r="B8342" t="s">
         <v>14</v>
@@ -101455,18 +101446,18 @@
     </row>
     <row r="8343" spans="1:3">
       <c r="A8343" t="s">
-        <v>2842</v>
+        <v>2839</v>
       </c>
       <c r="B8343" t="s">
         <v>33</v>
       </c>
       <c r="C8343" t="s">
-        <v>2651</v>
+        <v>2648</v>
       </c>
     </row>
     <row r="8344" spans="1:3">
       <c r="A8344" t="s">
-        <v>2842</v>
+        <v>2839</v>
       </c>
       <c r="B8344" t="s">
         <v>115</v>
@@ -101477,7 +101468,7 @@
     </row>
     <row r="8345" spans="1:3">
       <c r="A8345" t="s">
-        <v>2842</v>
+        <v>2839</v>
       </c>
       <c r="B8345" t="s">
         <v>260</v>
@@ -101488,7 +101479,7 @@
     </row>
     <row r="8346" spans="1:3">
       <c r="A8346" t="s">
-        <v>2842</v>
+        <v>2839</v>
       </c>
       <c r="B8346" t="s">
         <v>118</v>
@@ -101499,7 +101490,7 @@
     </row>
     <row r="8347" spans="1:3">
       <c r="A8347" t="s">
-        <v>2842</v>
+        <v>2839</v>
       </c>
       <c r="B8347" t="s">
         <v>91</v>
@@ -101510,7 +101501,7 @@
     </row>
     <row r="8348" spans="1:3">
       <c r="A8348" t="s">
-        <v>2842</v>
+        <v>2839</v>
       </c>
       <c r="B8348" t="s">
         <v>118</v>
@@ -101521,7 +101512,7 @@
     </row>
     <row r="8349" spans="1:3">
       <c r="A8349" t="s">
-        <v>2842</v>
+        <v>2839</v>
       </c>
       <c r="B8349" t="s">
         <v>33</v>
@@ -101532,18 +101523,18 @@
     </row>
     <row r="8350" spans="1:3">
       <c r="A8350" t="s">
-        <v>2842</v>
+        <v>2839</v>
       </c>
       <c r="B8350" t="s">
         <v>91</v>
       </c>
       <c r="C8350" t="s">
-        <v>2634</v>
+        <v>2632</v>
       </c>
     </row>
     <row r="8351" spans="1:3">
       <c r="A8351" t="s">
-        <v>2842</v>
+        <v>2839</v>
       </c>
       <c r="B8351" t="s">
         <v>91</v>
@@ -101554,7 +101545,7 @@
     </row>
     <row r="8352" spans="1:3">
       <c r="A8352" t="s">
-        <v>2842</v>
+        <v>2839</v>
       </c>
       <c r="B8352" t="s">
         <v>118</v>
@@ -101571,7 +101562,7 @@
         <v>118</v>
       </c>
       <c r="C8353" t="s">
-        <v>2628</v>
+        <v>2627</v>
       </c>
     </row>
     <row r="8354" spans="1:3">
@@ -101582,7 +101573,7 @@
         <v>118</v>
       </c>
       <c r="C8354" t="s">
-        <v>2629</v>
+        <v>2628</v>
       </c>
     </row>
     <row r="8355" spans="1:3">
@@ -101604,7 +101595,7 @@
         <v>302</v>
       </c>
       <c r="C8356" t="s">
-        <v>2736</v>
+        <v>2733</v>
       </c>
     </row>
     <row r="8357" spans="1:3">
@@ -101645,7 +101636,7 @@
         <v>956</v>
       </c>
       <c r="B8360" t="s">
-        <v>2630</v>
+        <v>306</v>
       </c>
       <c r="C8360" t="s">
         <v>320</v>
@@ -101656,10 +101647,10 @@
         <v>956</v>
       </c>
       <c r="B8361" t="s">
-        <v>2630</v>
+        <v>306</v>
       </c>
       <c r="C8361" t="s">
-        <v>2631</v>
+        <v>2629</v>
       </c>
     </row>
     <row r="8362" spans="1:3">
@@ -101667,7 +101658,7 @@
         <v>956</v>
       </c>
       <c r="B8362" t="s">
-        <v>2630</v>
+        <v>306</v>
       </c>
       <c r="C8362" t="s">
         <v>305</v>
@@ -101678,7 +101669,7 @@
         <v>956</v>
       </c>
       <c r="B8363" t="s">
-        <v>2630</v>
+        <v>306</v>
       </c>
       <c r="C8363" t="s">
         <v>506</v>
@@ -101689,7 +101680,7 @@
         <v>956</v>
       </c>
       <c r="B8364" t="s">
-        <v>2630</v>
+        <v>306</v>
       </c>
       <c r="C8364" t="s">
         <v>984</v>
